--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Github\rpg-data\IceWind_Dale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Zbroja" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$B$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$C$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="194">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -198,9 +198,6 @@
     <t>miecz półtoraręczny</t>
   </si>
   <si>
-    <t>Miecz obóręczny</t>
-  </si>
-  <si>
     <t>1k10</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>FAR</t>
-  </si>
-  <si>
     <t>MYŚ</t>
   </si>
   <si>
@@ -475,6 +469,147 @@
   </si>
   <si>
     <t>Klasa pancerza: +1, nie chroni przed pociskami</t>
+  </si>
+  <si>
+    <t>Zbroja płytowa</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Miecz oburęczny</t>
+  </si>
+  <si>
+    <t>Krótki łuk +1</t>
+  </si>
+  <si>
+    <t>Miecz półtoraręczny +1</t>
+  </si>
+  <si>
+    <t>2k6+1</t>
+  </si>
+  <si>
+    <t>Miecz krótki +1</t>
+  </si>
+  <si>
+    <t>Zbroja płytowa +1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>FER</t>
+  </si>
+  <si>
+    <t>Bransolety ochrony</t>
+  </si>
+  <si>
+    <t>ZMA</t>
+  </si>
+  <si>
+    <t>Chełm zaufanego obrońcy</t>
+  </si>
+  <si>
+    <t>klasa pancerza: +3, niewrażliwość na uśpienie i zmęczenie, chroni przed obrażeniami krytycznymi</t>
+  </si>
+  <si>
+    <t>Krasnolud</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Półork</t>
+  </si>
+  <si>
+    <t>Półelf</t>
+  </si>
+  <si>
+    <t>Człowiek</t>
+  </si>
+  <si>
+    <t>Odporność na magię: +5%, 5% szans na rzucenie czaru Rozproszenie magii, po trafieniu</t>
+  </si>
+  <si>
+    <t>1k8+3</t>
+  </si>
+  <si>
+    <t>1k8+2</t>
+  </si>
+  <si>
+    <t>Pogromca wiary +2</t>
+  </si>
+  <si>
+    <t>Zabójca olbrzymów +1, +4 przeciw olbrzymom</t>
+  </si>
+  <si>
+    <t>+1, +4 przeciw olbrzymom</t>
+  </si>
+  <si>
+    <t>Włócznia z białego jesionu +3</t>
+  </si>
+  <si>
+    <t>5% szans na dodatkowe 1k6 obrażeń kłutych na kolców na grocie włóczni</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>Oko świni +4</t>
+  </si>
+  <si>
+    <t>50% szans, że trafiony ork zostanie oślepiony</t>
+  </si>
+  <si>
+    <t>1k6+2, +4 przeciw orkom</t>
+  </si>
+  <si>
+    <t>+2, +4 przeciw orkom</t>
+  </si>
+  <si>
+    <t>Hiena cmentarna +3</t>
+  </si>
+  <si>
+    <t>1k6+4</t>
+  </si>
+  <si>
+    <t>Sejmitar szczęścia +2</t>
+  </si>
+  <si>
+    <t>szczęście (+1 do wszystkich rzutów), właściwości ładunków - szczęście (raz dziennie), zasięg: 5 metrów, czas trwania: 3 rundy, obszar działania: 1 istota</t>
+  </si>
+  <si>
+    <t>Ostoja +4</t>
+  </si>
+  <si>
+    <t>1k4+4</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>Kwiatek +3</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>Czarny łuk +3</t>
+  </si>
+  <si>
+    <t>Halabarda Fayra +3</t>
+  </si>
+  <si>
+    <t>1k10+3</t>
+  </si>
+  <si>
+    <t>Kij Erona +3</t>
+  </si>
+  <si>
+    <t>1k6+3</t>
+  </si>
+  <si>
+    <t>Piekielny młot +3</t>
   </si>
 </sst>
 </file>
@@ -874,82 +1009,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" customWidth="1"/>
-    <col min="23" max="23" width="5.44140625" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.109375" customWidth="1"/>
-    <col min="26" max="26" width="6.21875" customWidth="1"/>
-    <col min="27" max="27" width="6" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" customWidth="1"/>
-    <col min="29" max="29" width="5.44140625" customWidth="1"/>
-    <col min="30" max="30" width="10.44140625" customWidth="1"/>
-    <col min="31" max="31" width="14.5546875" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -962,176 +1102,174 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
-    </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>29</v>
@@ -1139,41 +1277,41 @@
       <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>29</v>
@@ -1184,10 +1322,10 @@
       <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1199,336 +1337,338 @@
       <c r="W6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12">
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13">
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>28</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
         <v>70</v>
       </c>
-      <c r="G16">
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1537,514 +1677,1071 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17">
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
         <v>4</v>
       </c>
-      <c r="H17" t="s">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="I17" t="s">
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
         <v>49</v>
       </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18">
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19">
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
         <v>79</v>
       </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
         <v>0</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>13</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="W21" s="2"/>
       <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
+      <c r="D22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
       <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" t="s">
         <v>49</v>
       </c>
-      <c r="J22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22">
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22">
         <v>14</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="S22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="W22" s="2"/>
       <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>49</v>
       </c>
-      <c r="J23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23">
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23">
         <v>7</v>
       </c>
-      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="W23" s="2"/>
       <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
         <v>93</v>
       </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24">
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="W24" s="2"/>
       <c r="Y24" s="2"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25">
+      <c r="L25">
         <v>10</v>
       </c>
-      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
         <v>97</v>
       </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>49</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>28</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2</v>
       </c>
-      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="R26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
         <v>99</v>
       </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27">
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29">
+      <c r="L29">
         <v>0</v>
       </c>
-      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="Z29" s="1"/>
+      <c r="T29" s="2"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="2"/>
+      <c r="AB29" s="1"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
         <v>79</v>
       </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31">
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="R31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
         <v>79</v>
       </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32">
+      <c r="L32">
         <v>1</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="R32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <v>12</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="X47" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="L1:Y1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2053,10 +2750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,30 +2790,35 @@
     <col min="29" max="29" width="14.5546875" customWidth="1"/>
     <col min="30" max="30" width="10" customWidth="1"/>
     <col min="31" max="31" width="5.21875" customWidth="1"/>
-    <col min="32" max="32" width="6.6640625" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" customWidth="1"/>
+    <col min="36" max="36" width="7.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2140,7 +2843,7 @@
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2159,7 +2862,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>34</v>
@@ -2183,65 +2886,86 @@
         <v>40</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="X2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="7">
         <v>40</v>
@@ -2270,12 +2994,12 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2310,24 +3034,24 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="7">
         <v>40</v>
@@ -2356,21 +3080,21 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
     </row>
-    <row r="6" spans="1:34" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>28</v>
@@ -2384,21 +3108,21 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>28</v>
@@ -2412,21 +3136,21 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
         <v>15</v>
@@ -2436,15 +3160,15 @@
       <c r="V8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
         <v>7</v>
@@ -2456,12 +3180,12 @@
       <c r="V9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -2470,15 +3194,15 @@
       <c r="P10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
         <v>15</v>
@@ -2490,15 +3214,15 @@
       <c r="V11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7">
         <v>3</v>
@@ -2509,6 +3233,94 @@
       <c r="Q12" s="2"/>
       <c r="V12" s="2"/>
       <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="7">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AI13" s="2"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AI14" s="2"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="218">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -610,6 +610,78 @@
   </si>
   <si>
     <t>Piekielny młot +3</t>
+  </si>
+  <si>
+    <t>Maczuga zagłady śmiercionośnych pająków +2</t>
+  </si>
+  <si>
+    <t>1k6, +2, +4 przeciw pająkom</t>
+  </si>
+  <si>
+    <t>+2, +4 przeciw pająkom</t>
+  </si>
+  <si>
+    <t>Kres pikinierów +3</t>
+  </si>
+  <si>
+    <t>Miłość Czarnej Bess</t>
+  </si>
+  <si>
+    <t>10% szans, że cel straci 4 punkty Szczęścia po trafieniu</t>
+  </si>
+  <si>
+    <t>Zabójca trolli +1, +4 przeciw trollom</t>
+  </si>
+  <si>
+    <t>2k4, +1, +4 przeciw trollom</t>
+  </si>
+  <si>
+    <t>+1, +4 przeciw trollom</t>
+  </si>
+  <si>
+    <t>sieczne (1k4) oraz od ognia (1k4)</t>
+  </si>
+  <si>
+    <t>Gwiazda dawania +3</t>
+  </si>
+  <si>
+    <t>10% wszystkich trafień rzuca na użytkownika czar Leczenie lekkich ran, a także zapewnia mu premię +1 do Siły na 5 rund</t>
+  </si>
+  <si>
+    <t>2k4+3</t>
+  </si>
+  <si>
+    <t>Chaotycznie dobry</t>
+  </si>
+  <si>
+    <t>Neutralny dobry</t>
+  </si>
+  <si>
+    <t>Praworządny dobry</t>
+  </si>
+  <si>
+    <t>Samotna droga +3</t>
+  </si>
+  <si>
+    <t>Kondycja: +1</t>
+  </si>
+  <si>
+    <t>Miecz z Doliny Myrloch +3</t>
+  </si>
+  <si>
+    <t>Wiedza: +20</t>
+  </si>
+  <si>
+    <t>Neutralny zły</t>
+  </si>
+  <si>
+    <t>Praworządny zły</t>
+  </si>
+  <si>
+    <t>Chaotyczny zły</t>
+  </si>
+  <si>
+    <t>Miecz Baela +3</t>
   </si>
 </sst>
 </file>
@@ -1009,16 +1081,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="5" customWidth="1"/>
@@ -1050,9 +1122,15 @@
     <col min="31" max="31" width="10.44140625" customWidth="1"/>
     <col min="32" max="32" width="14.5546875" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1182,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
@@ -1176,8 +1254,26 @@
       <c r="AG2" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1310,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1342,7 @@
       <c r="U4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1384,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1464,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1400,7 +1496,7 @@
       <c r="U8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1434,7 +1530,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1466,7 +1562,7 @@
       <c r="U10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1502,7 +1598,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -1538,7 +1634,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1571,7 +1667,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1606,7 +1702,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1638,7 +1734,7 @@
       <c r="U15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2734,6 +2830,317 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="X47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+    </row>
+    <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Broń" sheetId="1" r:id="rId1"/>
     <sheet name="Zbroja" sheetId="2" r:id="rId2"/>
+    <sheet name="Mikstury" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$C$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="262">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -682,6 +684,138 @@
   </si>
   <si>
     <t>Miecz Baela +3</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Mikstura uzdrowienia</t>
+  </si>
+  <si>
+    <t>Eliksir zdrowia</t>
+  </si>
+  <si>
+    <t>Neutralizuje trucizny i choroby oraz przywraca 10 punktów życia</t>
+  </si>
+  <si>
+    <t>Antidotum</t>
+  </si>
+  <si>
+    <t>Neutralizuje truciznę</t>
+  </si>
+  <si>
+    <t>Mikstura odporności na ogień</t>
+  </si>
+  <si>
+    <t>Mikstura siły lodowego olbrzyma</t>
+  </si>
+  <si>
+    <t>Mikstura niewrażliwości</t>
+  </si>
+  <si>
+    <t>Olej wściekłego płomienia</t>
+  </si>
+  <si>
+    <t>Obrażenia: 5k6 od ognia (połowa po rzucie obronnym przeciw zionięciom), zasięg: 13 metrów, obszar działania: w promieniu 10 metrów</t>
+  </si>
+  <si>
+    <t>Dwukrotnie zwiększa prędkość poruszania się i ataku</t>
+  </si>
+  <si>
+    <t>Czas działania</t>
+  </si>
+  <si>
+    <t>Natychmiastowy</t>
+  </si>
+  <si>
+    <t>Przywraca 9 punktów życia</t>
+  </si>
+  <si>
+    <t>2 godziny</t>
+  </si>
+  <si>
+    <t>1 godzina</t>
+  </si>
+  <si>
+    <t>Odporność na ogień: +50%</t>
+  </si>
+  <si>
+    <t>Siła: 21 (siła lodowego olbrzyma)</t>
+  </si>
+  <si>
+    <t>Klasa pancerza: 0, Rzuty obronne: +5</t>
+  </si>
+  <si>
+    <t>Mikstura zręczności</t>
+  </si>
+  <si>
+    <t>Zręczność: 18</t>
+  </si>
+  <si>
+    <t>15 tur</t>
+  </si>
+  <si>
+    <t>Olej szybkości</t>
+  </si>
+  <si>
+    <t>Mikstura infrawizji</t>
+  </si>
+  <si>
+    <t>Infrawizja</t>
+  </si>
+  <si>
+    <t>4 godziny</t>
+  </si>
+  <si>
+    <t>Mikstura skupienia</t>
+  </si>
+  <si>
+    <t>Inteligencja: +3, Zręczność: +3</t>
+  </si>
+  <si>
+    <t>12 godzin</t>
+  </si>
+  <si>
+    <t>Mikstura lustrzanych oczu</t>
+  </si>
+  <si>
+    <t>Niewrażliwość na petryfikację</t>
+  </si>
+  <si>
+    <t>1 tura</t>
+  </si>
+  <si>
+    <t>Mikstura wolności</t>
+  </si>
+  <si>
+    <t>Swoboda działania</t>
+  </si>
+  <si>
+    <t>Napar mumii</t>
+  </si>
+  <si>
+    <t>Leczy ślepotę, głuchotę i choroby</t>
+  </si>
+  <si>
+    <t>Płonąca oliwa</t>
+  </si>
+  <si>
+    <t>Po trafieniu w cel, szklane naczynie rozbija się, rozlewając płonącą oliwę na wszystko w promieniu 1,5 metra, powodując 2k8 obrażeń od ognia</t>
+  </si>
+  <si>
+    <t>Mikstura heroizmu</t>
+  </si>
+  <si>
+    <t>Punkty życia: +10% (tylko bazowe), TraK0: 90% bazowej wartości</t>
+  </si>
+  <si>
+    <t>Mikstura niewidzialności</t>
+  </si>
+  <si>
+    <t>Niewidzialność</t>
+  </si>
+  <si>
+    <t>24 godziny</t>
   </si>
 </sst>
 </file>
@@ -706,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,8 +859,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -734,38 +874,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,2064 +1293,2086 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" customWidth="1"/>
-    <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" customWidth="1"/>
-    <col min="33" max="33" width="10" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="4" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="6" style="4" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="4" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="4" customWidth="1"/>
+    <col min="33" max="33" width="10" style="4" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="4" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="4" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-    </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>8</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>10</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>15</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>6</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>7</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>15</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>4</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>4</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>15</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="M19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="M20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>10</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>14</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>5</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>7</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>3</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>7</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>10</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>2</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>6</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>1</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="M31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>2</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="M32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>5</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>7</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="4">
         <v>9</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>5</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="4">
         <v>5</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>5</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>5</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>2</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="M38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>3</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="4">
         <v>5</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="X40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>4</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
+      <c r="M42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>4</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>7</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>4</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="4">
         <v>3</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>6</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>12</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="4">
         <v>3</v>
       </c>
-      <c r="S46" s="2"/>
+      <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>6</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="X47" s="2"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="X47" s="5"/>
     </row>
     <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>3</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="O48" s="1"/>
+      <c r="O48" s="14"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>7</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="4">
         <v>8</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>5</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>7</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>6</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
     </row>
     <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>4</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
         <v>9</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>6</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="4">
         <v>10</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="4">
         <v>4</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>3</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="4">
         <v>4</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
@@ -3160,574 +3392,597 @@
   <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="6.21875" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="5.21875" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.21875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6" style="4" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10" style="4" customWidth="1"/>
+    <col min="31" max="31" width="5.21875" style="4" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="4" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="7.33203125" style="4" customWidth="1"/>
+    <col min="37" max="37" width="10" style="4" customWidth="1"/>
+    <col min="38" max="41" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-    </row>
-    <row r="2" spans="1:41" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>40</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>40</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:41" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>40</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="L6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <v>25</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="L7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <v>15</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="L8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>7</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>2</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:41" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>15</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>3</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="X12" s="1"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>50</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>20</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AI14" s="5"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>2</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="V15" s="5"/>
+      <c r="AJ15" s="5"/>
     </row>
     <row r="16" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
+      <c r="L16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3736,4 +3991,346 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="70" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="5.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Broń" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="268">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -452,27 +452,15 @@
     <t>Tarcza średnia</t>
   </si>
   <si>
-    <t>Klasa pancerza: +1</t>
-  </si>
-  <si>
     <t>Puklerz</t>
   </si>
   <si>
-    <t>Klasa pancerza: +1, nie chroni przed obrażeniami kłutymi i pociskami</t>
-  </si>
-  <si>
     <t>Pawęż</t>
   </si>
   <si>
-    <t>Klasa pancerza: +1, (+2 przeciw pociskom)</t>
-  </si>
-  <si>
     <t>Mała tarcza</t>
   </si>
   <si>
-    <t>Klasa pancerza: +1, nie chroni przed pociskami</t>
-  </si>
-  <si>
     <t>Zbroja płytowa</t>
   </si>
   <si>
@@ -512,9 +500,6 @@
     <t>Chełm zaufanego obrońcy</t>
   </si>
   <si>
-    <t>klasa pancerza: +3, niewrażliwość na uśpienie i zmęczenie, chroni przed obrażeniami krytycznymi</t>
-  </si>
-  <si>
     <t>Krasnolud</t>
   </si>
   <si>
@@ -816,6 +801,39 @@
   </si>
   <si>
     <t>24 godziny</t>
+  </si>
+  <si>
+    <t>Nie chroni przed obrażeniami kłutymi i pociskami</t>
+  </si>
+  <si>
+    <t>Niewrażliwość na uśpienie i zmęczenie, chroni przed obrażeniami krytycznymi</t>
+  </si>
+  <si>
+    <t>Wekiera wysokiej jakości</t>
+  </si>
+  <si>
+    <t>Pas beatyfikacji</t>
+  </si>
+  <si>
+    <t>Użytkownik znajduje się pod wpływem czaru Błogosławieństwo</t>
+  </si>
+  <si>
+    <t>Różdźka szukania pułapek</t>
+  </si>
+  <si>
+    <t>Właściwości ładunków - znajdowanie pułapek; Użytkownik wykrywa pułapki jakby był złodziejem</t>
+  </si>
+  <si>
+    <t>inteligencja:9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Zbroja skórzana +1</t>
+  </si>
+  <si>
+    <t>Miecz długi najlepszej jakości</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -926,11 +944,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -941,12 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -965,6 +1003,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,8 +1042,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,19 +1368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25" style="7" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" style="4" customWidth="1"/>
@@ -1342,87 +1419,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1487,29 +1564,29 @@
         <v>107</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="AM2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1530,7 +1607,7 @@
       <c r="L3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="5"/>
@@ -1543,10 +1620,10 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1575,10 +1652,10 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1599,13 +1676,13 @@
       <c r="L5" s="4">
         <v>7</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="R5" s="5"/>
@@ -1617,10 +1694,10 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1641,39 +1718,39 @@
       <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1697,10 +1774,10 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1729,10 +1806,10 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1763,10 +1840,10 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1795,10 +1872,10 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1831,10 +1908,10 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1867,10 +1944,10 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1900,10 +1977,10 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1935,10 +2012,10 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1967,10 +2044,10 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2008,10 +2085,10 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -2035,10 +2112,10 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -2071,10 +2148,10 @@
       <c r="X18" s="5"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2104,10 +2181,10 @@
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2139,10 +2216,10 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2170,13 +2247,13 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2210,10 +2287,10 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="4">
@@ -2244,10 +2321,10 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H24" s="4">
@@ -2278,13 +2355,13 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H25" s="4">
@@ -2315,7 +2392,7 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="4">
@@ -2345,7 +2422,7 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H27" s="4">
@@ -2367,10 +2444,10 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2393,10 +2470,10 @@
       <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -2410,8 +2487,8 @@
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
@@ -2419,10 +2496,10 @@
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2436,13 +2513,13 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2472,13 +2549,13 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2508,13 +2585,13 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H33" s="4">
@@ -2545,13 +2622,13 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="A34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2584,13 +2661,13 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -2622,16 +2699,16 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="A36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -2664,14 +2741,14 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>171</v>
+      <c r="A37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
@@ -2692,17 +2769,17 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>174</v>
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>11</v>
@@ -2732,19 +2809,19 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="A39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="4">
@@ -2773,14 +2850,14 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="A40" s="7" t="s">
         <v>174</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>18</v>
@@ -2808,16 +2885,16 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="A41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2847,14 +2924,14 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>185</v>
+      <c r="A42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
@@ -2883,14 +2960,14 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>187</v>
+      <c r="A43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>69</v>
@@ -2923,14 +3000,14 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>185</v>
+      <c r="A44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="H44" s="4">
         <v>4</v>
@@ -2960,14 +3037,14 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>174</v>
+      <c r="A45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>11</v>
@@ -2999,14 +3076,14 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>174</v>
+      <c r="A46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>18</v>
@@ -3029,14 +3106,14 @@
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>174</v>
+      <c r="A47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>18</v>
@@ -3064,16 +3141,16 @@
       <c r="X47" s="5"/>
     </row>
     <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="A48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="4">
@@ -3091,17 +3168,17 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="O48" s="14"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>174</v>
+      <c r="A49" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>23</v>
@@ -3133,17 +3210,17 @@
       <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>174</v>
+      <c r="A50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>18</v>
@@ -3171,17 +3248,17 @@
       <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>203</v>
+      <c r="A51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="H51" s="4">
         <v>6</v>
@@ -3210,17 +3287,17 @@
       <c r="X51" s="5"/>
     </row>
     <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>174</v>
+      <c r="A52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>18</v>
@@ -3251,17 +3328,17 @@
       <c r="AJ52" s="5"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>210</v>
+      <c r="A53" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>174</v>
+        <v>206</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>23</v>
@@ -3296,17 +3373,17 @@
       <c r="AM53" s="5"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>174</v>
+      <c r="A54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>23</v>
@@ -3337,14 +3414,14 @@
       <c r="X54" s="5"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>174</v>
+      <c r="A55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>23</v>
@@ -3374,13 +3451,95 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
     </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="4">
+        <v>7</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="4">
+        <v>8</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="4">
+        <v>5</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="M1:Z1"/>
+  <mergeCells count="11">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="M1:AM1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3389,23 +3548,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="4.88671875" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.109375" style="4" customWidth="1"/>
@@ -3433,84 +3592,85 @@
     <col min="33" max="33" width="6.21875" style="4" customWidth="1"/>
     <col min="34" max="34" width="6.6640625" style="4" customWidth="1"/>
     <col min="35" max="35" width="6.33203125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" style="4" customWidth="1"/>
-    <col min="37" max="37" width="10" style="4" customWidth="1"/>
-    <col min="38" max="41" width="8.88671875" style="4"/>
+    <col min="36" max="37" width="7.33203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="10" style="4" customWidth="1"/>
+    <col min="39" max="42" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-    </row>
-    <row r="2" spans="1:41" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="23"/>
+    </row>
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
@@ -3575,7 +3735,7 @@
         <v>107</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>122</v>
@@ -3590,178 +3750,181 @@
         <v>102</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="AO2" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>40</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>40</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" spans="1:42" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>40</v>
       </c>
       <c r="L6" s="5"/>
@@ -3770,26 +3933,26 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>25</v>
       </c>
       <c r="L7" s="5"/>
@@ -3798,23 +3961,23 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>15</v>
       </c>
       <c r="L8" s="5"/>
@@ -3822,17 +3985,17 @@
       <c r="V8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>7</v>
       </c>
       <c r="K9" s="5"/>
@@ -3842,31 +4005,38 @@
       <c r="V9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="9">
+    <row r="10" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7">
         <v>2</v>
       </c>
       <c r="L10" s="5"/>
       <c r="P10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:41" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="9" t="s">
+    <row r="11" spans="1:42" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>15</v>
       </c>
       <c r="K11" s="5"/>
@@ -3876,17 +4046,18 @@
       <c r="V11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="9" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>3</v>
       </c>
       <c r="K12" s="5"/>
@@ -3894,22 +4065,22 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="D13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>50</v>
       </c>
       <c r="K13" s="5"/>
@@ -3923,20 +4094,20 @@
       <c r="AF13" s="5"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="13" t="s">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>20</v>
       </c>
       <c r="K14" s="5"/>
@@ -3950,27 +4121,30 @@
       <c r="AF14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="V15" s="5"/>
       <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="9">
+    <row r="16" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="7">
         <v>2</v>
       </c>
       <c r="L16" s="5"/>
@@ -3978,15 +4152,81 @@
       <c r="Q16" s="5"/>
       <c r="V16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="AK19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:W1"/>
+  <mergeCells count="10">
+    <mergeCell ref="J1:AP1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3997,16 +4237,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="70" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="70" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="4"/>
     <col min="5" max="5" width="5.21875" style="4" customWidth="1"/>
     <col min="6" max="6" width="5" style="4" customWidth="1"/>
@@ -4017,34 +4257,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>102</v>
@@ -4063,56 +4303,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>231</v>
+      <c r="A3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>231</v>
+      <c r="A4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>231</v>
+      <c r="A5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>233</v>
+      <c r="A6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4120,14 +4360,14 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>233</v>
+      <c r="A7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -4140,14 +4380,14 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>234</v>
+      <c r="A8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -4160,14 +4400,14 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>231</v>
+      <c r="A9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -4175,14 +4415,14 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -4190,14 +4430,14 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>240</v>
+      <c r="A11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -4205,14 +4445,14 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>244</v>
+      <c r="A12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -4220,14 +4460,14 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>247</v>
+      <c r="A13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -4235,14 +4475,14 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>250</v>
+      <c r="A14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -4250,14 +4490,14 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>233</v>
+      <c r="A15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -4265,42 +4505,42 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>231</v>
+      <c r="A16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>231</v>
+      <c r="A17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>233</v>
+      <c r="A18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -4313,14 +4553,14 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>261</v>
+      <c r="A19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -4328,8 +4568,12 @@
       <c r="E19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Broń" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="272">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -182,9 +182,6 @@
     <t>2-ręczna</t>
   </si>
   <si>
-    <t>Morgenstern</t>
-  </si>
-  <si>
     <t>2k4</t>
   </si>
   <si>
@@ -834,6 +831,21 @@
   </si>
   <si>
     <t>Miecz długi najlepszej jakości</t>
+  </si>
+  <si>
+    <t>Morgensztern</t>
+  </si>
+  <si>
+    <t>Strzała +1</t>
+  </si>
+  <si>
+    <t>Mikstura geniuszu</t>
+  </si>
+  <si>
+    <t>Inteligencja: +3 (maksymalnie do 25)</t>
+  </si>
+  <si>
+    <t>3 godziny</t>
   </si>
 </sst>
 </file>
@@ -1368,11 +1380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,20 +1435,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>3</v>
@@ -1489,10 +1501,10 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1513,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>34</v>
@@ -1537,49 +1549,49 @@
         <v>40</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AA2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AH2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="AK2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
@@ -1841,10 +1853,10 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
@@ -1853,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="4">
         <v>12</v>
@@ -1873,10 +1885,10 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>23</v>
@@ -1885,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="4">
         <v>10</v>
@@ -1909,10 +1921,10 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
@@ -1921,13 +1933,13 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="4">
         <v>15</v>
@@ -1945,7 +1957,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
@@ -1957,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="4">
         <v>4</v>
@@ -1978,10 +1990,10 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>23</v>
@@ -1990,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>13</v>
@@ -2013,7 +2025,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>45</v>
@@ -2025,13 +2037,13 @@
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="4">
         <v>15</v>
@@ -2045,7 +2057,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>45</v>
@@ -2054,7 +2066,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="4">
         <v>4</v>
@@ -2066,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="4">
         <v>4</v>
@@ -2086,7 +2098,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>10</v>
@@ -2098,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>49</v>
@@ -2113,10 +2125,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
@@ -2125,13 +2137,13 @@
         <v>9</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="4">
         <v>15</v>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
@@ -2161,13 +2173,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
@@ -2182,25 +2194,25 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="4">
         <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>13</v>
@@ -2248,28 +2260,28 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="4">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="4">
         <v>14</v>
@@ -2288,22 +2300,22 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L23" s="4">
         <v>7</v>
@@ -2322,22 +2334,22 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="H24" s="4">
         <v>7</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="4">
         <v>3</v>
@@ -2356,25 +2368,25 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="4">
         <v>7</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4">
         <v>10</v>
@@ -2393,13 +2405,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" s="4">
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>49</v>
@@ -2423,19 +2435,19 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="4">
         <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
@@ -2445,16 +2457,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
@@ -2471,16 +2483,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -2497,16 +2509,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -2514,13 +2526,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>11</v>
@@ -2529,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L31" s="4">
         <v>1</v>
@@ -2550,13 +2562,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>11</v>
@@ -2565,13 +2577,13 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>49</v>
@@ -2623,13 +2635,13 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>23</v>
@@ -2638,13 +2650,13 @@
         <v>7</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" s="4">
         <v>9</v>
@@ -2662,13 +2674,13 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>11</v>
@@ -2700,16 +2712,16 @@
     </row>
     <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>23</v>
@@ -2742,25 +2754,25 @@
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L37" s="4">
         <v>0</v>
@@ -2770,16 +2782,16 @@
     </row>
     <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>11</v>
@@ -2810,16 +2822,16 @@
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>11</v>
@@ -2851,13 +2863,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>18</v>
@@ -2866,13 +2878,13 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="4">
         <v>5</v>
@@ -2886,16 +2898,16 @@
     </row>
     <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>23</v>
@@ -2904,13 +2916,13 @@
         <v>4</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L41" s="4">
         <v>4</v>
@@ -2925,13 +2937,13 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
@@ -2940,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L42" s="4">
         <v>1</v>
@@ -2961,28 +2973,28 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="4">
         <v>4</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L43" s="4">
         <v>7</v>
@@ -3001,25 +3013,25 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H44" s="4">
         <v>4</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L44" s="4">
         <v>3</v>
@@ -3038,13 +3050,13 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>11</v>
@@ -3053,13 +3065,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L45" s="4">
         <v>12</v>
@@ -3077,13 +3089,13 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>18</v>
@@ -3092,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>49</v>
@@ -3107,13 +3119,13 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>18</v>
@@ -3142,13 +3154,13 @@
     </row>
     <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>18</v>
@@ -3172,13 +3184,13 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>23</v>
@@ -3187,13 +3199,13 @@
         <v>7</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L49" s="4">
         <v>8</v>
@@ -3211,16 +3223,16 @@
     </row>
     <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="C50" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>18</v>
@@ -3249,28 +3261,28 @@
     </row>
     <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H51" s="4">
         <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L51" s="4">
         <v>8</v>
@@ -3288,16 +3300,16 @@
     </row>
     <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="D52" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>18</v>
@@ -3306,13 +3318,13 @@
         <v>4</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L52" s="4">
         <v>9</v>
@@ -3329,16 +3341,16 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C53" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>23</v>
@@ -3374,16 +3386,16 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="C54" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>23</v>
@@ -3415,13 +3427,13 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>23</v>
@@ -3453,13 +3465,13 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>18</v>
@@ -3488,13 +3500,13 @@
     </row>
     <row r="57" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>23</v>
@@ -3523,6 +3535,35 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
@@ -3599,25 +3640,25 @@
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>6</v>
@@ -3684,7 +3725,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>34</v>
@@ -3708,89 +3749,89 @@
         <v>40</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="X2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AE2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="AI2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="7">
         <v>40</v>
@@ -3821,10 +3862,10 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3861,22 +3902,22 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
         <v>40</v>
@@ -3907,19 +3948,19 @@
     </row>
     <row r="6" spans="1:42" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>28</v>
@@ -3935,19 +3976,19 @@
     </row>
     <row r="7" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>28</v>
@@ -3963,19 +4004,19 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7">
         <v>15</v>
@@ -3987,13 +4028,13 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
         <v>7</v>
@@ -4007,13 +4048,13 @@
     </row>
     <row r="10" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -4024,17 +4065,17 @@
     </row>
     <row r="11" spans="1:42" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="7">
         <v>15</v>
@@ -4048,14 +4089,14 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
         <v>3</v>
@@ -4069,16 +4110,16 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7">
         <v>50</v>
@@ -4096,16 +4137,16 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
         <v>20</v>
@@ -4123,10 +4164,10 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
@@ -4136,13 +4177,13 @@
     </row>
     <row r="16" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7">
         <v>2</v>
@@ -4160,10 +4201,10 @@
     </row>
     <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -4172,13 +4213,13 @@
     </row>
     <row r="18" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -4193,19 +4234,19 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="4">
         <v>10</v>
@@ -4235,11 +4276,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4258,13 +4299,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>7</v>
@@ -4284,10 +4325,10 @@
       <c r="C2" s="28"/>
       <c r="D2" s="30"/>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>30</v>
@@ -4304,13 +4345,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -4318,13 +4359,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4332,13 +4373,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4346,13 +4387,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4361,13 +4402,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -4381,13 +4422,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -4401,13 +4442,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -4416,13 +4457,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -4431,13 +4472,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -4446,13 +4487,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -4461,13 +4502,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -4476,13 +4517,13 @@
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -4491,13 +4532,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -4506,13 +4547,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -4520,13 +4561,13 @@
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -4534,13 +4575,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -4554,18 +4595,33 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Broń" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Mikstury" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$C$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$C$1:$L$63</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="284">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -846,13 +846,65 @@
   </si>
   <si>
     <t>3 godziny</t>
+  </si>
+  <si>
+    <t>Sztylet przenikania</t>
+  </si>
+  <si>
+    <t>15% szans na przeniknięcie ofiary (1 obrażenie co 2 sekundy przez 10 sekund), po trafieniu</t>
+  </si>
+  <si>
+    <t>Mikstura siły</t>
+  </si>
+  <si>
+    <t>Siła:18</t>
+  </si>
+  <si>
+    <t>Sztylet +1</t>
+  </si>
+  <si>
+    <t>Mikstura izolacji</t>
+  </si>
+  <si>
+    <t>Odporność na elektryczność: +50%</t>
+  </si>
+  <si>
+    <t>Kolczuga +1</t>
+  </si>
+  <si>
+    <t>Miecz długi +1</t>
+  </si>
+  <si>
+    <t>1k8+1</t>
+  </si>
+  <si>
+    <t>Proca +1</t>
+  </si>
+  <si>
+    <t>Strzała wysokiej jakości</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,7 +922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +944,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1012,17 +1076,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1035,15 +1096,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1066,6 +1118,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1380,2193 +1475,2361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="6" style="4" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="4" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="4" customWidth="1"/>
-    <col min="33" max="33" width="10" style="4" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="4" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="4" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="4" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25" style="35" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="39"/>
+    <col min="11" max="11" width="11.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="39" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="39" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="39" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="39" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="39" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="39" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="39" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="39" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="39" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="39" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="39" customWidth="1"/>
+    <col min="28" max="28" width="6" style="39" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="39" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="39" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="39" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="39" customWidth="1"/>
+    <col min="33" max="33" width="10" style="39" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="39" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="39" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="39" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="39" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="39" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="39" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="16"/>
-    </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="6" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="33"/>
+    </row>
+    <row r="2" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="6" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="39">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="39">
         <v>3</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="39">
         <v>4</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="39">
         <v>6</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="X4" s="42"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="39">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="39">
         <v>7</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="39">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="39">
         <v>4</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="39">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="39">
         <v>3</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="39">
         <v>7</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="39">
         <v>8</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="X8" s="42"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="39">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="39">
         <v>5</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="M9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="39">
         <v>7</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="39">
         <v>12</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="X10" s="42"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="39">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="39">
         <v>10</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="39">
         <v>10</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="39">
         <v>15</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="39">
         <v>5</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="39">
         <v>4</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="M13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="39">
         <v>4</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="39">
         <v>6</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="39">
         <v>7</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="39">
         <v>15</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="X15" s="42"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="39">
         <v>4</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="39">
         <v>4</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="39">
         <v>4</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="39">
         <v>4</v>
       </c>
-      <c r="S17" s="5"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="39">
         <v>9</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="39">
         <v>15</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="39">
         <v>2</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="39">
         <v>1</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="M19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="39">
         <v>2</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="39">
         <v>0</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="M20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="39">
         <v>2</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="39">
         <v>0</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="M21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="39">
         <v>10</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="39">
         <v>14</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="39">
         <v>5</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="39">
         <v>7</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="39">
         <v>7</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="39">
         <v>3</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="39">
         <v>7</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="39">
         <v>10</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="39">
         <v>6</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="39">
         <v>2</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="39">
         <v>6</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="39">
         <v>0</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+    </row>
+    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="39">
         <v>0</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="39">
         <v>0</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="39">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="39">
         <v>1</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="M31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="39">
         <v>2</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="39">
         <v>1</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="M32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="39">
         <v>5</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="39">
         <v>2</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="39">
         <v>7</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="39">
         <v>9</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="39">
         <v>2</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="39">
         <v>3</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
     </row>
     <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="39">
         <v>5</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="39">
         <v>5</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="39">
         <v>5</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="39">
         <v>0</v>
       </c>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
     </row>
     <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="39">
         <v>5</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="39">
         <v>2</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
+      <c r="M38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="39">
         <v>1</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="39">
         <v>3</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="39">
         <v>3</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="39">
         <v>5</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="X40" s="5"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="X40" s="42"/>
     </row>
     <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="39">
         <v>4</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="39">
         <v>4</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
+      <c r="M41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="39">
         <v>1</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="39">
         <v>1</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="M42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="39">
         <v>4</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="39">
         <v>7</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="39">
         <v>4</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="39">
         <v>3</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="39">
         <v>6</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="39">
         <v>12</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="39">
         <v>1</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="39">
         <v>3</v>
       </c>
-      <c r="S46" s="5"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="39">
         <v>1</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="39">
         <v>6</v>
       </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="X47" s="5"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="X47" s="42"/>
     </row>
     <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="39">
         <v>3</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="39">
         <v>2</v>
       </c>
-      <c r="O48" s="12"/>
+      <c r="O48" s="41"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="39">
         <v>7</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="39">
         <v>8</v>
       </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
     </row>
     <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="39">
         <v>5</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="39">
         <v>7</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="X50" s="5"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="X50" s="42"/>
     </row>
     <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="39">
         <v>6</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="39">
         <v>8</v>
       </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="39">
         <v>4</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="39">
         <v>9</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="39">
         <v>6</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="39">
         <v>10</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+      <c r="AM53" s="42"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="39">
         <v>4</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="39">
         <v>4</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="39">
         <v>3</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="39">
         <v>4</v>
       </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="39">
         <v>7</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="39">
         <v>8</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="X56" s="5"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="X56" s="42"/>
     </row>
     <row r="57" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="39">
         <v>5</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="39">
         <v>4</v>
       </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="39">
         <v>0</v>
       </c>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+    </row>
+    <row r="59" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="39">
+        <v>2</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="39">
+        <v>1</v>
+      </c>
+      <c r="M59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="39">
+        <v>4</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="39">
+        <v>4</v>
+      </c>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="39">
+        <v>5</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L63" s="39">
+        <v>0</v>
+      </c>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L32" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L63" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
@@ -3589,11 +3852,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,79 +3902,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="23"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="15"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
@@ -4256,6 +4519,34 @@
       <c r="V19" s="5"/>
       <c r="AK19" s="5"/>
     </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="4">
+        <v>20</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="J1:AP1"/>
@@ -4276,11 +4567,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4298,32 +4589,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
@@ -4622,6 +4913,36 @@
         <v>1</v>
       </c>
       <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Broń" sheetId="1" r:id="rId1"/>
-    <sheet name="Zbroja" sheetId="2" r:id="rId2"/>
+    <sheet name="Atak" sheetId="1" r:id="rId1"/>
+    <sheet name="Obrona" sheetId="2" r:id="rId2"/>
     <sheet name="Mikstury" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Broń!$C$1:$L$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$63</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="289">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -882,6 +882,21 @@
   </si>
   <si>
     <t>Strzała wysokiej jakości</t>
+  </si>
+  <si>
+    <t>Rękawice biegłości</t>
+  </si>
+  <si>
+    <t>TraK0: +1</t>
+  </si>
+  <si>
+    <t>Strzała ognista +1</t>
+  </si>
+  <si>
+    <t>1k6, +1k6 obrażeń od ognia (rzut obronny przeciwko czarom neguje)</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -1475,18 +1490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U64" sqref="U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="35" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="40" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="40" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="39" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" style="39" customWidth="1"/>
@@ -3355,7 +3370,7 @@
       <c r="U50" s="42"/>
       <c r="X50" s="42"/>
     </row>
-    <row r="51" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>194</v>
       </c>
@@ -3827,6 +3842,37 @@
       <c r="AE63" s="44"/>
       <c r="AF63" s="44"/>
       <c r="AG63" s="44"/>
+    </row>
+    <row r="64" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L64" s="39">
+        <v>0</v>
+      </c>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:L63" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
@@ -3852,11 +3898,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4547,6 +4593,19 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="J1:AP1"/>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -15,9 +15,11 @@
     <sheet name="Atak" sheetId="1" r:id="rId1"/>
     <sheet name="Obrona" sheetId="2" r:id="rId2"/>
     <sheet name="Mikstury" sheetId="3" r:id="rId3"/>
+    <sheet name="Klejnoty" sheetId="4" r:id="rId4"/>
+    <sheet name="Czary" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$69</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="337">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -896,14 +898,166 @@
     <t>1k6, +1k6 obrażeń od ognia (rzut obronny przeciwko czarom neguje)</t>
   </si>
   <si>
-    <t>\</t>
+    <t>Młot bojowy +1</t>
+  </si>
+  <si>
+    <t>1k4+2</t>
+  </si>
+  <si>
+    <t>Topór bojowy +1</t>
+  </si>
+  <si>
+    <t>Lwie oko</t>
+  </si>
+  <si>
+    <t>Agat ognisty</t>
+  </si>
+  <si>
+    <t>Kamień słoneczny</t>
+  </si>
+  <si>
+    <t>Perła</t>
+  </si>
+  <si>
+    <t>Tchazar</t>
+  </si>
+  <si>
+    <t>Jaspis</t>
+  </si>
+  <si>
+    <t>Lira postępu</t>
+  </si>
+  <si>
+    <t>Trzymany pod lewą pachą, instrument ten pozwala bardowi na zapamiętanie 2 dodatkowych czarów 2. poziomu i 1 dodatkowego czaru 3. poziomu</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>BŁA</t>
+  </si>
+  <si>
+    <t>SKA</t>
+  </si>
+  <si>
+    <t>Róg bardów z Valhalli</t>
+  </si>
+  <si>
+    <t>Właściwości ładunków: przyzywa 2-4 berserkerów, raz dziennie; zasięg: 6 metrów; czas działania: 1 godzina</t>
+  </si>
+  <si>
+    <t>Kamień księżycowy</t>
+  </si>
+  <si>
+    <t>Kamień z nieba</t>
+  </si>
+  <si>
+    <t>Rodzaj</t>
+  </si>
+  <si>
+    <t>Poziom</t>
+  </si>
+  <si>
+    <t>Zasięg</t>
+  </si>
+  <si>
+    <t>Czas rzucania</t>
+  </si>
+  <si>
+    <t>Obszar działania</t>
+  </si>
+  <si>
+    <t>Rzut obronny</t>
+  </si>
+  <si>
+    <t>Chromatyczna kula (wywołanie)</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>pole widzenia rzucającego czar</t>
+  </si>
+  <si>
+    <t>specjalny</t>
+  </si>
+  <si>
+    <t>1 istota</t>
+  </si>
+  <si>
+    <t>neguje</t>
+  </si>
+  <si>
+    <t>Identyfikacja (poznanie)</t>
+  </si>
+  <si>
+    <t>dotyk</t>
+  </si>
+  <si>
+    <t>natychmiastowy</t>
+  </si>
+  <si>
+    <t>1 przedmiot</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>Infrawicja (poznanie)</t>
+  </si>
+  <si>
+    <t>8 godzin</t>
+  </si>
+  <si>
+    <t>Migoczące barwy (przemiany)</t>
+  </si>
+  <si>
+    <t>4 metry</t>
+  </si>
+  <si>
+    <t>90 stopniowy stożek o promieniu 9 metrów</t>
+  </si>
+  <si>
+    <t>Szata ochrony przed zimnem</t>
+  </si>
+  <si>
+    <t>Odporność na zimno: +20%</t>
+  </si>
+  <si>
+    <t>Wielka halabarda</t>
+  </si>
+  <si>
+    <t>Klasa pancerza: -2</t>
+  </si>
+  <si>
+    <t>2k8</t>
+  </si>
+  <si>
+    <t>siła:18</t>
+  </si>
+  <si>
+    <t>Pocisk +1</t>
+  </si>
+  <si>
+    <t>Strzałki - młoty</t>
+  </si>
+  <si>
+    <t>15% szans na ogłuszenie celu na 8 sekund, po trafieniu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,51 +1219,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,49 +1296,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1490,2393 +1653,2558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM65"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U64" sqref="U64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="39"/>
-    <col min="11" max="11" width="11.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="39" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="39" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="39" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="39" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="39" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="39" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="39" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="39" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="39" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="39" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="39" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="39" customWidth="1"/>
-    <col min="28" max="28" width="6" style="39" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="39" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="39" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="39" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="39" customWidth="1"/>
-    <col min="33" max="33" width="10" style="39" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="39" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="39" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="39" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="39" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="39" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="39" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="46"/>
+    <col min="11" max="11" width="11.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="46" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="46" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="46" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="46" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="46" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="46" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="46" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="46" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="46" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="46" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="46" customWidth="1"/>
+    <col min="28" max="28" width="6" style="46" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="46" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="46" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="46" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="46" customWidth="1"/>
+    <col min="33" max="33" width="10" style="46" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="46" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="46" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="46" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="46" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="46" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="46" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:39" s="41" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="33"/>
-    </row>
-    <row r="2" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="40"/>
+    </row>
+    <row r="2" spans="1:39" s="41" customFormat="1" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="38" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AE2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AG2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AH2" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="AJ2" s="38" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="38" t="s">
+      <c r="AL2" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="38" t="s">
+      <c r="AM2" s="45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="46">
         <v>3</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="46">
         <v>3</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+    </row>
+    <row r="4" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="46">
         <v>4</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="46">
         <v>6</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="X4" s="42"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="46">
         <v>7</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="46">
         <v>7</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+    </row>
+    <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="46">
         <v>5</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="46">
         <v>4</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="V6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="46">
         <v>4</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="46">
         <v>3</v>
       </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="O7" s="49"/>
+    </row>
+    <row r="8" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="46">
         <v>7</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="46">
         <v>8</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="X8" s="42"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="X8" s="49"/>
+    </row>
+    <row r="9" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="46">
         <v>8</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="46">
         <v>5</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="M9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+    </row>
+    <row r="10" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="46">
         <v>7</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="46">
         <v>12</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="X10" s="42"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="X10" s="49"/>
+    </row>
+    <row r="11" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="46">
         <v>8</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="46">
         <v>10</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+    </row>
+    <row r="12" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="46">
         <v>10</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="46">
         <v>15</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+    </row>
+    <row r="13" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="46">
         <v>5</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="46">
         <v>4</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="M13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+    </row>
+    <row r="14" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="46">
         <v>4</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="46">
         <v>6</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+    </row>
+    <row r="15" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="46">
         <v>7</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="46">
         <v>15</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="X15" s="42"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="X15" s="49"/>
+    </row>
+    <row r="16" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="46">
         <v>4</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="46">
         <v>4</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+    </row>
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="46">
         <v>4</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="46">
         <v>4</v>
       </c>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="46">
         <v>9</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="46">
         <v>15</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+    </row>
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="46">
         <v>2</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="46">
         <v>1</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="M19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+    </row>
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="46">
         <v>2</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="46">
         <v>0</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="M20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+    </row>
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="46">
         <v>2</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="46">
         <v>0</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="M21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+    </row>
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="46">
         <v>10</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="46">
         <v>14</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+    </row>
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="46">
         <v>5</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="46">
         <v>7</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+    </row>
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="46">
         <v>7</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="46">
         <v>3</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+    </row>
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="46">
         <v>7</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="46">
         <v>10</v>
       </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="46">
         <v>6</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="46">
         <v>2</v>
       </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+    </row>
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="46">
         <v>6</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="46">
         <v>0</v>
       </c>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+    </row>
+    <row r="28" spans="1:33" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="46">
         <v>0</v>
       </c>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+    </row>
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="46">
         <v>0</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+    </row>
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="46">
         <v>1</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="46">
         <v>1</v>
       </c>
-      <c r="M31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="M31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+    </row>
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="46">
         <v>2</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="46">
         <v>1</v>
       </c>
-      <c r="M32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
+      <c r="M32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="46">
         <v>5</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="46">
         <v>2</v>
       </c>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+    </row>
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="46">
         <v>7</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="46">
         <v>9</v>
       </c>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="46">
         <v>2</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="46">
         <v>3</v>
       </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-    </row>
-    <row r="36" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+    </row>
+    <row r="36" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="46">
         <v>5</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="46">
         <v>5</v>
       </c>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-    </row>
-    <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+    </row>
+    <row r="37" spans="1:26" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="46">
         <v>5</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="46">
         <v>0</v>
       </c>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-    </row>
-    <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+    </row>
+    <row r="38" spans="1:26" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="46">
         <v>5</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="46">
         <v>2</v>
       </c>
-      <c r="M38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-    </row>
-    <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="M38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+    </row>
+    <row r="39" spans="1:26" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="46">
         <v>1</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="46">
         <v>3</v>
       </c>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="46">
         <v>3</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="46">
         <v>5</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="X40" s="42"/>
-    </row>
-    <row r="41" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="X40" s="49"/>
+    </row>
+    <row r="41" spans="1:26" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="46">
         <v>4</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="46">
         <v>4</v>
       </c>
-      <c r="M41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="M41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="46">
         <v>1</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="46">
         <v>1</v>
       </c>
-      <c r="M42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="M42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="46">
         <v>4</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="46">
         <v>7</v>
       </c>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="46">
         <v>4</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="46">
         <v>3</v>
       </c>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+    </row>
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="46">
         <v>6</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="46">
         <v>12</v>
       </c>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+    </row>
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="46">
         <v>1</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="46">
         <v>3</v>
       </c>
-      <c r="S46" s="42"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="S46" s="49"/>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="46">
         <v>1</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="46">
         <v>6</v>
       </c>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="X47" s="42"/>
-    </row>
-    <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="X47" s="49"/>
+    </row>
+    <row r="48" spans="1:26" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="46">
         <v>3</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="46">
         <v>2</v>
       </c>
-      <c r="O48" s="41"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="O48" s="48"/>
+    </row>
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="46">
         <v>7</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="46">
         <v>8</v>
       </c>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-    </row>
-    <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+    </row>
+    <row r="50" spans="1:39" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="46">
         <v>5</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="46">
         <v>7</v>
       </c>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="X50" s="42"/>
-    </row>
-    <row r="51" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="X50" s="49"/>
+    </row>
+    <row r="51" spans="1:39" ht="43.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="H51" s="39">
+      <c r="H51" s="46">
         <v>6</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="46">
         <v>8</v>
       </c>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-    </row>
-    <row r="52" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+    </row>
+    <row r="52" spans="1:39" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="46">
         <v>4</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="46">
         <v>9</v>
       </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="AH52" s="49"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="49"/>
+    </row>
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="39">
+      <c r="H53" s="46">
         <v>6</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="46">
         <v>10</v>
       </c>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="AK53" s="49"/>
+      <c r="AL53" s="49"/>
+      <c r="AM53" s="49"/>
+    </row>
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="39">
+      <c r="H54" s="46">
         <v>4</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="46">
         <v>4</v>
       </c>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+    </row>
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H55" s="46">
         <v>3</v>
       </c>
-      <c r="I55" s="39" t="s">
+      <c r="I55" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="46">
         <v>4</v>
       </c>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+    </row>
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="46">
         <v>7</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="46">
         <v>8</v>
       </c>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="X56" s="42"/>
-    </row>
-    <row r="57" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35" t="s">
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="X56" s="49"/>
+    </row>
+    <row r="57" spans="1:39" ht="28.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="39">
+      <c r="H57" s="46">
         <v>5</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="J57" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="39">
+      <c r="L57" s="46">
         <v>4</v>
       </c>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+    </row>
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="46">
         <v>0</v>
       </c>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-    </row>
-    <row r="59" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
+      <c r="AF58" s="51"/>
+      <c r="AG58" s="51"/>
+    </row>
+    <row r="59" spans="1:39" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="39">
+      <c r="H59" s="46">
         <v>2</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="39" t="s">
+      <c r="J59" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="46">
         <v>1</v>
       </c>
-      <c r="M59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="M59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+    </row>
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="39">
+      <c r="H60" s="46">
         <v>1</v>
       </c>
-      <c r="I60" s="39" t="s">
+      <c r="I60" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="39" t="s">
+      <c r="J60" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="M60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="M60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+    </row>
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="39">
+      <c r="H61" s="46">
         <v>4</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="I61" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="46">
         <v>4</v>
       </c>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+    </row>
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="46">
         <v>5</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="39" t="s">
+      <c r="J62" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="46">
         <v>0</v>
       </c>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+    </row>
+    <row r="63" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="46">
         <v>0</v>
       </c>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="44"/>
-      <c r="AD63" s="44"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-    </row>
-    <row r="64" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+    </row>
+    <row r="64" spans="1:39" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G64" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="46">
         <v>0</v>
       </c>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="44"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+    </row>
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="46">
+        <v>6</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="46">
+        <v>7</v>
+      </c>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+    </row>
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="42" t="s">
         <v>288</v>
       </c>
+      <c r="C66" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="46">
+        <v>3</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="46">
+        <v>6</v>
+      </c>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="X66" s="49"/>
+    </row>
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L67" s="46">
+        <v>21</v>
+      </c>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+    </row>
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="46">
+        <v>0</v>
+      </c>
+      <c r="M69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L63" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L69" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="krótki łuk"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="E1:F1"/>
@@ -3898,717 +4226,776 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.21875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" style="4" customWidth="1"/>
-    <col min="30" max="30" width="10" style="4" customWidth="1"/>
-    <col min="31" max="31" width="5.21875" style="4" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" style="4" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" style="4" customWidth="1"/>
-    <col min="36" max="37" width="7.33203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="10" style="4" customWidth="1"/>
-    <col min="39" max="42" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="18.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="6.21875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="6" style="12" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="10" style="12" customWidth="1"/>
+    <col min="31" max="31" width="5.21875" style="12" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" style="12" customWidth="1"/>
+    <col min="36" max="40" width="7.33203125" style="12" customWidth="1"/>
+    <col min="41" max="41" width="10" style="12" customWidth="1"/>
+    <col min="42" max="45" width="8.88671875" style="12"/>
+    <col min="46" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:45" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="15"/>
-    </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="6" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="22"/>
+    </row>
+    <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AP2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AR2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AS2" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>40</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-    </row>
-    <row r="6" spans="1:42" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+    </row>
+    <row r="6" spans="1:45" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>40</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="L6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+    </row>
+    <row r="7" spans="1:45" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>25</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="L7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>15</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="AG8" s="5"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="L8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="AG8" s="15"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:45" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:42" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="L10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:45" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>15</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="X12" s="12"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>50</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AI13" s="15"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>20</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AI14" s="15"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>2</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="AJ15" s="5"/>
-    </row>
-    <row r="16" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="V15" s="15"/>
+      <c r="AJ15" s="15"/>
+    </row>
+    <row r="16" spans="1:45" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>2</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="L16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+    </row>
+    <row r="17" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <v>2</v>
       </c>
-      <c r="AJ17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="AJ17" s="15"/>
+    </row>
+    <row r="18" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <v>10</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="L19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="AK19" s="15"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="12">
         <v>20</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="12">
         <v>2</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="AJ21" s="5"/>
+      <c r="V21" s="15"/>
+      <c r="AJ21" s="15"/>
+    </row>
+    <row r="22" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="X22" s="17"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+    </row>
+    <row r="23" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J1:AP1"/>
+    <mergeCell ref="J1:AS1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
@@ -4635,373 +5022,373 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="70" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="5.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="70" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="5.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="3" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5013,4 +5400,251 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7FC3C4-41AF-44DD-A4A7-B5C07256D2A2}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$74</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="358">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1073,6 +1073,39 @@
   </si>
   <si>
     <t>Miecz półtoraręczny wysokiej jakości</t>
+  </si>
+  <si>
+    <t>Andratyt</t>
+  </si>
+  <si>
+    <t>Bransolety ochrony KP8</t>
+  </si>
+  <si>
+    <t>Morgensztern wysokiej jakości</t>
+  </si>
+  <si>
+    <t>Mikstura intuicji</t>
+  </si>
+  <si>
+    <t>Mądrość: 18</t>
+  </si>
+  <si>
+    <t>6 godzin</t>
+  </si>
+  <si>
+    <t>Różdźka magicznych pocisków</t>
+  </si>
+  <si>
+    <t>Katana +1</t>
+  </si>
+  <si>
+    <t>1k10+1</t>
+  </si>
+  <si>
+    <t>Morgensztern +1</t>
+  </si>
+  <si>
+    <t>2k4+1</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1258,37 +1291,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1329,16 +1365,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1350,29 +1392,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1687,2638 +1719,2752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="11"/>
-    <col min="11" max="11" width="11.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="11" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="11" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="11" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="11" customWidth="1"/>
-    <col min="28" max="28" width="6" style="11" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="11" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="11" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="11" customWidth="1"/>
-    <col min="33" max="33" width="10" style="11" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="11" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="11" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="11" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="11" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="11" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="11" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="25" style="41" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="45"/>
+    <col min="11" max="11" width="11.6640625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="45" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="45" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="45" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="45" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="45" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="45" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="45" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="45" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="45" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="45" customWidth="1"/>
+    <col min="28" max="28" width="6" style="45" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="45" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="45" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="45" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="45" customWidth="1"/>
+    <col min="33" max="33" width="10" style="45" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="45" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="45" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="45" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="45" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="45" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="45" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:39" s="40" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="21"/>
-    </row>
-    <row r="2" spans="1:39" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="10" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39"/>
+    </row>
+    <row r="2" spans="1:39" s="40" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="10" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AK2" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AM2" s="44" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="45">
         <v>7</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="45">
         <v>12</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="X3" s="13"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="X3" s="47"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="45">
+        <v>6</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="45">
+        <v>10</v>
+      </c>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="X4" s="47"/>
+    </row>
+    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="45">
+        <v>7</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="45">
+        <v>12</v>
+      </c>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="X5" s="47"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H6" s="45">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K6" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L6" s="45">
         <v>15</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="X6" s="47"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C7" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H7" s="45">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I7" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L7" s="45">
         <v>5</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="X7" s="47"/>
+    </row>
+    <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B8" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D8" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H8" s="45">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L8" s="45">
         <v>9</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H9" s="45">
         <v>7</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I9" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J9" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K9" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L9" s="45">
         <v>3</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C10" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H10" s="45">
         <v>7</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I10" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L10" s="45">
         <v>10</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C11" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H11" s="45">
         <v>4</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I11" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K11" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L11" s="45">
         <v>3</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H12" s="45">
         <v>5</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L12" s="45">
         <v>4</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X12" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C13" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D13" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H13" s="45">
         <v>4</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L13" s="45">
         <v>4</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C14" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="45">
         <v>3</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L14" s="45">
         <v>4</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H15" s="45">
         <v>5</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L15" s="45">
         <v>4</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C16" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E16" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="45">
         <v>4</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J16" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L16" s="45">
         <v>4</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C17" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="45">
         <v>9</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I17" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J17" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L17" s="45">
         <v>15</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C18" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D18" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="45">
         <v>6</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I18" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J18" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K18" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L18" s="45">
         <v>12</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C19" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D19" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I19" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J19" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K19" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L19" s="45">
         <v>21</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C20" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="45">
         <v>4</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J20" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L20" s="45">
         <v>6</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="45">
+        <v>3</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="45">
+        <v>5</v>
+      </c>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H22" s="45">
         <v>4</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I22" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L22" s="45">
         <v>4</v>
       </c>
-      <c r="S19" s="13"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="S22" s="47"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C23" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D23" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H23" s="45">
         <v>1</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I23" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K23" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L23" s="45">
         <v>3</v>
       </c>
-      <c r="S20" s="13"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="S23" s="47"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H24" s="45">
         <v>6</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L24" s="45">
         <v>2</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C25" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D25" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H25" s="45">
         <v>5</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I25" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L25" s="45">
         <v>2</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C26" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E26" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H26" s="45">
         <v>3</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K26" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L26" s="45">
         <v>3</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D27" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E27" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H27" s="45">
         <v>2</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L27" s="45">
         <v>3</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+    </row>
+    <row r="28" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B28" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C28" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D28" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H28" s="45">
         <v>1</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I28" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K28" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L28" s="45">
         <v>3</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C29" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D29" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F29" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H29" s="45">
         <v>10</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I29" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J29" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K29" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L29" s="45">
         <v>14</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D30" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H30" s="45">
         <v>5</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I30" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J30" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L30" s="45">
         <v>7</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C31" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D31" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F31" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H31" s="45">
         <v>4</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I31" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K31" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L31" s="45">
         <v>7</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C32" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E32" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H32" s="45">
         <v>4</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I32" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K32" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L32" s="45">
         <v>3</v>
       </c>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="O32" s="47"/>
+    </row>
+    <row r="33" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C33" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D33" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H33" s="45">
         <v>3</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I33" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L33" s="45">
         <v>2</v>
       </c>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="O33" s="49"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C34" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E34" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H34" s="45">
         <v>10</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J34" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L34" s="45">
         <v>15</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C35" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D35" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E35" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H35" s="45">
         <v>7</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I35" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J35" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K35" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L35" s="45">
         <v>8</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C36" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E36" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H36" s="45">
         <v>8</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I36" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J36" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K36" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L36" s="45">
         <v>10</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-    </row>
-    <row r="34" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+    </row>
+    <row r="37" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C37" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D37" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E37" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H37" s="45">
         <v>8</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I37" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J37" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K37" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L37" s="45">
         <v>10</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C38" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D38" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E38" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H38" s="45">
         <v>7</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I38" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J38" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K38" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L38" s="45">
         <v>9</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-    </row>
-    <row r="36" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+    </row>
+    <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D39" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E39" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H39" s="45">
         <v>6</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I39" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J39" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L39" s="45">
         <v>8</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-    </row>
-    <row r="37" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+    </row>
+    <row r="40" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C40" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E40" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H40" s="45">
         <v>4</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I40" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K40" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L40" s="45">
         <v>6</v>
       </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="X37" s="13"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="X40" s="47"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C41" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D41" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E41" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H41" s="45">
         <v>1</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I41" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J41" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K41" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L41" s="45">
         <v>6</v>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="X38" s="13"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="X41" s="47"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C42" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D42" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E42" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H42" s="45">
         <v>3</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I42" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J42" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K42" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L42" s="45">
         <v>6</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="X39" s="13"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="X42" s="47"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H43" s="45">
         <v>6</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I43" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J43" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K43" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L43" s="45">
         <v>0</v>
       </c>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-    </row>
-    <row r="41" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+    </row>
+    <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C44" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D44" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H44" s="45">
         <v>5</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I44" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J44" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K44" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L44" s="45">
         <v>0</v>
       </c>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C45" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D45" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F45" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H45" s="45">
         <v>5</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I45" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J45" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K45" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L45" s="45">
         <v>0</v>
       </c>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C46" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E46" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H46" s="45">
         <v>5</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I46" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J46" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K46" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L46" s="45">
         <v>4</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-    </row>
-    <row r="44" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="M46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+    </row>
+    <row r="47" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B47" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D47" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E47" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H47" s="45">
         <v>4</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I47" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J47" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K47" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L47" s="45">
         <v>4</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="M47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C48" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F48" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H48" s="45">
         <v>2</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I48" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L48" s="45">
         <v>0</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-    </row>
-    <row r="46" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="M48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+    </row>
+    <row r="49" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B49" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C49" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D49" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F49" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I49" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J49" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L49" s="45">
         <v>0</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="M49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C50" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H50" s="45">
         <v>2</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I50" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J50" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K50" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L50" s="45">
         <v>1</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="M50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C51" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F51" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H51" s="45">
         <v>2</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I51" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J51" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K51" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L51" s="45">
         <v>0</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="M51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C52" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D52" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E52" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H52" s="45">
         <v>1</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I52" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J52" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K52" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L52" s="45">
         <v>1</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="M52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C53" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D53" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E53" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H53" s="45">
         <v>2</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I53" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J53" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K53" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L53" s="45">
         <v>1</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="M53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C54" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D54" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E54" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H54" s="45">
         <v>1</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I54" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J54" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K54" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L54" s="45">
         <v>1</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-    </row>
-    <row r="52" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="M54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+    </row>
+    <row r="55" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B55" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C55" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E55" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H55" s="45">
         <v>2</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I55" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J55" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K55" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L55" s="45">
         <v>1</v>
       </c>
-      <c r="M52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="M55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C56" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D56" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E56" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H56" s="45">
         <v>1</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I56" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J56" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K56" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="M56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C57" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E57" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H57" s="45">
         <v>7</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I57" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J57" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K57" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L57" s="45">
         <v>7</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="M57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="N57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="15" t="s">
+      <c r="O57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C58" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E58" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F58" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H58" s="45">
         <v>4</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I58" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J58" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K58" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L58" s="45">
         <v>4</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-    </row>
-    <row r="56" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+    </row>
+    <row r="59" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B59" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C59" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D59" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E59" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H59" s="45">
         <v>5</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I59" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J59" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K59" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L59" s="45">
         <v>5</v>
       </c>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B60" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C60" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D60" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E60" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H60" s="45">
         <v>6</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I60" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J60" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K60" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L60" s="45">
         <v>10</v>
       </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="13"/>
-      <c r="AM57" s="13"/>
-    </row>
-    <row r="58" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="47"/>
+    </row>
+    <row r="61" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C61" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D61" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E61" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H61" s="45">
         <v>7</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I61" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J61" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K61" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L61" s="45">
         <v>7</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="AK58" s="13"/>
-      <c r="AL58" s="13"/>
-      <c r="AM58" s="13"/>
-    </row>
-    <row r="59" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="47"/>
+    </row>
+    <row r="62" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C62" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E62" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H62" s="45">
         <v>6</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I62" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J62" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K62" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L62" s="45">
         <v>7</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C63" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E63" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H63" s="45">
         <v>7</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I63" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J63" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K63" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L63" s="45">
         <v>8</v>
       </c>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="X60" s="13"/>
-    </row>
-    <row r="61" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="X63" s="47"/>
+    </row>
+    <row r="64" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B64" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C64" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D64" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E64" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H64" s="45">
         <v>5</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I64" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J64" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K64" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L64" s="45">
         <v>7</v>
       </c>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="X61" s="13"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="X64" s="47"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C65" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D65" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E65" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H65" s="45">
         <v>7</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I65" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J65" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K65" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L65" s="45">
         <v>8</v>
       </c>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="X62" s="13"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="X65" s="47"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C66" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E66" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H66" s="45">
         <v>8</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I66" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J66" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K66" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L66" s="45">
         <v>5</v>
       </c>
-      <c r="M63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-    </row>
-    <row r="64" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="M66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+    </row>
+    <row r="67" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B67" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C67" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D67" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E67" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H67" s="45">
         <v>5</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I67" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J67" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K67" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L67" s="45">
         <v>2</v>
       </c>
-      <c r="M64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="M67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C68" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F68" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G68" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L68" s="45">
         <v>0</v>
       </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-    </row>
-    <row r="66" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+    </row>
+    <row r="69" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C69" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F69" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G69" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L69" s="45">
         <v>0</v>
       </c>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="16"/>
-      <c r="AF66" s="16"/>
-      <c r="AG66" s="16"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C70" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F70" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G70" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L70" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C71" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D71" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F71" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G71" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L71" s="45">
         <v>0</v>
       </c>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="16"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="AA71" s="50"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50"/>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C72" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D72" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F72" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G72" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L72" s="45">
         <v>0</v>
       </c>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="16"/>
-    </row>
-    <row r="70" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="AA72" s="50"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50"/>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+    </row>
+    <row r="73" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C73" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F73" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G73" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L73" s="45">
         <v>0</v>
       </c>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="16"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C74" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D74" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F74" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G74" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L74" s="45">
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:L71" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L74" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM71">
-    <sortCondition ref="I3:I71"/>
+  <sortState ref="A3:AM74">
+    <sortCondition ref="I3:I74"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="M1:AM1"/>
     <mergeCell ref="B1:B2"/>
@@ -4338,782 +4484,795 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN2" sqref="AN1:AN1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="46" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="46" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="46" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="46" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="46" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" style="46" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="46" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" style="46" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" style="46" customWidth="1"/>
-    <col min="24" max="24" width="6.21875" style="46" customWidth="1"/>
-    <col min="25" max="25" width="6" style="46" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" style="46" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" style="46" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="46" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" style="46" customWidth="1"/>
-    <col min="30" max="30" width="10" style="46" customWidth="1"/>
-    <col min="31" max="31" width="5.21875" style="46" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" style="46" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" style="46" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="46" customWidth="1"/>
-    <col min="35" max="39" width="7.33203125" style="46" customWidth="1"/>
-    <col min="40" max="40" width="10" style="46" customWidth="1"/>
-    <col min="41" max="44" width="8.88671875" style="46"/>
-    <col min="45" max="16384" width="8.88671875" style="47"/>
+    <col min="1" max="1" width="18.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="6.21875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="6" style="12" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="10" style="12" customWidth="1"/>
+    <col min="31" max="31" width="5.21875" style="12" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" style="12" customWidth="1"/>
+    <col min="35" max="39" width="7.33203125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="10" style="12" customWidth="1"/>
+    <col min="41" max="44" width="8.88671875" style="12"/>
+    <col min="45" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="38" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:44" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="37"/>
-    </row>
-    <row r="2" spans="1:44" s="38" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="22"/>
+    </row>
+    <row r="2" spans="1:44" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AK2" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AM2" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AP2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AR2" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="8">
         <v>40</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:44" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="8">
         <v>40</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
+      <c r="L6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
     </row>
     <row r="7" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="8">
         <v>25</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
+      <c r="L7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="8">
         <v>15</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="AG8" s="49"/>
+      <c r="L8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="X9" s="49"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="V10" s="49"/>
+      <c r="L10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" spans="1:44" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="8">
         <v>15</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="X11" s="49"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="X12" s="50"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="8">
         <v>50</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="8">
         <v>20</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="8">
         <v>2</v>
       </c>
-      <c r="V15" s="49"/>
-      <c r="AI15" s="49"/>
+      <c r="V15" s="15"/>
+      <c r="AI15" s="15"/>
     </row>
     <row r="16" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="8">
         <v>2</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
+      <c r="L16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
     </row>
     <row r="17" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="12">
         <v>2</v>
       </c>
-      <c r="AI17" s="49"/>
+      <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="12">
         <v>10</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="AJ19" s="49"/>
+      <c r="L19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="AJ19" s="15"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="12">
         <v>20</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="12">
         <v>2</v>
       </c>
-      <c r="V21" s="49"/>
-      <c r="AI21" s="49"/>
+      <c r="V21" s="15"/>
+      <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="12">
         <v>2</v>
       </c>
-      <c r="X22" s="51"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
+      <c r="X22" s="17"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
     </row>
     <row r="23" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="12">
         <v>1</v>
       </c>
-      <c r="X23" s="52"/>
+      <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="12">
         <v>3</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="12">
         <v>0</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="AI26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5135,11 +5294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5157,32 +5316,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2" t="s">
         <v>153</v>
       </c>
@@ -5511,6 +5670,21 @@
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5526,11 +5700,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5608,6 +5782,14 @@
         <v>305</v>
       </c>
       <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Atak" sheetId="1" r:id="rId1"/>
-    <sheet name="Obrona" sheetId="2" r:id="rId2"/>
-    <sheet name="Mikstury" sheetId="3" r:id="rId3"/>
-    <sheet name="Klejnoty" sheetId="4" r:id="rId4"/>
-    <sheet name="Czary" sheetId="5" r:id="rId5"/>
+    <sheet name="Różdżki" sheetId="6" r:id="rId2"/>
+    <sheet name="Obrona" sheetId="2" r:id="rId3"/>
+    <sheet name="Mikstury" sheetId="3" r:id="rId4"/>
+    <sheet name="Klejnoty" sheetId="4" r:id="rId5"/>
+    <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$75</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="371">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1106,14 +1107,139 @@
   </si>
   <si>
     <t>2k4+1</t>
+  </si>
+  <si>
+    <t>Talizman Czarnego Wilka</t>
+  </si>
+  <si>
+    <t>Rzuty obronne: +1 przeciw zionięciom, odporność na zimno: +10%, maksymalne punkty życia: +10</t>
+  </si>
+  <si>
+    <t>Różdżka pancerza</t>
+  </si>
+  <si>
+    <t>Właściwości ładunków</t>
+  </si>
+  <si>
+    <t>Inteligencja: 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tarcza:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Klasa pancerza 4 (2 przeciw pociskom), niewrażliwość na magiczne pociski, czas działania 14 rund, obszar działania: użytkownik
+Duchowy pancerz: Klasa pancerza 3, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Czas działania: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7 rund, obszar działania: użytkownik</t>
+    </r>
+  </si>
+  <si>
+    <t>Masywny młot bojowy</t>
+  </si>
+  <si>
+    <t>1k4+3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>Mikstura regeneracji</t>
+  </si>
+  <si>
+    <t>Regeneracja 2 Punktów życia na rundę</t>
+  </si>
+  <si>
+    <t>3 tury</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Magiczny pocisk:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tworzy jeden pocisk, który zadaje 1k4+1 magicznych obrażeń, zasięg: 33 metry, obszar działania: 1 istota</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1282,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1300,31 +1426,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1332,10 +1479,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,51 +1524,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,2745 +1891,2775 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="41" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="45"/>
-    <col min="11" max="11" width="11.6640625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="45" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="45" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="45" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="45" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="45" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="45" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="45" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="45" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="45" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="45" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="45" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="45" customWidth="1"/>
-    <col min="28" max="28" width="6" style="45" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="45" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="45" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="45" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="45" customWidth="1"/>
-    <col min="33" max="33" width="10" style="45" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="45" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="45" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="45" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="45" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="45" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="45" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="25" style="61" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="62" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="62" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="62"/>
+    <col min="11" max="11" width="11.6640625" style="62" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="62" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="62" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="62" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="62" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="62" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="62" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="62" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="62" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="62" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="62" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="62" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="62" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="62" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="62" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="62" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="62" customWidth="1"/>
+    <col min="28" max="28" width="6" style="62" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="62" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="62" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="62" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="62" customWidth="1"/>
+    <col min="33" max="33" width="10" style="62" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="62" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="62" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="62" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="62" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="62" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="62" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="40" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:39" s="56" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="39"/>
-    </row>
-    <row r="2" spans="1:39" s="40" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="55"/>
+    </row>
+    <row r="2" spans="1:39" s="56" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="44" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="60" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="62">
         <v>7</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="62">
         <v>12</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="X3" s="47"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="X3" s="64"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="62">
         <v>6</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="62">
         <v>10</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="X4" s="47"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="X4" s="64"/>
     </row>
     <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="62">
         <v>7</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="62">
         <v>12</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="X5" s="47"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="62">
         <v>7</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="62">
         <v>15</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="X6" s="47"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="X6" s="64"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="62">
         <v>3</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="62">
         <v>5</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="X7" s="47"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="X7" s="64"/>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="62">
         <v>4</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="62">
         <v>9</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="62">
         <v>7</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="62">
         <v>3</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="62">
         <v>7</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="62">
         <v>10</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="62">
         <v>4</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="62">
         <v>3</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="62">
         <v>5</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="62">
         <v>4</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="49" t="s">
+      <c r="P12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="49" t="s">
+      <c r="W12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="49" t="s">
+      <c r="X12" s="66" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="62">
         <v>4</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="62">
         <v>4</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="62">
         <v>3</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="62">
         <v>4</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="62">
         <v>5</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="62">
         <v>4</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="62">
         <v>4</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="62">
         <v>4</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="62">
         <v>9</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="62">
         <v>15</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="62">
         <v>6</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="62">
         <v>12</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="62">
         <v>21</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="62">
         <v>4</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="62">
         <v>6</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="62">
         <v>3</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="62">
         <v>5</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="62">
         <v>4</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="62">
         <v>4</v>
       </c>
-      <c r="S22" s="47"/>
+      <c r="S22" s="64"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="62">
         <v>1</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="62">
         <v>3</v>
       </c>
-      <c r="S23" s="47"/>
+      <c r="S23" s="64"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="62">
         <v>6</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="62">
         <v>2</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="62">
         <v>5</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="62">
         <v>2</v>
       </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="62">
         <v>3</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="62">
         <v>3</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="62">
         <v>2</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="62">
         <v>3</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
     </row>
     <row r="28" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="62">
         <v>1</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="62">
         <v>3</v>
       </c>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="62">
         <v>10</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="62">
         <v>14</v>
       </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="62">
         <v>5</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="62">
         <v>7</v>
       </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
     </row>
     <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="62">
         <v>4</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="62">
         <v>7</v>
       </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="62">
         <v>4</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="62">
         <v>3</v>
       </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="62">
         <v>3</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="62">
         <v>2</v>
       </c>
-      <c r="O33" s="49"/>
+      <c r="O33" s="66"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="62">
         <v>10</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="62">
         <v>15</v>
       </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="62">
         <v>7</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="62">
         <v>8</v>
       </c>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="62">
         <v>8</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="62">
         <v>10</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
     </row>
     <row r="37" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="62">
         <v>8</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="45" t="s">
+      <c r="K37" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L37" s="62">
         <v>10</v>
       </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="62">
         <v>7</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="45" t="s">
+      <c r="K38" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="62">
         <v>9</v>
       </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="62">
         <v>6</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="62">
         <v>8</v>
       </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
     </row>
     <row r="40" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="62">
         <v>4</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="45" t="s">
+      <c r="K40" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="62">
         <v>6</v>
       </c>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="X40" s="47"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="X40" s="64"/>
+    </row>
+    <row r="41" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="62">
+        <v>4</v>
+      </c>
+      <c r="I41" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" s="62">
+        <v>15</v>
+      </c>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="X41" s="64"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C42" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D42" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E42" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H42" s="62">
         <v>1</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I42" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J42" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L42" s="62">
         <v>6</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="X41" s="47"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="X42" s="64"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C43" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D43" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E43" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H43" s="62">
         <v>3</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I43" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J43" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K43" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L43" s="62">
         <v>6</v>
       </c>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="X42" s="47"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="X43" s="64"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H44" s="62">
         <v>6</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I44" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J44" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="45" t="s">
+      <c r="K44" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L44" s="62">
         <v>0</v>
       </c>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-    </row>
-    <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+    </row>
+    <row r="45" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C45" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D45" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H45" s="62">
         <v>5</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I45" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J45" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K45" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L45" s="62">
         <v>0</v>
       </c>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C46" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D46" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F46" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H46" s="62">
         <v>5</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I46" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J46" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K46" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L46" s="62">
         <v>0</v>
       </c>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C47" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E47" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H47" s="62">
         <v>5</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I47" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J47" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="45" t="s">
+      <c r="K47" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L47" s="62">
         <v>4</v>
       </c>
-      <c r="M46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
-    </row>
-    <row r="47" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+      <c r="M47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+    </row>
+    <row r="48" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B48" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C48" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D48" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E48" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H48" s="62">
         <v>4</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I48" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J48" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K48" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L48" s="62">
         <v>4</v>
       </c>
-      <c r="M47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+      <c r="M48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C49" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F49" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H49" s="62">
         <v>2</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I49" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J49" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L49" s="62">
         <v>0</v>
       </c>
-      <c r="M48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-    </row>
-    <row r="49" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+      <c r="M49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+    </row>
+    <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B50" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C50" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D50" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F50" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I50" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J50" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L50" s="62">
         <v>0</v>
       </c>
-      <c r="M49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="M50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A51" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C51" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E51" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H51" s="62">
         <v>2</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I51" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J51" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="45" t="s">
+      <c r="K51" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="45">
+      <c r="L51" s="62">
         <v>1</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="M51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C52" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F52" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H52" s="62">
         <v>2</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I52" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J52" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K52" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L51" s="45">
+      <c r="L52" s="62">
         <v>0</v>
       </c>
-      <c r="M51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+      <c r="M52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C53" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D53" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H53" s="62">
         <v>1</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I53" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="45" t="s">
+      <c r="J53" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="45" t="s">
+      <c r="K53" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L52" s="45">
+      <c r="L53" s="62">
         <v>1</v>
       </c>
-      <c r="M52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+      <c r="M53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C54" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D54" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E54" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H54" s="62">
         <v>2</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I54" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J54" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="45" t="s">
+      <c r="K54" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L53" s="45">
+      <c r="L54" s="62">
         <v>1</v>
       </c>
-      <c r="M53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="M54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A55" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C55" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D55" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E55" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H55" s="62">
         <v>1</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I55" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="45" t="s">
+      <c r="J55" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="45" t="s">
+      <c r="K55" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L54" s="45">
+      <c r="L55" s="62">
         <v>1</v>
       </c>
-      <c r="M54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-    </row>
-    <row r="55" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+      <c r="M55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+    </row>
+    <row r="56" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B56" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C56" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E56" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H56" s="62">
         <v>2</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I56" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J56" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="45" t="s">
+      <c r="K56" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="45">
+      <c r="L56" s="62">
         <v>1</v>
       </c>
-      <c r="M55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+      <c r="M56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A57" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C57" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D57" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E57" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H57" s="62">
         <v>1</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I57" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J57" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="45" t="s">
+      <c r="K57" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="M56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
+      <c r="M57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A58" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C58" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E58" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H58" s="62">
         <v>7</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I58" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J58" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="45" t="s">
+      <c r="K58" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="45">
+      <c r="L58" s="62">
         <v>7</v>
       </c>
-      <c r="M57" s="49" t="s">
+      <c r="M58" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N57" s="49" t="s">
+      <c r="N58" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O57" s="49" t="s">
+      <c r="O58" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A59" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C59" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E59" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F59" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H59" s="62">
         <v>4</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I59" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="45" t="s">
+      <c r="J59" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="45" t="s">
+      <c r="K59" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="45">
+      <c r="L59" s="62">
         <v>4</v>
       </c>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
-      <c r="Y58" s="47"/>
-      <c r="Z58" s="47"/>
-    </row>
-    <row r="59" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="64"/>
+    </row>
+    <row r="60" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B60" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C60" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D60" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E60" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H60" s="62">
         <v>5</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I60" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J60" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="45" t="s">
+      <c r="K60" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="45">
+      <c r="L60" s="62">
         <v>5</v>
       </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A61" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B61" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C61" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D61" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E61" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H61" s="62">
         <v>6</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I61" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J61" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K60" s="45" t="s">
+      <c r="K61" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L61" s="62">
         <v>10</v>
       </c>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
-      <c r="X60" s="47"/>
-      <c r="AK60" s="47"/>
-      <c r="AL60" s="47"/>
-      <c r="AM60" s="47"/>
-    </row>
-    <row r="61" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="AK61" s="64"/>
+      <c r="AL61" s="64"/>
+      <c r="AM61" s="64"/>
+    </row>
+    <row r="62" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C62" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D62" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E62" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H62" s="62">
         <v>7</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I62" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="45" t="s">
+      <c r="J62" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="45" t="s">
+      <c r="K62" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="45">
+      <c r="L62" s="62">
         <v>7</v>
       </c>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="47"/>
-      <c r="AK61" s="47"/>
-      <c r="AL61" s="47"/>
-      <c r="AM61" s="47"/>
-    </row>
-    <row r="62" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="AK62" s="64"/>
+      <c r="AL62" s="64"/>
+      <c r="AM62" s="64"/>
+    </row>
+    <row r="63" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C63" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E63" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H63" s="62">
         <v>6</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I63" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J63" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="45" t="s">
+      <c r="K63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="45">
+      <c r="L63" s="62">
         <v>7</v>
       </c>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
-      <c r="X62" s="47"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A64" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C64" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E64" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H64" s="62">
         <v>7</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I64" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J64" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="45" t="s">
+      <c r="K64" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="45">
+      <c r="L64" s="62">
         <v>8</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="X63" s="47"/>
-    </row>
-    <row r="64" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="X64" s="64"/>
+    </row>
+    <row r="65" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B65" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C65" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D65" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E65" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="45">
+      <c r="H65" s="62">
         <v>5</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I65" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J65" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="45" t="s">
+      <c r="K65" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="45">
+      <c r="L65" s="62">
         <v>7</v>
       </c>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="X64" s="47"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="X65" s="64"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C66" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D66" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E66" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H66" s="62">
         <v>7</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I66" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J66" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="45" t="s">
+      <c r="K66" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="45">
+      <c r="L66" s="62">
         <v>8</v>
       </c>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="X65" s="47"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="X66" s="64"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A67" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C67" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E67" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H67" s="62">
         <v>8</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I67" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J67" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="45" t="s">
+      <c r="K67" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="45">
+      <c r="L67" s="62">
         <v>5</v>
       </c>
-      <c r="M66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-    </row>
-    <row r="67" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+      <c r="M67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+    </row>
+    <row r="68" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B68" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C68" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D68" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E68" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H68" s="62">
         <v>5</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I68" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="J67" s="45" t="s">
+      <c r="J68" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K67" s="45" t="s">
+      <c r="K68" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="45">
+      <c r="L68" s="62">
         <v>2</v>
       </c>
-      <c r="M67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
+      <c r="M68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="T68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A69" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C69" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="45" t="s">
+      <c r="F69" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G69" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="L68" s="45">
+      <c r="L69" s="62">
         <v>0</v>
       </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="47"/>
-    </row>
-    <row r="69" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
+      <c r="S69" s="64"/>
+      <c r="T69" s="64"/>
+      <c r="AA69" s="64"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="64"/>
+      <c r="AD69" s="64"/>
+      <c r="AE69" s="64"/>
+      <c r="AF69" s="64"/>
+      <c r="AG69" s="64"/>
+    </row>
+    <row r="70" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C70" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="45" t="s">
+      <c r="F70" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G70" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L69" s="45">
+      <c r="L70" s="62">
         <v>0</v>
       </c>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="AA70" s="68"/>
+      <c r="AB70" s="68"/>
+      <c r="AC70" s="67"/>
+      <c r="AD70" s="67"/>
+      <c r="AE70" s="67"/>
+      <c r="AF70" s="67"/>
+      <c r="AG70" s="67"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C71" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F71" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="45" t="s">
+      <c r="G71" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="L70" s="45">
+      <c r="L71" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A71" s="41" t="s">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C72" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D72" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="45" t="s">
+      <c r="F72" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="45" t="s">
+      <c r="G72" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L71" s="45">
+      <c r="L72" s="62">
         <v>0</v>
       </c>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="AA71" s="50"/>
-      <c r="AB71" s="50"/>
-      <c r="AC71" s="50"/>
-      <c r="AD71" s="50"/>
-      <c r="AE71" s="50"/>
-      <c r="AF71" s="50"/>
-      <c r="AG71" s="50"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="67"/>
+      <c r="AE72" s="67"/>
+      <c r="AF72" s="67"/>
+      <c r="AG72" s="67"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C73" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D73" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F73" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="45" t="s">
+      <c r="G73" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L72" s="45">
+      <c r="L73" s="62">
         <v>0</v>
       </c>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="AA72" s="50"/>
-      <c r="AB72" s="50"/>
-      <c r="AC72" s="50"/>
-      <c r="AD72" s="50"/>
-      <c r="AE72" s="50"/>
-      <c r="AF72" s="50"/>
-      <c r="AG72" s="50"/>
-    </row>
-    <row r="73" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="67"/>
+      <c r="AE73" s="67"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+    </row>
+    <row r="74" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C74" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="F73" s="45" t="s">
+      <c r="F74" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="45" t="s">
+      <c r="G74" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L73" s="45">
+      <c r="L74" s="62">
         <v>0</v>
       </c>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A74" s="41" t="s">
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="67"/>
+      <c r="AE74" s="67"/>
+      <c r="AF74" s="67"/>
+      <c r="AG74" s="67"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C75" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D75" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F75" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="45" t="s">
+      <c r="G75" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="L74" s="45">
+      <c r="L75" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
-        <v>353</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:L74" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L75" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM74">
-    <sortCondition ref="I3:I74"/>
+  <sortState ref="A3:AM75">
+    <sortCondition ref="I3:I75"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
@@ -4483,796 +4681,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AR26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B21E192-B138-41DF-BD94-1F88A34F3941}">
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" style="12" customWidth="1"/>
-    <col min="24" max="24" width="6.21875" style="12" customWidth="1"/>
-    <col min="25" max="25" width="6" style="12" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" style="12" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="10" style="12" customWidth="1"/>
-    <col min="31" max="31" width="5.21875" style="12" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" style="12" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="12" customWidth="1"/>
-    <col min="35" max="39" width="7.33203125" style="12" customWidth="1"/>
-    <col min="40" max="40" width="10" style="12" customWidth="1"/>
-    <col min="41" max="44" width="8.88671875" style="12"/>
-    <col min="45" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="6.21875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="6" style="9" customWidth="1"/>
+    <col min="21" max="21" width="5.109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" style="9" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" style="9" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="10" style="9" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" style="9" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" style="9" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" style="9" customWidth="1"/>
+    <col min="32" max="32" width="16.5546875" style="9" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:32" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="31"/>
+    </row>
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
+  <dimension ref="A1:AR27"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="18" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="18" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" style="18" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="18" customWidth="1"/>
+    <col min="24" max="24" width="6.21875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="6" style="18" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" style="18" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" style="18" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" style="18" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="18" customWidth="1"/>
+    <col min="30" max="30" width="10" style="18" customWidth="1"/>
+    <col min="31" max="31" width="5.21875" style="18" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="18" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" style="18" customWidth="1"/>
+    <col min="35" max="39" width="7.33203125" style="18" customWidth="1"/>
+    <col min="40" max="40" width="10" style="18" customWidth="1"/>
+    <col min="41" max="44" width="8.88671875" style="18"/>
+    <col min="45" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="22"/>
-    </row>
-    <row r="2" spans="1:44" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="7" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="37"/>
+    </row>
+    <row r="2" spans="1:44" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="14">
         <v>40</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
         <v>2</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="14">
         <v>40</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
     </row>
     <row r="6" spans="1:44" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="14">
         <v>40</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+      <c r="L6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="14">
         <v>25</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
+      <c r="L7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="14">
         <v>15</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="AG8" s="15"/>
+      <c r="L8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="14">
         <v>7</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="X9" s="15"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="14">
         <v>2</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="V10" s="15"/>
+      <c r="L10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
     <row r="11" spans="1:44" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="14">
         <v>15</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="X11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="14">
         <v>3</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="X12" s="16"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="X12" s="22"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="14">
         <v>50</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="14">
         <v>20</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="AI15" s="15"/>
+      <c r="V15" s="21"/>
+      <c r="AI15" s="21"/>
     </row>
     <row r="16" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="14">
         <v>2</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
+      <c r="L16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
     </row>
     <row r="17" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="18">
         <v>2</v>
       </c>
-      <c r="AI17" s="15"/>
+      <c r="AI17" s="21"/>
     </row>
     <row r="18" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="18">
         <v>10</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="AJ19" s="15"/>
+      <c r="L19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="AJ19" s="21"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="18">
         <v>20</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="18">
         <v>2</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="AI21" s="15"/>
+      <c r="V21" s="21"/>
+      <c r="AI21" s="21"/>
     </row>
     <row r="22" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="18">
         <v>2</v>
       </c>
-      <c r="X22" s="17"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
+      <c r="X22" s="23"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
     </row>
     <row r="23" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="18">
         <v>1</v>
       </c>
-      <c r="X23" s="18"/>
+      <c r="X23" s="24"/>
     </row>
     <row r="24" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="18">
         <v>3</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
     </row>
     <row r="25" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
     </row>
     <row r="26" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="18">
         <v>2</v>
       </c>
-      <c r="V26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="V26" s="21"/>
+      <c r="AI26" s="21"/>
+    </row>
+    <row r="27" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5292,13 +5733,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5316,32 +5757,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="2" t="s">
         <v>153</v>
       </c>
@@ -5685,6 +6126,21 @@
         <v>1</v>
       </c>
       <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5698,7 +6154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5798,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7FC3C4-41AF-44DD-A4A7-B5C07256D2A2}">
   <dimension ref="A1:J5"/>
   <sheetViews>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$76</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="376">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1215,6 +1215,21 @@
       </rPr>
       <t xml:space="preserve"> Tworzy jeden pocisk, który zadaje 1k4+1 magicznych obrażeń, zasięg: 33 metry, obszar działania: 1 istota</t>
     </r>
+  </si>
+  <si>
+    <t>Nieskazitelny topór bojowy</t>
+  </si>
+  <si>
+    <t>Krwawnik</t>
+  </si>
+  <si>
+    <t>Mikstura kamiennego ciała</t>
+  </si>
+  <si>
+    <t>Klasa pancerza: 0, Rzuty obronne: +3, Zręczność: -3</t>
+  </si>
+  <si>
+    <t>Pocisk +2</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1473,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1473,10 +1491,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1570,9 +1588,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1887,2779 +1902,2838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="61" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="62" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="62" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="62"/>
-    <col min="11" max="11" width="11.6640625" style="62" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="62" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="62" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="62" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="62" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="62" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="62" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="62" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="62" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="62" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="62" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="62" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="62" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="62" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="62" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="62" customWidth="1"/>
-    <col min="28" max="28" width="6" style="62" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="62" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="62" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="62" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="62" customWidth="1"/>
-    <col min="33" max="33" width="10" style="62" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="62" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="62" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="62" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="62" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="62" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="62" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="65"/>
+    <col min="1" max="1" width="25" style="62" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="63" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="63" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="63"/>
+    <col min="11" max="11" width="11.6640625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="63" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="63" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="63" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="63" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="63" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="63" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="63" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="63" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="63" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="63" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="63" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="63" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="63" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="63" customWidth="1"/>
+    <col min="28" max="28" width="6" style="63" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="63" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="63" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="63" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="63" customWidth="1"/>
+    <col min="33" max="33" width="10" style="63" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="63" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="63" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="63" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="63" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="63" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="63" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="56" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:39" s="57" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="55"/>
-    </row>
-    <row r="2" spans="1:39" s="56" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="56"/>
+    </row>
+    <row r="2" spans="1:39" s="57" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="60" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="T2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="V2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="60" t="s">
+      <c r="W2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="60" t="s">
+      <c r="X2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="60" t="s">
+      <c r="Y2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="60" t="s">
+      <c r="Z2" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="60" t="s">
+      <c r="AA2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="60" t="s">
+      <c r="AD2" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="60" t="s">
+      <c r="AE2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="60" t="s">
+      <c r="AF2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="60" t="s">
+      <c r="AG2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="60" t="s">
+      <c r="AH2" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AI2" s="60" t="s">
+      <c r="AI2" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AJ2" s="60" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AK2" s="60" t="s">
+      <c r="AK2" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="60" t="s">
+      <c r="AL2" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="60" t="s">
+      <c r="AM2" s="61" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="63">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="63">
         <v>12</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="X3" s="65"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="63">
         <v>6</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="63">
         <v>10</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="X4" s="64"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="X4" s="65"/>
     </row>
     <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="63">
         <v>7</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="63">
         <v>12</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="X5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="X5" s="65"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="63">
         <v>7</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="63">
         <v>15</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="X6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="X6" s="65"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="63">
         <v>3</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="63">
         <v>5</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="X7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="X7" s="65"/>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="63">
         <v>4</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="63">
         <v>9</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="63">
         <v>7</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="63">
         <v>3</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="63">
         <v>7</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="63">
         <v>10</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="63">
         <v>4</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="63">
         <v>3</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="63">
         <v>5</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="63">
         <v>4</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="66" t="s">
+      <c r="V12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="66" t="s">
+      <c r="W12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="66" t="s">
+      <c r="X12" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="63">
         <v>4</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="63">
         <v>4</v>
       </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="63">
         <v>3</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="63">
         <v>4</v>
       </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="63">
         <v>5</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="63">
         <v>4</v>
       </c>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="63">
         <v>4</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="63">
         <v>4</v>
       </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="63">
         <v>9</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="63">
         <v>15</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="63">
         <v>6</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="63">
         <v>12</v>
       </c>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="63">
         <v>21</v>
       </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="63">
         <v>4</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="63">
         <v>6</v>
       </c>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="63">
         <v>3</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="63">
         <v>5</v>
       </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="63">
         <v>4</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="63">
         <v>4</v>
       </c>
-      <c r="S22" s="64"/>
+      <c r="S22" s="65"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="63">
         <v>1</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="63">
         <v>3</v>
       </c>
-      <c r="S23" s="64"/>
+      <c r="S23" s="65"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="63">
         <v>6</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="63">
         <v>2</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="63">
         <v>5</v>
       </c>
-      <c r="I25" s="62" t="s">
+      <c r="I25" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="63">
         <v>2</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="63">
         <v>3</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="I26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="63">
         <v>3</v>
       </c>
-      <c r="M26" s="66" t="s">
+      <c r="M26" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="63">
         <v>2</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="63">
         <v>3</v>
       </c>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
     </row>
     <row r="28" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="63">
         <v>1</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="63">
         <v>3</v>
       </c>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="63">
         <v>10</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="63">
         <v>14</v>
       </c>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="63">
         <v>5</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="63">
         <v>7</v>
       </c>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
     </row>
     <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="63">
         <v>4</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="62">
+      <c r="L31" s="63">
         <v>7</v>
       </c>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="63">
         <v>4</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="63">
         <v>3</v>
       </c>
-      <c r="O32" s="64"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="63">
         <v>3</v>
       </c>
-      <c r="I33" s="62" t="s">
+      <c r="I33" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="63">
         <v>2</v>
       </c>
-      <c r="O33" s="66"/>
+      <c r="O33" s="67"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="63">
         <v>10</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="63">
         <v>15</v>
       </c>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="63">
         <v>7</v>
       </c>
-      <c r="I35" s="62" t="s">
+      <c r="I35" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="62">
+      <c r="L35" s="63">
         <v>8</v>
       </c>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="63">
         <v>8</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="63">
         <v>10</v>
       </c>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
     </row>
     <row r="37" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="63">
         <v>8</v>
       </c>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="63">
         <v>10</v>
       </c>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="62">
+      <c r="H38" s="63">
         <v>7</v>
       </c>
-      <c r="I38" s="62" t="s">
+      <c r="I38" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="J38" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="63">
         <v>9</v>
       </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="63">
         <v>6</v>
       </c>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="62" t="s">
+      <c r="K39" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="62">
+      <c r="L39" s="63">
         <v>8</v>
       </c>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
     </row>
     <row r="40" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="63">
         <v>4</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="62" t="s">
+      <c r="J40" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="62" t="s">
+      <c r="K40" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="62">
+      <c r="L40" s="63">
         <v>6</v>
       </c>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="X40" s="64"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="X40" s="65"/>
     </row>
     <row r="41" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="62">
+      <c r="H41" s="63">
         <v>4</v>
       </c>
-      <c r="I41" s="62" t="s">
+      <c r="I41" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="62" t="s">
+      <c r="K41" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="L41" s="62">
+      <c r="L41" s="63">
         <v>15</v>
       </c>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="X41" s="64"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="X41" s="65"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="62">
+      <c r="H42" s="63">
         <v>1</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="62" t="s">
+      <c r="K42" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="62">
+      <c r="L42" s="63">
         <v>6</v>
       </c>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="X42" s="64"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="X42" s="65"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="63">
         <v>3</v>
       </c>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="62" t="s">
+      <c r="J43" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="62" t="s">
+      <c r="K43" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="62">
+      <c r="L43" s="63">
         <v>6</v>
       </c>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="X43" s="64"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="X43" s="65"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="63">
         <v>6</v>
       </c>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="62" t="s">
+      <c r="J44" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="62">
+      <c r="L44" s="63">
         <v>0</v>
       </c>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
     </row>
     <row r="45" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="63">
         <v>5</v>
       </c>
-      <c r="I45" s="62" t="s">
+      <c r="I45" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="J45" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="62">
+      <c r="L45" s="63">
         <v>0</v>
       </c>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="63">
         <v>5</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="62" t="s">
+      <c r="J46" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L46" s="62">
+      <c r="L46" s="63">
         <v>0</v>
       </c>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="63">
         <v>5</v>
       </c>
-      <c r="I47" s="62" t="s">
+      <c r="I47" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="62" t="s">
+      <c r="J47" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="62">
+      <c r="L47" s="63">
         <v>4</v>
       </c>
-      <c r="M47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
+      <c r="M47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
     </row>
     <row r="48" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="62">
+      <c r="H48" s="63">
         <v>4</v>
       </c>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="62" t="s">
+      <c r="J48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="62" t="s">
+      <c r="K48" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="62">
+      <c r="L48" s="63">
         <v>4</v>
       </c>
-      <c r="M48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
+      <c r="M48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="62">
+      <c r="H49" s="63">
         <v>2</v>
       </c>
-      <c r="I49" s="62" t="s">
+      <c r="I49" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J49" s="62" t="s">
+      <c r="J49" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="62">
+      <c r="L49" s="63">
         <v>0</v>
       </c>
-      <c r="M49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
+      <c r="M49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
     </row>
     <row r="50" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F50" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="62" t="s">
+      <c r="I50" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J50" s="62" t="s">
+      <c r="J50" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="62">
+      <c r="L50" s="63">
         <v>0</v>
       </c>
-      <c r="M50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
+      <c r="M50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="65"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="63">
         <v>2</v>
       </c>
-      <c r="I51" s="62" t="s">
+      <c r="I51" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J51" s="62" t="s">
+      <c r="J51" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K51" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L51" s="62">
+      <c r="L51" s="63">
         <v>1</v>
       </c>
-      <c r="M51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
+      <c r="M51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="65"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="62">
+      <c r="H52" s="63">
         <v>2</v>
       </c>
-      <c r="I52" s="62" t="s">
+      <c r="I52" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="62" t="s">
+      <c r="J52" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="62" t="s">
+      <c r="K52" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L52" s="62">
+      <c r="L52" s="63">
         <v>0</v>
       </c>
-      <c r="M52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
+      <c r="M52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="62">
+      <c r="H53" s="63">
         <v>1</v>
       </c>
-      <c r="I53" s="62" t="s">
+      <c r="I53" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J53" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="62" t="s">
+      <c r="K53" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L53" s="62">
+      <c r="L53" s="63">
         <v>1</v>
       </c>
-      <c r="M53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64"/>
+      <c r="M53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E54" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="63">
         <v>2</v>
       </c>
-      <c r="I54" s="62" t="s">
+      <c r="I54" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="62" t="s">
+      <c r="J54" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="62" t="s">
+      <c r="K54" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L54" s="62">
+      <c r="L54" s="63">
         <v>1</v>
       </c>
-      <c r="M54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="64"/>
+      <c r="M54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="62" t="s">
+      <c r="E55" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="62">
+      <c r="H55" s="63">
         <v>1</v>
       </c>
-      <c r="I55" s="62" t="s">
+      <c r="I55" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="62" t="s">
+      <c r="J55" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="62" t="s">
+      <c r="K55" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="62">
+      <c r="L55" s="63">
         <v>1</v>
       </c>
-      <c r="M55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="V55" s="64"/>
-      <c r="W55" s="64"/>
-      <c r="X55" s="64"/>
+      <c r="M55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
     </row>
     <row r="56" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="62" t="s">
+      <c r="E56" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="63">
         <v>2</v>
       </c>
-      <c r="I56" s="62" t="s">
+      <c r="I56" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="62" t="s">
+      <c r="J56" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="62" t="s">
+      <c r="K56" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L56" s="62">
+      <c r="L56" s="63">
         <v>1</v>
       </c>
-      <c r="M56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="64"/>
-      <c r="V56" s="64"/>
-      <c r="W56" s="64"/>
-      <c r="X56" s="64"/>
+      <c r="M56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="62" t="s">
+      <c r="E57" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="63">
         <v>1</v>
       </c>
-      <c r="I57" s="62" t="s">
+      <c r="I57" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J57" s="62" t="s">
+      <c r="J57" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="62" t="s">
+      <c r="K57" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="M57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
+      <c r="M57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="63">
         <v>7</v>
       </c>
-      <c r="I58" s="62" t="s">
+      <c r="I58" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="62" t="s">
+      <c r="J58" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="62" t="s">
+      <c r="K58" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="62">
+      <c r="L58" s="63">
         <v>7</v>
       </c>
-      <c r="M58" s="66" t="s">
+      <c r="M58" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="N58" s="66" t="s">
+      <c r="N58" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="O58" s="66" t="s">
+      <c r="O58" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="63">
+        <v>7</v>
+      </c>
+      <c r="I59" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="63">
+        <v>7</v>
+      </c>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A60" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C60" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E60" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F60" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="62">
+      <c r="H60" s="63">
         <v>4</v>
       </c>
-      <c r="I59" s="62" t="s">
+      <c r="I60" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="62" t="s">
+      <c r="J60" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="62" t="s">
+      <c r="K60" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="L59" s="62">
+      <c r="L60" s="63">
         <v>4</v>
       </c>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-    </row>
-    <row r="60" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="61" t="s">
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+    </row>
+    <row r="61" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B61" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C61" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D61" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="62" t="s">
+      <c r="E61" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H61" s="63">
         <v>5</v>
       </c>
-      <c r="I60" s="62" t="s">
+      <c r="I61" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="62" t="s">
+      <c r="J61" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="62" t="s">
+      <c r="K61" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="62">
+      <c r="L61" s="63">
         <v>5</v>
       </c>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A61" s="61" t="s">
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A62" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B62" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C62" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D62" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="62" t="s">
+      <c r="E62" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="62">
+      <c r="H62" s="63">
         <v>6</v>
       </c>
-      <c r="I61" s="62" t="s">
+      <c r="I62" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="62" t="s">
+      <c r="J62" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="62" t="s">
+      <c r="K62" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="62">
+      <c r="L62" s="63">
         <v>10</v>
       </c>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="R61" s="64"/>
-      <c r="S61" s="64"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="64"/>
-      <c r="AK61" s="64"/>
-      <c r="AL61" s="64"/>
-      <c r="AM61" s="64"/>
-    </row>
-    <row r="62" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="AK62" s="65"/>
+      <c r="AL62" s="65"/>
+      <c r="AM62" s="65"/>
+    </row>
+    <row r="63" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C63" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D63" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="62" t="s">
+      <c r="E63" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="62">
+      <c r="H63" s="63">
         <v>7</v>
       </c>
-      <c r="I62" s="62" t="s">
+      <c r="I63" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="62" t="s">
+      <c r="J63" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="62" t="s">
+      <c r="K63" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="62">
+      <c r="L63" s="63">
         <v>7</v>
       </c>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="64"/>
-      <c r="X62" s="64"/>
-      <c r="AK62" s="64"/>
-      <c r="AL62" s="64"/>
-      <c r="AM62" s="64"/>
-    </row>
-    <row r="63" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61" t="s">
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="AK63" s="65"/>
+      <c r="AL63" s="65"/>
+      <c r="AM63" s="65"/>
+    </row>
+    <row r="64" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C64" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="E63" s="62" t="s">
+      <c r="E64" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="62">
+      <c r="H64" s="63">
         <v>6</v>
       </c>
-      <c r="I63" s="62" t="s">
+      <c r="I64" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="62" t="s">
+      <c r="J64" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="62" t="s">
+      <c r="K64" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="62">
+      <c r="L64" s="63">
         <v>7</v>
       </c>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="R63" s="64"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-      <c r="V63" s="64"/>
-      <c r="W63" s="64"/>
-      <c r="X63" s="64"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A64" s="61" t="s">
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C65" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="62" t="s">
+      <c r="E65" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H65" s="63">
         <v>7</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I65" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="62" t="s">
+      <c r="J65" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K65" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="62">
+      <c r="L65" s="63">
         <v>8</v>
       </c>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="64"/>
-      <c r="X64" s="64"/>
-    </row>
-    <row r="65" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="61" t="s">
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="S65" s="65"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="65"/>
+      <c r="X65" s="65"/>
+    </row>
+    <row r="66" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B66" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C66" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D66" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="62" t="s">
+      <c r="E66" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="62">
+      <c r="H66" s="63">
         <v>5</v>
       </c>
-      <c r="I65" s="62" t="s">
+      <c r="I66" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="62" t="s">
+      <c r="J66" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="62" t="s">
+      <c r="K66" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="62">
+      <c r="L66" s="63">
         <v>7</v>
       </c>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="X65" s="64"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A66" s="61" t="s">
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
+      <c r="X66" s="65"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A67" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C67" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D67" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="62" t="s">
+      <c r="E67" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="62">
+      <c r="H67" s="63">
         <v>7</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I67" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="62" t="s">
+      <c r="J67" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="62" t="s">
+      <c r="K67" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="62">
+      <c r="L67" s="63">
         <v>8</v>
       </c>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="X66" s="64"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="65"/>
+      <c r="X67" s="65"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A68" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C68" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="62" t="s">
+      <c r="E68" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="62">
+      <c r="H68" s="63">
         <v>8</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="I68" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J67" s="62" t="s">
+      <c r="J68" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K67" s="62" t="s">
+      <c r="K68" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="62">
+      <c r="L68" s="63">
         <v>5</v>
       </c>
-      <c r="M67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-    </row>
-    <row r="68" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="61" t="s">
+      <c r="M68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="R68" s="65"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
+    </row>
+    <row r="69" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B69" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C69" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D69" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="62" t="s">
+      <c r="E69" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H69" s="63">
         <v>5</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I69" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J68" s="62" t="s">
+      <c r="J69" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K68" s="62" t="s">
+      <c r="K69" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="62">
+      <c r="L69" s="63">
         <v>2</v>
       </c>
-      <c r="M68" s="64"/>
-      <c r="O68" s="64"/>
-      <c r="R68" s="64"/>
-      <c r="S68" s="64"/>
-      <c r="T68" s="64"/>
-      <c r="V68" s="64"/>
-      <c r="W68" s="64"/>
-      <c r="X68" s="64"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A69" s="61" t="s">
+      <c r="M69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="V69" s="65"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="65"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C70" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F70" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="62" t="s">
+      <c r="G70" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L69" s="62">
+      <c r="L70" s="63">
         <v>0</v>
       </c>
-      <c r="S69" s="64"/>
-      <c r="T69" s="64"/>
-      <c r="AA69" s="64"/>
-      <c r="AB69" s="64"/>
-      <c r="AC69" s="64"/>
-      <c r="AD69" s="64"/>
-      <c r="AE69" s="64"/>
-      <c r="AF69" s="64"/>
-      <c r="AG69" s="64"/>
-    </row>
-    <row r="70" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="61" t="s">
+      <c r="S70" s="65"/>
+      <c r="T70" s="65"/>
+      <c r="AA70" s="65"/>
+      <c r="AB70" s="65"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="65"/>
+    </row>
+    <row r="71" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C71" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F71" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="62" t="s">
+      <c r="G71" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L70" s="62">
+      <c r="L71" s="63">
         <v>0</v>
       </c>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="AA70" s="68"/>
-      <c r="AB70" s="68"/>
-      <c r="AC70" s="67"/>
-      <c r="AD70" s="67"/>
-      <c r="AE70" s="67"/>
-      <c r="AF70" s="67"/>
-      <c r="AG70" s="67"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A71" s="61" t="s">
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="AA71" s="69"/>
+      <c r="AB71" s="69"/>
+      <c r="AC71" s="68"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C72" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="62" t="s">
+      <c r="F72" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="62" t="s">
+      <c r="G72" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="L71" s="62">
+      <c r="L72" s="63">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A72" s="61" t="s">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C73" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="63" t="s">
+      <c r="D73" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="62" t="s">
+      <c r="F73" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="62" t="s">
+      <c r="G73" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L72" s="62">
+      <c r="L73" s="63">
         <v>0</v>
       </c>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="AA72" s="67"/>
-      <c r="AB72" s="67"/>
-      <c r="AC72" s="67"/>
-      <c r="AD72" s="67"/>
-      <c r="AE72" s="67"/>
-      <c r="AF72" s="67"/>
-      <c r="AG72" s="67"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A73" s="61" t="s">
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="AA73" s="68"/>
+      <c r="AB73" s="68"/>
+      <c r="AC73" s="68"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C74" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D74" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F73" s="62" t="s">
+      <c r="F74" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="62" t="s">
+      <c r="G74" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L73" s="62">
+      <c r="L74" s="63">
         <v>0</v>
       </c>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="67"/>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-    </row>
-    <row r="74" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="61" t="s">
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="AA74" s="68"/>
+      <c r="AB74" s="68"/>
+      <c r="AC74" s="68"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+    </row>
+    <row r="75" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C75" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="F74" s="62" t="s">
+      <c r="F75" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G75" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L74" s="62">
+      <c r="L75" s="63">
         <v>0</v>
       </c>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="67"/>
-      <c r="AD74" s="67"/>
-      <c r="AE74" s="67"/>
-      <c r="AF74" s="67"/>
-      <c r="AG74" s="67"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A75" s="61" t="s">
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="AA75" s="68"/>
+      <c r="AB75" s="68"/>
+      <c r="AC75" s="68"/>
+      <c r="AD75" s="68"/>
+      <c r="AE75" s="68"/>
+      <c r="AF75" s="68"/>
+      <c r="AG75" s="68"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C76" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="D76" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="F76" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="62" t="s">
+      <c r="G76" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="L75" s="62">
+      <c r="L76" s="63">
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A77" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="L77" s="63">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:L75" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L76" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM75">
-    <sortCondition ref="I3:I75"/>
+  <sortState ref="A3:AM76">
+    <sortCondition ref="I3:I76"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
@@ -4726,54 +4800,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
     </row>
     <row r="2" spans="1:32" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4834,7 +4908,7 @@
       <c r="X2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="27" t="s">
         <v>153</v>
       </c>
       <c r="Z2" s="7" t="s">
@@ -4912,9 +4986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4960,81 +5034,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="38"/>
     </row>
     <row r="2" spans="1:44" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="13" t="s">
         <v>30</v>
       </c>
@@ -5735,11 +5809,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5757,32 +5831,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2" t="s">
         <v>153</v>
       </c>
@@ -6141,6 +6215,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6156,11 +6245,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6246,6 +6335,14 @@
         <v>347</v>
       </c>
       <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="3">
         <v>0</v>
       </c>
     </row>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atak" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="418">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1367,12 +1367,27 @@
   <si>
     <t>1k10+2</t>
   </si>
+  <si>
+    <t>Po zapamiętaniu tego zaklęcia należy przejść na stronę opisu niezidentyfikowanego przedmiotu i nacisnąć przycisk Identyfikuj. Szansa na zidentyfikowanie przedmiotu wynosi 100%. Zaklęcie pozwala poznać nazwę przedmiotu oraz jego właściwości, a także ustalić, czy nie jest przeklęty.</t>
+  </si>
+  <si>
+    <t>Osoba, na którą rzucono zaklęcie, uzyskuje zdolność infrawizji, jaką posiadają elfy czy krasnoludy.</t>
+  </si>
+  <si>
+    <t>Magiczny pocisk</t>
+  </si>
+  <si>
+    <t>Jest to jeden z najpopularniejszych czarów pierwszego poziomu. Dzięki niemu mag tworzy z magicznej energii do pięciu pocisków, które wylatują z jego palca i bezbłędnie trafiają w wybraną istotę. Każdy pocisk zadaje 1k4+1 obrażeń. Na każde dwa poziomy doświadczenia mag otrzymuje jeden dodatkowy pocisk, tzn. na trzecim na dwa, na piątym - trzy, na siódmym - cztery i maksymalnie pięć na dziewiątym i wyższych poziomach.</t>
+  </si>
+  <si>
+    <t>Wodna gwiazda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,6 +1440,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1565,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1621,6 +1644,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1663,6 +1739,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1684,62 +1763,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2056,3020 +2086,3020 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="64" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="65" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="65" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="65" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="65"/>
-    <col min="11" max="11" width="11.6640625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="65" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="65" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="65" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="65" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="65" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="65" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="65" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="65" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="65" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="65" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="65" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="65" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="65" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="65" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="65" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="65" customWidth="1"/>
-    <col min="28" max="28" width="6" style="65" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="65" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="65" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="65" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="65" customWidth="1"/>
-    <col min="33" max="33" width="10" style="65" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="65" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="65" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="65" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="65" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="65" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="65" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="68"/>
+    <col min="1" max="1" width="25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="37"/>
+    <col min="11" max="11" width="11.6640625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="37" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="37" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="37" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="37" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="37" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="37" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="37" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="37" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="37" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="37" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="37" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="37" customWidth="1"/>
+    <col min="28" max="28" width="6" style="37" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="37" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="37" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="37" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="37" customWidth="1"/>
+    <col min="33" max="33" width="10" style="37" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="37" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="37" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="37" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="37" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="37" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="37" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="59" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="58"/>
-    </row>
-    <row r="2" spans="1:39" s="59" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49"/>
+    </row>
+    <row r="2" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="63" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="63" t="s">
+      <c r="AA2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="63" t="s">
+      <c r="AB2" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="63" t="s">
+      <c r="AE2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="63" t="s">
+      <c r="AF2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="63" t="s">
+      <c r="AG2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="63" t="s">
+      <c r="AH2" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AI2" s="63" t="s">
+      <c r="AI2" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AJ2" s="63" t="s">
+      <c r="AJ2" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AK2" s="63" t="s">
+      <c r="AK2" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AL2" s="63" t="s">
+      <c r="AL2" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="63" t="s">
+      <c r="AM2" s="35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="37">
         <v>7</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="37">
         <v>12</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="X3" s="67"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="X3" s="39"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="37">
         <v>6</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="37">
         <v>10</v>
       </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="X4" s="67"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="X4" s="39"/>
     </row>
     <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="37">
         <v>7</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="37">
         <v>12</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="X5" s="67"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="X5" s="39"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="37">
         <v>7</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="37">
         <v>15</v>
       </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="X6" s="67"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="37">
         <v>3</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="37">
         <v>5</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="X7" s="67"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="X7" s="39"/>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="37">
         <v>4</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="37">
         <v>9</v>
       </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="37">
         <v>7</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="37">
         <v>3</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="37">
         <v>7</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="37">
         <v>10</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="37">
         <v>4</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="37">
         <v>3</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="37">
         <v>5</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="37">
         <v>4</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="69" t="s">
+      <c r="R12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="69" t="s">
+      <c r="W12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="69" t="s">
+      <c r="X12" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="37">
         <v>4</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="37">
         <v>4</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="37">
         <v>3</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="37">
         <v>4</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="37">
         <v>5</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="37">
         <v>4</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="37">
         <v>3</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="37">
         <v>5</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="37">
         <v>4</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="37">
         <v>4</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="37">
         <v>9</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="37">
         <v>15</v>
       </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="37">
         <v>6</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="65">
+      <c r="L19" s="37">
         <v>12</v>
       </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="37">
         <v>7</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="65" t="s">
+      <c r="K20" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="37">
         <v>15</v>
       </c>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="37">
         <v>21</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="37">
         <v>4</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="65" t="s">
+      <c r="K22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="65">
+      <c r="L22" s="37">
         <v>6</v>
       </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="37">
         <v>3</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="37">
         <v>5</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="37">
         <v>4</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="37">
         <v>4</v>
       </c>
-      <c r="S24" s="67"/>
+      <c r="S24" s="39"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="37">
         <v>1</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="37">
         <v>3</v>
       </c>
-      <c r="S25" s="67"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="37">
         <v>6</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65">
+      <c r="L26" s="37">
         <v>2</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="37">
         <v>5</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="37">
         <v>2</v>
       </c>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="37">
         <v>3</v>
       </c>
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="37">
         <v>3</v>
       </c>
-      <c r="M28" s="69" t="s">
+      <c r="M28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="37">
         <v>2</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="37">
         <v>3</v>
       </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
     </row>
     <row r="30" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="37">
         <v>1</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="J30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="65">
+      <c r="L30" s="37">
         <v>3</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="37">
         <v>10</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="37">
         <v>14</v>
       </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="37">
         <v>5</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L32" s="37">
         <v>7</v>
       </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
     </row>
     <row r="33" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="37">
         <v>4</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="65" t="s">
+      <c r="J33" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="65">
+      <c r="L33" s="37">
         <v>7</v>
       </c>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="37">
         <v>4</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="65" t="s">
+      <c r="J34" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="65">
+      <c r="L34" s="37">
         <v>3</v>
       </c>
-      <c r="O34" s="67"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="37">
         <v>3</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="65" t="s">
+      <c r="J35" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="65">
+      <c r="L35" s="37">
         <v>2</v>
       </c>
-      <c r="O35" s="69"/>
+      <c r="O35" s="41"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="37">
         <v>10</v>
       </c>
-      <c r="I36" s="65" t="s">
+      <c r="I36" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="65" t="s">
+      <c r="J36" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="65">
+      <c r="L36" s="37">
         <v>15</v>
       </c>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="37">
         <v>7</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="I37" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="65" t="s">
+      <c r="J37" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="65" t="s">
+      <c r="K37" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="65">
+      <c r="L37" s="37">
         <v>8</v>
       </c>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="37">
         <v>8</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="I38" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="65" t="s">
+      <c r="K38" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="65">
+      <c r="L38" s="37">
         <v>12</v>
       </c>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="37">
         <v>8</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="65" t="s">
+      <c r="J39" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="65" t="s">
+      <c r="K39" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="65">
+      <c r="L39" s="37">
         <v>10</v>
       </c>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
     </row>
     <row r="40" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="37">
         <v>8</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="65" t="s">
+      <c r="J40" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="K40" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L40" s="65">
+      <c r="L40" s="37">
         <v>10</v>
       </c>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="37">
         <v>7</v>
       </c>
-      <c r="I41" s="65" t="s">
+      <c r="I41" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="65" t="s">
+      <c r="K41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="65">
+      <c r="L41" s="37">
         <v>9</v>
       </c>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
     </row>
     <row r="42" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="37">
         <v>6</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="65" t="s">
+      <c r="J42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="65" t="s">
+      <c r="K42" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="65">
+      <c r="L42" s="37">
         <v>8</v>
       </c>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
     </row>
     <row r="43" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="65">
+      <c r="H43" s="37">
         <v>4</v>
       </c>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="65" t="s">
+      <c r="J43" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="65" t="s">
+      <c r="K43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="65">
+      <c r="L43" s="37">
         <v>6</v>
       </c>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="X43" s="67"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="X43" s="39"/>
     </row>
     <row r="44" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="37">
         <v>4</v>
       </c>
-      <c r="I44" s="65" t="s">
+      <c r="I44" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="65" t="s">
+      <c r="J44" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="65" t="s">
+      <c r="K44" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="L44" s="65">
+      <c r="L44" s="37">
         <v>15</v>
       </c>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="X44" s="67"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="X44" s="39"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="37">
         <v>1</v>
       </c>
-      <c r="I45" s="65" t="s">
+      <c r="I45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="65" t="s">
+      <c r="J45" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="65" t="s">
+      <c r="K45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="65">
+      <c r="L45" s="37">
         <v>6</v>
       </c>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="X45" s="67"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="X45" s="39"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="37">
         <v>3</v>
       </c>
-      <c r="I46" s="65" t="s">
+      <c r="I46" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="65" t="s">
+      <c r="J46" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="65" t="s">
+      <c r="K46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="65">
+      <c r="L46" s="37">
         <v>6</v>
       </c>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="X46" s="67"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="X46" s="39"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H47" s="37">
         <v>6</v>
       </c>
-      <c r="I47" s="65" t="s">
+      <c r="I47" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="65" t="s">
+      <c r="J47" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="65" t="s">
+      <c r="K47" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L47" s="65">
+      <c r="L47" s="37">
         <v>0</v>
       </c>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="67"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
     </row>
     <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="37">
         <v>5</v>
       </c>
-      <c r="I48" s="65" t="s">
+      <c r="I48" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="65" t="s">
+      <c r="J48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="65" t="s">
+      <c r="K48" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="37">
         <v>0</v>
       </c>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="37">
         <v>5</v>
       </c>
-      <c r="I49" s="65" t="s">
+      <c r="I49" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="65" t="s">
+      <c r="J49" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L49" s="65">
+      <c r="L49" s="37">
         <v>0</v>
       </c>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="65">
+      <c r="H50" s="37">
         <v>5</v>
       </c>
-      <c r="I50" s="65" t="s">
+      <c r="I50" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="65" t="s">
+      <c r="J50" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="65" t="s">
+      <c r="K50" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L50" s="65">
+      <c r="L50" s="37">
         <v>4</v>
       </c>
-      <c r="M50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
+      <c r="M50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
     </row>
     <row r="51" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="65">
+      <c r="H51" s="37">
         <v>4</v>
       </c>
-      <c r="I51" s="65" t="s">
+      <c r="I51" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="65" t="s">
+      <c r="J51" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="65" t="s">
+      <c r="K51" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L51" s="65">
+      <c r="L51" s="37">
         <v>4</v>
       </c>
-      <c r="M51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
+      <c r="M51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="65">
+      <c r="H52" s="37">
         <v>3</v>
       </c>
-      <c r="I52" s="65" t="s">
+      <c r="I52" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="65" t="s">
+      <c r="J52" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="65" t="s">
+      <c r="K52" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="65">
+      <c r="L52" s="37">
         <v>3</v>
       </c>
-      <c r="M52" s="67"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="R52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="65">
+      <c r="H53" s="37">
         <v>2</v>
       </c>
-      <c r="I53" s="65" t="s">
+      <c r="I53" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J53" s="65" t="s">
+      <c r="J53" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="65">
+      <c r="L53" s="37">
         <v>0</v>
       </c>
-      <c r="M53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
+      <c r="M53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
     </row>
     <row r="54" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="65" t="s">
+      <c r="J54" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="65">
+      <c r="L54" s="37">
         <v>0</v>
       </c>
-      <c r="M54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
+      <c r="M54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="37">
         <v>2</v>
       </c>
-      <c r="I55" s="65" t="s">
+      <c r="I55" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="65" t="s">
+      <c r="J55" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="65" t="s">
+      <c r="K55" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="65">
+      <c r="L55" s="37">
         <v>1</v>
       </c>
-      <c r="M55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
+      <c r="M55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="37">
         <v>2</v>
       </c>
-      <c r="I56" s="65" t="s">
+      <c r="I56" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="65" t="s">
+      <c r="J56" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="65" t="s">
+      <c r="K56" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L56" s="65">
+      <c r="L56" s="37">
         <v>0</v>
       </c>
-      <c r="M56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
+      <c r="M56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="37">
         <v>1</v>
       </c>
-      <c r="I57" s="65" t="s">
+      <c r="I57" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J57" s="65" t="s">
+      <c r="J57" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="65" t="s">
+      <c r="K57" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L57" s="65">
+      <c r="L57" s="37">
         <v>1</v>
       </c>
-      <c r="M57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
+      <c r="M57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="65">
+      <c r="H58" s="37">
         <v>2</v>
       </c>
-      <c r="I58" s="65" t="s">
+      <c r="I58" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J58" s="65" t="s">
+      <c r="J58" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="65" t="s">
+      <c r="K58" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="65">
+      <c r="L58" s="37">
         <v>1</v>
       </c>
-      <c r="M58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
+      <c r="M58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="65">
+      <c r="H59" s="37">
         <v>1</v>
       </c>
-      <c r="I59" s="65" t="s">
+      <c r="I59" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="65" t="s">
+      <c r="J59" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="65" t="s">
+      <c r="K59" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="65">
+      <c r="L59" s="37">
         <v>1</v>
       </c>
-      <c r="M59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
+      <c r="M59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
     </row>
     <row r="60" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="65">
+      <c r="H60" s="37">
         <v>2</v>
       </c>
-      <c r="I60" s="65" t="s">
+      <c r="I60" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="65" t="s">
+      <c r="J60" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="65" t="s">
+      <c r="K60" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L60" s="65">
+      <c r="L60" s="37">
         <v>1</v>
       </c>
-      <c r="M60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="69"/>
-      <c r="R60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
+      <c r="M60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="65">
+      <c r="H61" s="37">
         <v>1</v>
       </c>
-      <c r="I61" s="65" t="s">
+      <c r="I61" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J61" s="65" t="s">
+      <c r="J61" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="65" t="s">
+      <c r="K61" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="M61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
+      <c r="M61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="65" t="s">
+      <c r="E62" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="37">
         <v>7</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="65" t="s">
+      <c r="J62" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="65" t="s">
+      <c r="K62" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="65">
+      <c r="L62" s="37">
         <v>7</v>
       </c>
-      <c r="M62" s="69" t="s">
+      <c r="M62" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N62" s="69" t="s">
+      <c r="N62" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O62" s="69" t="s">
+      <c r="O62" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E63" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="37">
         <v>7</v>
       </c>
-      <c r="I63" s="65" t="s">
+      <c r="I63" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="65" t="s">
+      <c r="J63" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="65">
+      <c r="L63" s="37">
         <v>7</v>
       </c>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="E64" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="F64" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="65">
+      <c r="H64" s="37">
         <v>4</v>
       </c>
-      <c r="I64" s="65" t="s">
+      <c r="I64" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="65" t="s">
+      <c r="J64" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="65" t="s">
+      <c r="K64" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L64" s="65">
+      <c r="L64" s="37">
         <v>4</v>
       </c>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
     </row>
     <row r="65" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E65" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="65">
+      <c r="H65" s="37">
         <v>5</v>
       </c>
-      <c r="I65" s="65" t="s">
+      <c r="I65" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="65" t="s">
+      <c r="J65" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="65" t="s">
+      <c r="K65" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="65">
+      <c r="L65" s="37">
         <v>5</v>
       </c>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="65" t="s">
+      <c r="E66" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="37">
         <v>6</v>
       </c>
-      <c r="I66" s="65" t="s">
+      <c r="I66" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="65" t="s">
+      <c r="J66" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="65" t="s">
+      <c r="K66" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="65">
+      <c r="L66" s="37">
         <v>10</v>
       </c>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
-      <c r="U66" s="67"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="67"/>
-      <c r="X66" s="67"/>
-      <c r="AK66" s="67"/>
-      <c r="AL66" s="67"/>
-      <c r="AM66" s="67"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="39"/>
+      <c r="AM66" s="39"/>
     </row>
     <row r="67" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="65" t="s">
+      <c r="E67" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="65">
+      <c r="H67" s="37">
         <v>7</v>
       </c>
-      <c r="I67" s="65" t="s">
+      <c r="I67" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="65" t="s">
+      <c r="J67" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="65" t="s">
+      <c r="K67" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="65">
+      <c r="L67" s="37">
         <v>7</v>
       </c>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="67"/>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
-      <c r="X67" s="67"/>
-      <c r="AK67" s="67"/>
-      <c r="AL67" s="67"/>
-      <c r="AM67" s="67"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="39"/>
     </row>
     <row r="68" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E68" s="65" t="s">
+      <c r="E68" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="65">
+      <c r="H68" s="37">
         <v>6</v>
       </c>
-      <c r="I68" s="65" t="s">
+      <c r="I68" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="65" t="s">
+      <c r="J68" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K68" s="65" t="s">
+      <c r="K68" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L68" s="65">
+      <c r="L68" s="37">
         <v>7</v>
       </c>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="67"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="67"/>
-      <c r="U68" s="67"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="67"/>
-      <c r="X68" s="67"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="65">
+      <c r="H69" s="37">
         <v>7</v>
       </c>
-      <c r="I69" s="65" t="s">
+      <c r="I69" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J69" s="65" t="s">
+      <c r="J69" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="65" t="s">
+      <c r="K69" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L69" s="65">
+      <c r="L69" s="37">
         <v>8</v>
       </c>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
-      <c r="U69" s="67"/>
-      <c r="X69" s="67"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="X69" s="39"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="D70" s="66" t="s">
+      <c r="D70" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E70" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="65">
+      <c r="H70" s="37">
         <v>6</v>
       </c>
-      <c r="I70" s="65" t="s">
+      <c r="I70" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J70" s="65" t="s">
+      <c r="J70" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K70" s="65" t="s">
+      <c r="K70" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="65">
+      <c r="L70" s="37">
         <v>8</v>
       </c>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="X70" s="67"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="X70" s="39"/>
     </row>
     <row r="71" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="65" t="s">
+      <c r="E71" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="65">
+      <c r="H71" s="37">
         <v>5</v>
       </c>
-      <c r="I71" s="65" t="s">
+      <c r="I71" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J71" s="65" t="s">
+      <c r="J71" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="65" t="s">
+      <c r="K71" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L71" s="65">
+      <c r="L71" s="37">
         <v>7</v>
       </c>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="X71" s="67"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="X71" s="39"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="65">
+      <c r="H72" s="37">
         <v>7</v>
       </c>
-      <c r="I72" s="65" t="s">
+      <c r="I72" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J72" s="65" t="s">
+      <c r="J72" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="65" t="s">
+      <c r="K72" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L72" s="65">
+      <c r="L72" s="37">
         <v>8</v>
       </c>
-      <c r="N72" s="67"/>
-      <c r="O72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="X72" s="67"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="X72" s="39"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="65" t="s">
+      <c r="E73" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="37">
         <v>8</v>
       </c>
-      <c r="I73" s="65" t="s">
+      <c r="I73" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J73" s="65" t="s">
+      <c r="J73" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K73" s="65" t="s">
+      <c r="K73" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L73" s="65">
+      <c r="L73" s="37">
         <v>5</v>
       </c>
-      <c r="M73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
+      <c r="M73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
     </row>
     <row r="74" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E74" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="65">
+      <c r="H74" s="37">
         <v>5</v>
       </c>
-      <c r="I74" s="65" t="s">
+      <c r="I74" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J74" s="65" t="s">
+      <c r="J74" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K74" s="65" t="s">
+      <c r="K74" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L74" s="65">
+      <c r="L74" s="37">
         <v>2</v>
       </c>
-      <c r="M74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
+      <c r="M74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="65" t="s">
+      <c r="F75" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="65" t="s">
+      <c r="G75" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="65">
+      <c r="L75" s="37">
         <v>0</v>
       </c>
-      <c r="S75" s="67"/>
-      <c r="T75" s="67"/>
-      <c r="AA75" s="67"/>
-      <c r="AB75" s="67"/>
-      <c r="AC75" s="67"/>
-      <c r="AD75" s="67"/>
-      <c r="AE75" s="67"/>
-      <c r="AF75" s="67"/>
-      <c r="AG75" s="67"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
     </row>
     <row r="76" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="66" t="s">
+      <c r="C76" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="65" t="s">
+      <c r="G76" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="L76" s="65">
+      <c r="L76" s="37">
         <v>0</v>
       </c>
-      <c r="S76" s="70"/>
-      <c r="T76" s="70"/>
-      <c r="AA76" s="71"/>
-      <c r="AB76" s="71"/>
-      <c r="AC76" s="70"/>
-      <c r="AD76" s="70"/>
-      <c r="AE76" s="70"/>
-      <c r="AF76" s="70"/>
-      <c r="AG76" s="70"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="66" t="s">
+      <c r="C77" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="65" t="s">
+      <c r="F77" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G77" s="65" t="s">
+      <c r="G77" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L77" s="65">
+      <c r="L77" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="66" t="s">
+      <c r="D78" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="65" t="s">
+      <c r="F78" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="G78" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="L78" s="65">
+      <c r="L78" s="37">
         <v>0</v>
       </c>
-      <c r="S78" s="70"/>
-      <c r="T78" s="70"/>
-      <c r="AA78" s="70"/>
-      <c r="AB78" s="70"/>
-      <c r="AC78" s="70"/>
-      <c r="AD78" s="70"/>
-      <c r="AE78" s="70"/>
-      <c r="AF78" s="70"/>
-      <c r="AG78" s="70"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="66" t="s">
+      <c r="D79" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="65" t="s">
+      <c r="F79" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="L79" s="65">
+      <c r="L79" s="37">
         <v>0</v>
       </c>
-      <c r="S79" s="70"/>
-      <c r="T79" s="70"/>
-      <c r="AA79" s="70"/>
-      <c r="AB79" s="70"/>
-      <c r="AC79" s="70"/>
-      <c r="AD79" s="70"/>
-      <c r="AE79" s="70"/>
-      <c r="AF79" s="70"/>
-      <c r="AG79" s="70"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
     </row>
     <row r="80" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="F80" s="65" t="s">
+      <c r="F80" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="L80" s="65">
+      <c r="L80" s="37">
         <v>0</v>
       </c>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
-      <c r="AE80" s="70"/>
-      <c r="AF80" s="70"/>
-      <c r="AG80" s="70"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="66" t="s">
+      <c r="C81" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="65" t="s">
+      <c r="F81" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L81" s="65">
+      <c r="L81" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D82" s="66" t="s">
+      <c r="D82" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F82" s="65" t="s">
+      <c r="F82" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="65" t="s">
+      <c r="G82" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L82" s="65">
+      <c r="L82" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5145,54 +5175,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="58"/>
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -5414,85 +5444,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>400</v>
       </c>
       <c r="B1" s="30"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="40"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="63"/>
     </row>
     <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5825,15 +5855,15 @@
         <v>395</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="33" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="33" t="s">
         <v>130</v>
       </c>
       <c r="I10" s="19" t="s">
@@ -5960,12 +5990,12 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="W13" s="74"/>
+      <c r="W13" s="32"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6110,7 +6140,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
     </row>
-    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>320</v>
       </c>
@@ -6518,32 +6548,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6605,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>217</v>
       </c>
@@ -6640,7 +6670,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>219</v>
       </c>
@@ -6735,7 +6765,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>241</v>
       </c>
@@ -6813,7 +6843,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
@@ -6903,7 +6933,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>367</v>
       </c>
@@ -6932,11 +6962,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7049,6 +7079,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7056,176 +7094,215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7FC3C4-41AF-44DD-A4A7-B5C07256D2A2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="19.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="142.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="78"/>
+    <col min="3" max="3" width="10.77734375" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="78"/>
+    <col min="5" max="5" width="19.44140625" style="78" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="15" style="78" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="78" customWidth="1"/>
+    <col min="10" max="10" width="142.6640625" style="78" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="76" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="78">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="78">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="79" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="78">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="78" t="s">
         <v>316</v>
       </c>
+      <c r="J3" s="79" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="78">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="78">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="78" t="s">
         <v>316</v>
       </c>
+      <c r="J4" s="78" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="78" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="78">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="78">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="78" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="78">
+        <v>1</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="78">
+        <v>1</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="79" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="432">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1041,9 +1041,6 @@
   </si>
   <si>
     <t>Identyfikacja</t>
-  </si>
-  <si>
-    <t>Infrawicja</t>
   </si>
   <si>
     <t>Migoczące barwy</t>
@@ -1243,151 +1240,202 @@
     <t>Różdżka magicznych pocisków</t>
   </si>
   <si>
+    <t>Szata stapiania</t>
+  </si>
+  <si>
+    <t>Odporność na magię: +5%, wiedza: +5, pozwala rzucić dodatkowy czar maga 1. poziomu</t>
+  </si>
+  <si>
+    <t>Zapinka płaszczu Brona</t>
+  </si>
+  <si>
+    <t>Odporność na obrażenia kłute: +5%, odporność na obrażenia sieczne: +5%, odporność na pociski: +5%</t>
+  </si>
+  <si>
+    <t>Pas Gonda</t>
+  </si>
+  <si>
+    <t>Otwieranie zamków: +10%, znajdowanie pułapek: +5%</t>
+  </si>
+  <si>
+    <t>Skarabeusz dobrej woli</t>
+  </si>
+  <si>
+    <t>Właściwości ładunków: Przyjaciele, raz dziennie, Charyzma: +5, czas działania: 13 rund, obszar działania: użytkownik</t>
+  </si>
+  <si>
+    <t>Pierścień cieni</t>
+  </si>
+  <si>
+    <t>Inteligencja:9</t>
+  </si>
+  <si>
+    <t>Znajdowanie pułapek; Użytkownik wykrywa pułapki jakby był złodziejem</t>
+  </si>
+  <si>
+    <t>Turkus</t>
+  </si>
+  <si>
+    <t>Cyrkon</t>
+  </si>
+  <si>
+    <t>Wekiera +1</t>
+  </si>
+  <si>
+    <t>1k6+2</t>
+  </si>
+  <si>
+    <t>Turodahel +2</t>
+  </si>
+  <si>
+    <t>Inteligencja: +1</t>
+  </si>
+  <si>
+    <t>Miecz Kresselacka +1</t>
+  </si>
+  <si>
+    <t>Odporność na zimno: +10%</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Pierścień</t>
+  </si>
+  <si>
+    <t>Głowa</t>
+  </si>
+  <si>
+    <t>Korpus</t>
+  </si>
+  <si>
+    <t>Ręka</t>
+  </si>
+  <si>
+    <t>Palec</t>
+  </si>
+  <si>
+    <t>Dłoń</t>
+  </si>
+  <si>
+    <t>Szyja</t>
+  </si>
+  <si>
+    <t>Nazwa przedmiotu</t>
+  </si>
+  <si>
+    <t>Miejsce użycia</t>
+  </si>
+  <si>
+    <t>Srebrny naszyjnik</t>
+  </si>
+  <si>
+    <t>Amulet z krwawnikiem</t>
+  </si>
+  <si>
+    <t>Naszyjnik wysadzany kamieniami zios</t>
+  </si>
+  <si>
+    <t>Naszyjnik</t>
+  </si>
+  <si>
+    <t>Rodzinna pamiątka Mirka</t>
+  </si>
+  <si>
+    <t>Złoty pierścień</t>
+  </si>
+  <si>
+    <t>Wakizashi</t>
+  </si>
+  <si>
+    <t>Zbroja skórzania ćwiekowana +1; Zacieniona</t>
+  </si>
+  <si>
+    <t>Ciche chodzenie: +15%, Krycie się w cieniu: +15%, Odporność na magię: +5%</t>
+  </si>
+  <si>
+    <t>Nagroda kmiecia +2</t>
+  </si>
+  <si>
+    <t>1k10+2</t>
+  </si>
+  <si>
+    <t>Po zapamiętaniu tego zaklęcia należy przejść na stronę opisu niezidentyfikowanego przedmiotu i nacisnąć przycisk Identyfikuj. Szansa na zidentyfikowanie przedmiotu wynosi 100%. Zaklęcie pozwala poznać nazwę przedmiotu oraz jego właściwości, a także ustalić, czy nie jest przeklęty.</t>
+  </si>
+  <si>
+    <t>Osoba, na którą rzucono zaklęcie, uzyskuje zdolność infrawizji, jaką posiadają elfy czy krasnoludy.</t>
+  </si>
+  <si>
+    <t>Magiczny pocisk</t>
+  </si>
+  <si>
+    <t>Jest to jeden z najpopularniejszych czarów pierwszego poziomu. Dzięki niemu mag tworzy z magicznej energii do pięciu pocisków, które wylatują z jego palca i bezbłędnie trafiają w wybraną istotę. Każdy pocisk zadaje 1k4+1 obrażeń. Na każde dwa poziomy doświadczenia mag otrzymuje jeden dodatkowy pocisk, tzn. na trzecim na dwa, na piątym - trzy, na siódmym - cztery i maksymalnie pięć na dziewiątym i wyższych poziomach.</t>
+  </si>
+  <si>
+    <t>Wodna gwiazda</t>
+  </si>
+  <si>
+    <t>Szeroki miecz Erevaina +2</t>
+  </si>
+  <si>
+    <t>Rzuty obronne: +2 przeciw różdżkom, odporność na kwas: +10%</t>
+  </si>
+  <si>
+    <t>2k4+2</t>
+  </si>
+  <si>
+    <t>Strzała kwasowa +1</t>
+  </si>
+  <si>
+    <t>1k6+1, +2k6 obrażeń od kwasu</t>
+  </si>
+  <si>
     <t>Zaklęcie to sprawia, że w ręku maga pojawia się kula o średnicy 0,5 metra. Efekt działania zależy od poziomu maga, który ją stworzył:
 1 poziom: zadaje 1k4 obrażenia i oślepia ofiarę na 1 rundę
+2. poziom: zadaje 1k6 obrażeń od ognia i wywołuje u ofiary ból (modyfikator -1 do Klasy Pancerza i TraK0 przez jedną rundę
+3. poziom: zadaje 1k8 magicznych obrażeń i podpala ofiarę, zadając je dodatkowe 1k3 obrażeń od ognia
+4. poziom: zadaje 1k10 magicznych obrażeń i oślepia ofiarę na 4 rundy
+5-6. poziom: zadaje 1k12 magicznych obrażeń i ogłusza ofiarę na 3 rundy
+7. poziom i wyżej: zadaje 2k8 magicznych obrażeń i paraliżuje ofiarę na 13 rund
 Rzut obronny przeciwko czarom neguje wszystkie efekty.</t>
   </si>
   <si>
-    <t>Szata stapiania</t>
-  </si>
-  <si>
-    <t>Odporność na magię: +5%, wiedza: +5, pozwala rzucić dodatkowy czar maga 1. poziomu</t>
-  </si>
-  <si>
-    <t>Zapinka płaszczu Brona</t>
-  </si>
-  <si>
-    <t>Odporność na obrażenia kłute: +5%, odporność na obrażenia sieczne: +5%, odporność na pociski: +5%</t>
-  </si>
-  <si>
-    <t>Pas Gonda</t>
-  </si>
-  <si>
-    <t>Otwieranie zamków: +10%, znajdowanie pułapek: +5%</t>
-  </si>
-  <si>
-    <t>Skarabeusz dobrej woli</t>
-  </si>
-  <si>
-    <t>Właściwości ładunków: Przyjaciele, raz dziennie, Charyzma: +5, czas działania: 13 rund, obszar działania: użytkownik</t>
-  </si>
-  <si>
-    <t>Pierścień cieni</t>
-  </si>
-  <si>
-    <t>Inteligencja:9</t>
-  </si>
-  <si>
-    <t>Znajdowanie pułapek; Użytkownik wykrywa pułapki jakby był złodziejem</t>
-  </si>
-  <si>
-    <t>Turkus</t>
-  </si>
-  <si>
-    <t>Cyrkon</t>
-  </si>
-  <si>
-    <t>Wekiera +1</t>
-  </si>
-  <si>
-    <t>1k6+2</t>
-  </si>
-  <si>
-    <t>Turodahel +2</t>
-  </si>
-  <si>
-    <t>Inteligencja: +1</t>
-  </si>
-  <si>
-    <t>Miecz Kresselacka +1</t>
-  </si>
-  <si>
-    <t>Odporność na zimno: +10%</t>
-  </si>
-  <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>Pierścień</t>
-  </si>
-  <si>
-    <t>Głowa</t>
-  </si>
-  <si>
-    <t>Korpus</t>
-  </si>
-  <si>
-    <t>Ręka</t>
-  </si>
-  <si>
-    <t>Palec</t>
-  </si>
-  <si>
-    <t>Dłoń</t>
-  </si>
-  <si>
-    <t>Szyja</t>
-  </si>
-  <si>
-    <t>Nazwa przedmiotu</t>
-  </si>
-  <si>
-    <t>Miejsce użycia</t>
-  </si>
-  <si>
-    <t>Srebrny naszyjnik</t>
-  </si>
-  <si>
-    <t>Amulet z krwawnikiem</t>
-  </si>
-  <si>
-    <t>Naszyjnik wysadzany kamieniami zios</t>
-  </si>
-  <si>
-    <t>Naszyjnik</t>
-  </si>
-  <si>
-    <t>Rodzinna pamiątka Mirka</t>
-  </si>
-  <si>
-    <t>Złoty pierścień</t>
-  </si>
-  <si>
-    <t>Wakizashi</t>
-  </si>
-  <si>
-    <t>Zbroja skórzania ćwiekowana +1; Zacieniona</t>
-  </si>
-  <si>
-    <t>Ciche chodzenie: +15%, Krycie się w cieniu: +15%, Odporność na magię: +5%</t>
-  </si>
-  <si>
-    <t>Nagroda kmiecia +2</t>
-  </si>
-  <si>
-    <t>1k10+2</t>
-  </si>
-  <si>
-    <t>Po zapamiętaniu tego zaklęcia należy przejść na stronę opisu niezidentyfikowanego przedmiotu i nacisnąć przycisk Identyfikuj. Szansa na zidentyfikowanie przedmiotu wynosi 100%. Zaklęcie pozwala poznać nazwę przedmiotu oraz jego właściwości, a także ustalić, czy nie jest przeklęty.</t>
-  </si>
-  <si>
-    <t>Osoba, na którą rzucono zaklęcie, uzyskuje zdolność infrawizji, jaką posiadają elfy czy krasnoludy.</t>
-  </si>
-  <si>
-    <t>Magiczny pocisk</t>
-  </si>
-  <si>
-    <t>Jest to jeden z najpopularniejszych czarów pierwszego poziomu. Dzięki niemu mag tworzy z magicznej energii do pięciu pocisków, które wylatują z jego palca i bezbłędnie trafiają w wybraną istotę. Każdy pocisk zadaje 1k4+1 obrażeń. Na każde dwa poziomy doświadczenia mag otrzymuje jeden dodatkowy pocisk, tzn. na trzecim na dwa, na piątym - trzy, na siódmym - cztery i maksymalnie pięć na dziewiątym i wyższych poziomach.</t>
-  </si>
-  <si>
-    <t>Wodna gwiazda</t>
+    <t>Czar ten tworzy wachlarz oślepiająco jaskrawych barw, wystrzeliwujących wprost z dłoni rzucającego. Zaklęcie to wpływa na wszystkie istoty znajdujące się w obszarze jego działania, począwszy od stojącej najbliżej rzucającego, a skończywszy na najbardziej od niego oddalonej. Wszystkie istoty o poziomie wyższym od czarującego lub posiadające więcej niż 6 Kostek, muszą wykonać rzut obronny przeciw czarom. Efekty zaklęcia zależą od rzucającego - istoty o ilości Kostek lub poziomów mniejszej bądź równej poziomowi czarującego tracą przytomność na 5 rund, nie budząc się, gdy zostaną trafione, istoty o ilości Kostek lub poziomów większej o jeden lub dwa w stosunku do czarującego zostają oślepione na 3 rundy, a pozostałe istoty zostają ogłuszone na 1 rundę.
+Ślepe istoty są niewrażliwe na działanie Migoczących Barw.</t>
+  </si>
+  <si>
+    <t>Ochrona przed złem</t>
+  </si>
+  <si>
+    <t>Odrzucanie</t>
+  </si>
+  <si>
+    <t>2 rundy/poziom</t>
+  </si>
+  <si>
+    <t>Czar ten tworzy wokół wybranej istoty magiczną barierę, która przemieszcza się wraz z nią i działa na trzy sposoby. Po pierwsze, zapewnia premię +2 do Klasy Pancerza i rzutów obronnych przeciw atakom wykonywanym przez istoty o złym charakterze. Po drugie, przyzwane demony nie mogą atakować chronionej istoty i wreszcie po trzecie, staje się ona niewrażliwa na działanie zaklęć i efektów opartych o zauroczeniu (np. Zauroczenie osoby, Zauroczenie osoby lub ssaka, Dominacja, itp.)</t>
+  </si>
+  <si>
+    <t>Odbity obraz</t>
+  </si>
+  <si>
+    <t>Iluzje/Urojenia</t>
+  </si>
+  <si>
+    <t>3 rundy + 1 runda/poziom</t>
+  </si>
+  <si>
+    <t>rzucający czar</t>
+  </si>
+  <si>
+    <t>Po rzuceniu tego czaru, mag tworzy obraz samego siebie, który będzie podążał wraz z nim i wykonywał dokładnie te same czynności. W efekcie, istoty atakujące maga nie będą w stanie rozróżnić, która z postaci jest prawdziwa, a która tylko kopią. Istnieje 50% szans na to, że przeciwnik zaatakuje obraz i 50% szans, że zaatakuje maga. Obraz zniknie, jeśli rzucone zostanie Rozproszenie magii, zostanie zaatakowany lub jeśli upłynie czas działania czaru.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,7 +1487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1448,6 +1496,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1588,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1651,52 +1707,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1763,13 +1784,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2084,3031 +2147,3101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM82"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="36" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="37"/>
-    <col min="11" max="11" width="11.6640625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="37" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="37" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="37" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="37" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="37" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="37" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="37" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="37" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="37" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="37" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="37" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="37" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="37" customWidth="1"/>
-    <col min="28" max="28" width="6" style="37" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="37" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="37" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="37" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="37" customWidth="1"/>
-    <col min="33" max="33" width="10" style="37" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="37" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="37" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="37" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="37" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="37" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="37" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="25" style="77" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="78" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="78" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="78" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="78" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="78" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="78"/>
+    <col min="11" max="11" width="11.6640625" style="78" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="78" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="78" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="78" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="78" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="78" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="78" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="78" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="78" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="78" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="78" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="78" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="78" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="78" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="78" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="78" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="78" customWidth="1"/>
+    <col min="28" max="28" width="6" style="78" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="78" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="78" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="78" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="78" customWidth="1"/>
+    <col min="33" max="33" width="10" style="78" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="78" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="78" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="78" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="78" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="78" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="78" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:39" s="72" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="49"/>
-    </row>
-    <row r="2" spans="1:39" s="34" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="35" t="s">
+      <c r="M1" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="71"/>
+    </row>
+    <row r="2" spans="1:39" s="72" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="35" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="35" t="s">
+      <c r="AG2" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="35" t="s">
+      <c r="AH2" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="AJ2" s="35" t="s">
+      <c r="AJ2" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="AK2" s="35" t="s">
+      <c r="AK2" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="AL2" s="35" t="s">
+      <c r="AL2" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="35" t="s">
+      <c r="AM2" s="76" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="78">
         <v>7</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="78">
         <v>12</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="X3" s="39"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="X3" s="80"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="78">
         <v>6</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="78">
         <v>10</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="X4" s="39"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="78">
         <v>7</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="78">
         <v>12</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="X5" s="39"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="78">
         <v>7</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="78">
         <v>15</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="X6" s="39"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="78">
         <v>3</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="78">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="X7" s="39"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="78">
         <v>4</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="78">
         <v>9</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="78">
         <v>7</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="78">
         <v>3</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="78">
         <v>7</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="78">
         <v>10</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="78">
         <v>4</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="78">
         <v>3</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="78">
         <v>5</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="78">
         <v>4</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="U12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="41" t="s">
+      <c r="V12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="41" t="s">
+      <c r="W12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="41" t="s">
+      <c r="X12" s="82" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="78">
         <v>4</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="78">
         <v>4</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="78">
         <v>3</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="78">
         <v>4</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="78">
         <v>5</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="78">
         <v>4</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="78">
+        <v>3</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="78">
+        <v>5</v>
+      </c>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+    </row>
+    <row r="17" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="78">
+        <v>5</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="78">
+        <v>4</v>
+      </c>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="78">
+        <v>4</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="78">
+        <v>4</v>
+      </c>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="78">
+        <v>9</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="78">
+        <v>15</v>
+      </c>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="78">
+        <v>6</v>
+      </c>
+      <c r="I20" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="78">
+        <v>12</v>
+      </c>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="78">
+        <v>7</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="78">
+        <v>15</v>
+      </c>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" s="78">
+        <v>21</v>
+      </c>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="78">
+        <v>4</v>
+      </c>
+      <c r="I23" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="78">
+        <v>6</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="78">
+        <v>3</v>
+      </c>
+      <c r="I24" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="78">
+        <v>5</v>
+      </c>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="78">
+        <v>4</v>
+      </c>
+      <c r="I25" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="78">
+        <v>4</v>
+      </c>
+      <c r="S25" s="80"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="78">
+        <v>3</v>
+      </c>
+      <c r="S26" s="80"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="78">
+        <v>6</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="78">
+        <v>2</v>
+      </c>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="78">
+        <v>5</v>
+      </c>
+      <c r="I28" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="78">
+        <v>2</v>
+      </c>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="78">
+        <v>3</v>
+      </c>
+      <c r="I29" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="78">
+        <v>3</v>
+      </c>
+      <c r="M29" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="78">
+        <v>2</v>
+      </c>
+      <c r="I30" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="78">
+        <v>3</v>
+      </c>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+    </row>
+    <row r="31" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="78">
+        <v>1</v>
+      </c>
+      <c r="I31" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="78">
+        <v>3</v>
+      </c>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="78">
+        <v>10</v>
+      </c>
+      <c r="I32" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="78">
+        <v>14</v>
+      </c>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="78">
+        <v>5</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="78">
+        <v>7</v>
+      </c>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="78">
+        <v>4</v>
+      </c>
+      <c r="I34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="78">
+        <v>7</v>
+      </c>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="78">
+        <v>4</v>
+      </c>
+      <c r="I35" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="78">
+        <v>3</v>
+      </c>
+      <c r="O35" s="80"/>
+    </row>
+    <row r="36" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="78">
+        <v>3</v>
+      </c>
+      <c r="I36" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="78">
+        <v>2</v>
+      </c>
+      <c r="O36" s="82"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="78">
+        <v>10</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="78">
+        <v>15</v>
+      </c>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="78">
+        <v>7</v>
+      </c>
+      <c r="I38" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="78">
+        <v>8</v>
+      </c>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B39" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C39" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="78">
+        <v>8</v>
+      </c>
+      <c r="I39" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="78">
+        <v>12</v>
+      </c>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="78">
+        <v>8</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="78">
+        <v>10</v>
+      </c>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+    </row>
+    <row r="41" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="78">
+        <v>8</v>
+      </c>
+      <c r="I41" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="78">
+        <v>10</v>
+      </c>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="78">
+        <v>7</v>
+      </c>
+      <c r="I42" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="78">
+        <v>9</v>
+      </c>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+    </row>
+    <row r="43" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="78">
+        <v>6</v>
+      </c>
+      <c r="I43" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="78">
+        <v>8</v>
+      </c>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+    </row>
+    <row r="44" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="78">
+        <v>6</v>
+      </c>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="X44" s="80"/>
+    </row>
+    <row r="45" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="78">
+        <v>4</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" s="78">
+        <v>15</v>
+      </c>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="X45" s="80"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="78">
+        <v>1</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="78">
+        <v>6</v>
+      </c>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="X46" s="80"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="78">
+        <v>3</v>
+      </c>
+      <c r="I47" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="78">
+        <v>6</v>
+      </c>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="X47" s="80"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="78">
+        <v>6</v>
+      </c>
+      <c r="I48" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+    </row>
+    <row r="49" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="78">
+        <v>5</v>
+      </c>
+      <c r="I49" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="78">
+        <v>5</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="78">
+        <v>5</v>
+      </c>
+      <c r="I51" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="78">
+        <v>4</v>
+      </c>
+      <c r="M51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+    </row>
+    <row r="52" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D52" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E52" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H52" s="78">
+        <v>4</v>
+      </c>
+      <c r="I52" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="78">
+        <v>4</v>
+      </c>
+      <c r="M52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" s="77"/>
+      <c r="C53" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="78">
         <v>3</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="37" t="s">
+      <c r="I53" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="37">
+      <c r="K53" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="78">
+        <v>3</v>
+      </c>
+      <c r="M53" s="80"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="78">
+        <v>2</v>
+      </c>
+      <c r="I54" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" s="78">
+        <v>0</v>
+      </c>
+      <c r="M54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+    </row>
+    <row r="55" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="78">
+        <v>0</v>
+      </c>
+      <c r="M55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="78">
+        <v>2</v>
+      </c>
+      <c r="I56" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L56" s="78">
+        <v>1</v>
+      </c>
+      <c r="M56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="78">
+        <v>2</v>
+      </c>
+      <c r="I57" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L57" s="78">
+        <v>0</v>
+      </c>
+      <c r="M57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="78">
+        <v>1</v>
+      </c>
+      <c r="I58" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L58" s="78">
+        <v>1</v>
+      </c>
+      <c r="M58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="78">
+        <v>2</v>
+      </c>
+      <c r="I59" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="78">
+        <v>1</v>
+      </c>
+      <c r="M59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="78">
+        <v>1</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" s="78">
+        <v>1</v>
+      </c>
+      <c r="M60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="V60" s="80"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+    </row>
+    <row r="61" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="78">
+        <v>2</v>
+      </c>
+      <c r="I61" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="78">
+        <v>1</v>
+      </c>
+      <c r="M61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="80"/>
+      <c r="V61" s="80"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="78">
+        <v>1</v>
+      </c>
+      <c r="I62" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" s="80"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="80"/>
+      <c r="V62" s="80"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="80"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="78">
+        <v>7</v>
+      </c>
+      <c r="I63" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="78">
+        <v>7</v>
+      </c>
+      <c r="M63" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="80"/>
+      <c r="V63" s="80"/>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="78">
+        <v>7</v>
+      </c>
+      <c r="I64" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="78">
+        <v>7</v>
+      </c>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="80"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A65" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="78">
+        <v>4</v>
+      </c>
+      <c r="I65" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" s="78">
+        <v>4</v>
+      </c>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="80"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="80"/>
+    </row>
+    <row r="66" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="78">
         <v>5</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="I66" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="78">
+        <v>5</v>
+      </c>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A67" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="78">
+        <v>6</v>
+      </c>
+      <c r="I67" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="78">
+        <v>10</v>
+      </c>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="AK67" s="80"/>
+      <c r="AL67" s="80"/>
+      <c r="AM67" s="80"/>
+    </row>
+    <row r="68" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="78">
+        <v>7</v>
+      </c>
+      <c r="I68" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="78">
+        <v>7</v>
+      </c>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="AK68" s="80"/>
+      <c r="AL68" s="80"/>
+      <c r="AM68" s="80"/>
+    </row>
+    <row r="69" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="E69" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="78">
+        <v>6</v>
+      </c>
+      <c r="I69" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="78">
+        <v>7</v>
+      </c>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="80"/>
+      <c r="T69" s="80"/>
+      <c r="U69" s="80"/>
+      <c r="V69" s="80"/>
+      <c r="W69" s="80"/>
+      <c r="X69" s="80"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A70" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="78">
+        <v>7</v>
+      </c>
+      <c r="I70" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="78">
+        <v>8</v>
+      </c>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="S70" s="80"/>
+      <c r="T70" s="80"/>
+      <c r="U70" s="80"/>
+      <c r="X70" s="80"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A71" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="37">
-        <v>4</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="37" t="s">
+      <c r="E71" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="78">
+        <v>6</v>
+      </c>
+      <c r="I71" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="37">
-        <v>4</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="37" t="s">
+      <c r="K71" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="78">
+        <v>8</v>
+      </c>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="S71" s="80"/>
+      <c r="T71" s="80"/>
+      <c r="U71" s="80"/>
+      <c r="X71" s="80"/>
+    </row>
+    <row r="72" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="78">
+        <v>5</v>
+      </c>
+      <c r="I72" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="78">
+        <v>7</v>
+      </c>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="X72" s="80"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A73" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="78">
+        <v>7</v>
+      </c>
+      <c r="I73" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="78">
+        <v>8</v>
+      </c>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="S73" s="80"/>
+      <c r="T73" s="80"/>
+      <c r="U73" s="80"/>
+      <c r="X73" s="80"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A74" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="37">
-        <v>9</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="37" t="s">
+      <c r="H74" s="78">
+        <v>8</v>
+      </c>
+      <c r="I74" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="37">
-        <v>15</v>
-      </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="38" t="s">
+      <c r="K74" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="78">
+        <v>5</v>
+      </c>
+      <c r="M74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="R74" s="80"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="80"/>
+    </row>
+    <row r="75" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E75" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="37">
-        <v>6</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="37" t="s">
+      <c r="H75" s="78">
+        <v>5</v>
+      </c>
+      <c r="I75" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="37">
-        <v>12</v>
-      </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="K75" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="78">
+        <v>2</v>
+      </c>
+      <c r="M75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="R75" s="80"/>
+      <c r="S75" s="80"/>
+      <c r="T75" s="80"/>
+      <c r="V75" s="80"/>
+      <c r="W75" s="80"/>
+      <c r="X75" s="80"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A76" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="L76" s="78">
+        <v>0</v>
+      </c>
+      <c r="S76" s="80"/>
+      <c r="T76" s="80"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="80"/>
+      <c r="AC76" s="80"/>
+      <c r="AD76" s="80"/>
+      <c r="AE76" s="80"/>
+      <c r="AF76" s="80"/>
+      <c r="AG76" s="80"/>
+    </row>
+    <row r="77" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L77" s="78">
+        <v>0</v>
+      </c>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="AA77" s="84"/>
+      <c r="AB77" s="84"/>
+      <c r="AC77" s="83"/>
+      <c r="AD77" s="83"/>
+      <c r="AE77" s="83"/>
+      <c r="AF77" s="83"/>
+      <c r="AG77" s="83"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A78" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="L78" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A79" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L79" s="78">
+        <v>0</v>
+      </c>
+      <c r="S79" s="83"/>
+      <c r="T79" s="83"/>
+      <c r="AA79" s="83"/>
+      <c r="AB79" s="83"/>
+      <c r="AC79" s="83"/>
+      <c r="AD79" s="83"/>
+      <c r="AE79" s="83"/>
+      <c r="AF79" s="83"/>
+      <c r="AG79" s="83"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A80" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L80" s="78">
+        <v>0</v>
+      </c>
+      <c r="S80" s="83"/>
+      <c r="T80" s="83"/>
+      <c r="AA80" s="83"/>
+      <c r="AB80" s="83"/>
+      <c r="AC80" s="83"/>
+      <c r="AD80" s="83"/>
+      <c r="AE80" s="83"/>
+      <c r="AF80" s="83"/>
+      <c r="AG80" s="83"/>
+    </row>
+    <row r="81" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L81" s="78">
+        <v>0</v>
+      </c>
+      <c r="S81" s="83"/>
+      <c r="T81" s="83"/>
+      <c r="AA81" s="83"/>
+      <c r="AB81" s="83"/>
+      <c r="AC81" s="83"/>
+      <c r="AD81" s="83"/>
+      <c r="AE81" s="83"/>
+      <c r="AF81" s="83"/>
+      <c r="AG81" s="83"/>
+    </row>
+    <row r="82" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L82" s="78">
+        <v>0</v>
+      </c>
+      <c r="S82" s="83"/>
+      <c r="T82" s="83"/>
+      <c r="AA82" s="83"/>
+      <c r="AB82" s="83"/>
+      <c r="AC82" s="83"/>
+      <c r="AD82" s="83"/>
+      <c r="AE82" s="83"/>
+      <c r="AF82" s="83"/>
+      <c r="AG82" s="83"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="L83" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="37">
-        <v>7</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="37">
-        <v>15</v>
-      </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="L21" s="37">
-        <v>21</v>
-      </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="37">
-        <v>4</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="37">
-        <v>6</v>
-      </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="37">
-        <v>3</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="37">
-        <v>5</v>
-      </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="37">
-        <v>4</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="37">
-        <v>4</v>
-      </c>
-      <c r="S24" s="39"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="37">
-        <v>1</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="37">
-        <v>3</v>
-      </c>
-      <c r="S25" s="39"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="37">
-        <v>6</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="37">
-        <v>2</v>
-      </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="37">
-        <v>5</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="37">
-        <v>2</v>
-      </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="37">
-        <v>3</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="37">
-        <v>3</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="37">
-        <v>2</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="37">
-        <v>3</v>
-      </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-    </row>
-    <row r="30" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="37">
-        <v>1</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="37">
-        <v>3</v>
-      </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="F84" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="37">
-        <v>10</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="37">
-        <v>14</v>
-      </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="37">
-        <v>5</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="37">
-        <v>7</v>
-      </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="37">
-        <v>4</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="37">
-        <v>7</v>
-      </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="37">
-        <v>4</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="37">
-        <v>3</v>
-      </c>
-      <c r="O34" s="39"/>
-    </row>
-    <row r="35" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="37">
-        <v>3</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="37">
-        <v>2</v>
-      </c>
-      <c r="O35" s="41"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="37">
-        <v>10</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="37">
-        <v>15</v>
-      </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="37">
-        <v>7</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="37">
-        <v>8</v>
-      </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="37">
-        <v>8</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="37">
-        <v>12</v>
-      </c>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="37">
-        <v>8</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="37">
-        <v>10</v>
-      </c>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-    </row>
-    <row r="40" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="37">
-        <v>8</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="37">
-        <v>10</v>
-      </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="37">
-        <v>7</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="37">
-        <v>9</v>
-      </c>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-    </row>
-    <row r="42" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="37">
-        <v>6</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="37">
-        <v>8</v>
-      </c>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-    </row>
-    <row r="43" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="37">
-        <v>4</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="37">
-        <v>6</v>
-      </c>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="X43" s="39"/>
-    </row>
-    <row r="44" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="37">
-        <v>4</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="L44" s="37">
-        <v>15</v>
-      </c>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="X44" s="39"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="37">
-        <v>1</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="37">
-        <v>6</v>
-      </c>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="X45" s="39"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="37">
-        <v>3</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="37">
-        <v>6</v>
-      </c>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="X46" s="39"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="37">
-        <v>6</v>
-      </c>
-      <c r="I47" s="37" t="s">
+      <c r="G84" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L47" s="37">
+      <c r="L84" s="78">
         <v>0</v>
       </c>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-    </row>
-    <row r="48" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="37">
-        <v>5</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="37">
-        <v>5</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L49" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="37">
-        <v>5</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" s="37">
-        <v>4</v>
-      </c>
-      <c r="M50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-    </row>
-    <row r="51" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="37">
-        <v>4</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" s="37">
-        <v>4</v>
-      </c>
-      <c r="M51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="37">
-        <v>3</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="37">
-        <v>3</v>
-      </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="37">
-        <v>2</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="37">
-        <v>0</v>
-      </c>
-      <c r="M53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-    </row>
-    <row r="54" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="37">
-        <v>0</v>
-      </c>
-      <c r="M54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="37">
-        <v>2</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L55" s="37">
-        <v>1</v>
-      </c>
-      <c r="M55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="37">
-        <v>2</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L56" s="37">
-        <v>0</v>
-      </c>
-      <c r="M56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="37">
-        <v>1</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L57" s="37">
-        <v>1</v>
-      </c>
-      <c r="M57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="37">
-        <v>2</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L58" s="37">
-        <v>1</v>
-      </c>
-      <c r="M58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="37">
-        <v>1</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L59" s="37">
-        <v>1</v>
-      </c>
-      <c r="M59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-    </row>
-    <row r="60" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="37">
-        <v>2</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" s="37">
-        <v>1</v>
-      </c>
-      <c r="M60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="37">
-        <v>1</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="37">
-        <v>7</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="37">
-        <v>7</v>
-      </c>
-      <c r="M62" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O62" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="37">
-        <v>7</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="37">
-        <v>7</v>
-      </c>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" s="37">
-        <v>4</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L64" s="37">
-        <v>4</v>
-      </c>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-    </row>
-    <row r="65" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="37">
-        <v>5</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="37">
-        <v>5</v>
-      </c>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="37">
-        <v>6</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="37">
-        <v>10</v>
-      </c>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="AK66" s="39"/>
-      <c r="AL66" s="39"/>
-      <c r="AM66" s="39"/>
-    </row>
-    <row r="67" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="37">
-        <v>7</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="37">
-        <v>7</v>
-      </c>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="39"/>
-      <c r="AM67" s="39"/>
-    </row>
-    <row r="68" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="37">
-        <v>6</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" s="37">
-        <v>7</v>
-      </c>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="37">
-        <v>7</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L69" s="37">
-        <v>8</v>
-      </c>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="X69" s="39"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="37">
-        <v>6</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="37">
-        <v>8</v>
-      </c>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="X70" s="39"/>
-    </row>
-    <row r="71" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="37">
-        <v>5</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L71" s="37">
-        <v>7</v>
-      </c>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="X71" s="39"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="37">
-        <v>7</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="37">
-        <v>8</v>
-      </c>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="X72" s="39"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="37">
-        <v>8</v>
-      </c>
-      <c r="I73" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K73" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L73" s="37">
-        <v>5</v>
-      </c>
-      <c r="M73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-    </row>
-    <row r="74" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="37">
-        <v>5</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" s="37">
-        <v>2</v>
-      </c>
-      <c r="M74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A75" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="L75" s="37">
-        <v>0</v>
-      </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="AA75" s="39"/>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-    </row>
-    <row r="76" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G76" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L76" s="37">
-        <v>0</v>
-      </c>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L77" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L78" s="37">
-        <v>0</v>
-      </c>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="AA78" s="42"/>
-      <c r="AB78" s="42"/>
-      <c r="AC78" s="42"/>
-      <c r="AD78" s="42"/>
-      <c r="AE78" s="42"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="42"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L79" s="37">
-        <v>0</v>
-      </c>
-      <c r="S79" s="42"/>
-      <c r="T79" s="42"/>
-      <c r="AA79" s="42"/>
-      <c r="AB79" s="42"/>
-      <c r="AC79" s="42"/>
-      <c r="AD79" s="42"/>
-      <c r="AE79" s="42"/>
-      <c r="AF79" s="42"/>
-      <c r="AG79" s="42"/>
-    </row>
-    <row r="80" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L80" s="37">
-        <v>0</v>
-      </c>
-      <c r="S80" s="42"/>
-      <c r="T80" s="42"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="42"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L81" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L82" s="37">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L81" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L83" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM81">
-    <sortCondition ref="I3:I81"/>
+  <sortState ref="A3:AM83">
+    <sortCondition ref="I3:I83"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
@@ -5175,54 +5308,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="58"/>
+      <c r="E1" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -5310,13 +5443,13 @@
     </row>
     <row r="3" spans="1:44" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="25">
         <v>1</v>
@@ -5325,13 +5458,13 @@
     </row>
     <row r="4" spans="1:44" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
@@ -5349,10 +5482,10 @@
         <v>260</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -5444,85 +5577,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>400</v>
+      <c r="A1" s="57" t="s">
+        <v>398</v>
       </c>
       <c r="B1" s="30"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="63"/>
+      <c r="K1" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="52"/>
     </row>
     <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+        <v>399</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5767,7 @@
         <v>281</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>282</v>
@@ -5650,7 +5783,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>131</v>
@@ -5663,10 +5796,10 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>131</v>
@@ -5682,7 +5815,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>123</v>
@@ -5725,7 +5858,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>256</v>
@@ -5752,7 +5885,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -5803,7 +5936,7 @@
         <v>124</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
@@ -5852,7 +5985,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="33" t="s">
@@ -5901,7 +6034,7 @@
         <v>128</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>129</v>
@@ -5932,7 +6065,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>127</v>
@@ -5960,13 +6093,13 @@
     </row>
     <row r="13" spans="1:45" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>130</v>
@@ -6002,7 +6135,7 @@
         <v>135</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>131</v>
@@ -6029,7 +6162,7 @@
         <v>141</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>118</v>
@@ -6058,7 +6191,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>119</v>
@@ -6087,7 +6220,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>127</v>
@@ -6114,7 +6247,7 @@
         <v>276</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>114</v>
@@ -6145,7 +6278,7 @@
         <v>320</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>321</v>
@@ -6164,13 +6297,13 @@
     </row>
     <row r="20" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>85</v>
@@ -6189,13 +6322,13 @@
     </row>
     <row r="21" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
@@ -6209,10 +6342,10 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C22" s="8"/>
       <c r="J22" s="12">
@@ -6221,10 +6354,10 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C23" s="8"/>
       <c r="J23" s="12">
@@ -6236,7 +6369,7 @@
         <v>258</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>259</v>
@@ -6248,13 +6381,13 @@
     </row>
     <row r="25" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J25" s="12">
         <v>2</v>
@@ -6272,7 +6405,7 @@
         <v>137</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>91</v>
@@ -6295,7 +6428,7 @@
         <v>138</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>255</v>
@@ -6315,7 +6448,7 @@
         <v>139</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="14" t="s">
@@ -6342,7 +6475,7 @@
         <v>140</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="14" t="s">
@@ -6363,13 +6496,13 @@
     </row>
     <row r="30" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>91</v>
@@ -6381,10 +6514,10 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C31" s="8"/>
       <c r="J31" s="12">
@@ -6394,10 +6527,10 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C32" s="8"/>
       <c r="J32" s="12">
@@ -6407,10 +6540,10 @@
     </row>
     <row r="33" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" s="8"/>
       <c r="J33" s="12">
@@ -6420,10 +6553,10 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C34" s="8"/>
       <c r="J34" s="12">
@@ -6433,10 +6566,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C35" s="8"/>
       <c r="J35" s="12">
@@ -6473,11 +6606,11 @@
     </row>
     <row r="38" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J38" s="12">
         <v>1</v>
@@ -6486,11 +6619,11 @@
     </row>
     <row r="39" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J39" s="12">
         <v>1</v>
@@ -6548,32 +6681,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6905,13 +7038,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -6920,13 +7053,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6935,10 +7068,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>227</v>
@@ -6964,126 +7097,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="21.44140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="41"/>
+    <col min="3" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -7094,215 +7228,282 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7FC3C4-41AF-44DD-A4A7-B5C07256D2A2}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="78" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="78"/>
-    <col min="3" max="3" width="10.77734375" style="78" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="78"/>
-    <col min="5" max="5" width="19.44140625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="78" customWidth="1"/>
-    <col min="7" max="7" width="15" style="78" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="78" customWidth="1"/>
-    <col min="10" max="10" width="142.6640625" style="78" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="80"/>
+    <col min="1" max="1" width="29.21875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="36"/>
+    <col min="3" max="3" width="15.21875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15" style="36" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="142.6640625" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="85" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="36">
         <v>1</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>372</v>
+      <c r="J2" s="19" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="36">
         <v>1</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="36">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="B6" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="78">
+      <c r="C6" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="36">
         <v>1</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E6" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="78">
+      <c r="F7" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="36">
         <v>1</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H7" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I7" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J4" s="78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="78" t="s">
+      <c r="J7" s="19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="78">
+      <c r="C8" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="36">
         <v>1</v>
       </c>
-      <c r="E5" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="78">
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H5" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="78">
-        <v>1</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="78">
-        <v>1</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="I6" s="78" t="s">
+      <c r="H8" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J6" s="79" t="s">
-        <v>416</v>
+      <c r="J8" s="19" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$85</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="435">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1267,9 +1267,6 @@
     <t>Pierścień cieni</t>
   </si>
   <si>
-    <t>Inteligencja:9</t>
-  </si>
-  <si>
     <t>Znajdowanie pułapek; Użytkownik wykrywa pułapki jakby był złodziejem</t>
   </si>
   <si>
@@ -1429,6 +1426,18 @@
   </si>
   <si>
     <t>Po rzuceniu tego czaru, mag tworzy obraz samego siebie, który będzie podążał wraz z nim i wykonywał dokładnie te same czynności. W efekcie, istoty atakujące maga nie będą w stanie rozróżnić, która z postaci jest prawdziwa, a która tylko kopią. Istnieje 50% szans na to, że przeciwnik zaatakuje obraz i 50% szans, że zaatakuje maga. Obraz zniknie, jeśli rzucone zostanie Rozproszenie magii, zostanie zaatakowany lub jeśli upłynie czas działania czaru.</t>
+  </si>
+  <si>
+    <t>Topór bojowy +2: Obrońca</t>
+  </si>
+  <si>
+    <t>Klasa pancerza: +2, odporność na pociski: +10%</t>
+  </si>
+  <si>
+    <t>Miecz długi zamętu +2</t>
+  </si>
+  <si>
+    <t>25% szans, że cel znajdzie się pod wpływem zamętu przez 1 rundę, po trafieniu</t>
   </si>
 </sst>
 </file>
@@ -1718,6 +1727,55 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1783,55 +1841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,3101 +2156,3187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM86"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="77" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="79" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="78" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="78" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="78" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="78" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="78" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="78"/>
-    <col min="11" max="11" width="11.6640625" style="78" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="78" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="78" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="78" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="78" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="78" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="78" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="78" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="78" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="78" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="78" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="78" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="78" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="78" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="78" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="78" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="78" customWidth="1"/>
-    <col min="28" max="28" width="6" style="78" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="78" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="78" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="78" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="78" customWidth="1"/>
-    <col min="33" max="33" width="10" style="78" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="78" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="78" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="78" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="78" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="78" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="78" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="81"/>
+    <col min="1" max="1" width="25" style="45" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="46"/>
+    <col min="11" max="11" width="11.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="46" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="46" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="46" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="46" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="46" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="46" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="46" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="46" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="46" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="46" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="46" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="46" customWidth="1"/>
+    <col min="27" max="27" width="6.21875" style="46" customWidth="1"/>
+    <col min="28" max="28" width="6" style="46" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="46" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="46" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="46" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="46" customWidth="1"/>
+    <col min="33" max="33" width="10" style="46" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="46" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="46" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="46" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="46" customWidth="1"/>
+    <col min="38" max="38" width="14.21875" style="46" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="46" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="72" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="71"/>
-    </row>
-    <row r="2" spans="1:39" s="72" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="59"/>
+    </row>
+    <row r="2" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="76" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="76" t="s">
+      <c r="T2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="76" t="s">
+      <c r="V2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="76" t="s">
+      <c r="AA2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="76" t="s">
+      <c r="AB2" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="76" t="s">
+      <c r="AE2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="76" t="s">
+      <c r="AF2" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="76" t="s">
+      <c r="AH2" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="AI2" s="76" t="s">
+      <c r="AI2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="AK2" s="76" t="s">
+      <c r="AK2" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AL2" s="76" t="s">
+      <c r="AL2" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="76" t="s">
+      <c r="AM2" s="44" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="46">
         <v>7</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="46">
         <v>12</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="X3" s="80"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="X3" s="48"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="46">
         <v>10</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="X4" s="80"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="X4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="46">
         <v>7</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="46">
         <v>12</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="X5" s="80"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="X5" s="48"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="46">
         <v>7</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="46">
         <v>15</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="X6" s="80"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="X6" s="48"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="46">
         <v>3</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="46">
         <v>5</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="X7" s="80"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="X7" s="48"/>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="46">
         <v>4</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="46">
         <v>9</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="80"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="46">
         <v>7</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="46">
         <v>3</v>
       </c>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="46">
         <v>7</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="46">
         <v>10</v>
       </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="46">
         <v>4</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="46">
         <v>3</v>
       </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="46">
         <v>5</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="46">
         <v>4</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="82" t="s">
+      <c r="O12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="82" t="s">
+      <c r="R12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="82" t="s">
+      <c r="W12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="82" t="s">
+      <c r="X12" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="46">
         <v>4</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="46">
         <v>4</v>
       </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="46">
         <v>3</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="46">
         <v>4</v>
       </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+    </row>
+    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="46">
+        <v>4</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46">
+        <v>4</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H16" s="46">
         <v>5</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="78" t="s">
+      <c r="K16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L16" s="46">
         <v>4</v>
       </c>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="C17" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="46">
+        <v>3</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="46">
+        <v>5</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+    </row>
+    <row r="18" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="46">
+        <v>5</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="46">
+        <v>4</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="46">
+        <v>4</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="46">
+        <v>4</v>
+      </c>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="46">
+        <v>9</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="46">
+        <v>15</v>
+      </c>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="46">
+        <v>6</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="46">
+        <v>12</v>
+      </c>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="46">
+        <v>7</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="46">
+        <v>15</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="L23" s="46">
+        <v>21</v>
+      </c>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="46">
+        <v>4</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="46">
+        <v>6</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="46">
+        <v>3</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="46">
+        <v>5</v>
+      </c>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="46">
+        <v>4</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="46">
+        <v>4</v>
+      </c>
+      <c r="S26" s="48"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="46">
+        <v>1</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="46">
+        <v>3</v>
+      </c>
+      <c r="S27" s="48"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="46">
+        <v>6</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="46">
+        <v>2</v>
+      </c>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="46">
+        <v>5</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="46">
+        <v>2</v>
+      </c>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="46">
+        <v>3</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="46">
+        <v>3</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="46">
+        <v>2</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="46">
+        <v>3</v>
+      </c>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+    </row>
+    <row r="32" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="46">
+        <v>1</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="46">
+        <v>3</v>
+      </c>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="46">
+        <v>10</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="46">
+        <v>14</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="46">
+        <v>5</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="46">
+        <v>7</v>
+      </c>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="46">
+        <v>4</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="46">
+        <v>7</v>
+      </c>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="46">
+        <v>4</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="46">
+        <v>3</v>
+      </c>
+      <c r="O36" s="48"/>
+    </row>
+    <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="46">
+        <v>3</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="46">
+        <v>2</v>
+      </c>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="46">
+        <v>10</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="46">
+        <v>15</v>
+      </c>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="46">
+        <v>7</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="46">
+        <v>8</v>
+      </c>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="B40" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="46">
+        <v>8</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="46">
+        <v>12</v>
+      </c>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="46">
+        <v>8</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="46">
+        <v>10</v>
+      </c>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+    </row>
+    <row r="42" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="46">
+        <v>8</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="46">
+        <v>10</v>
+      </c>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="46">
+        <v>7</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="46">
+        <v>9</v>
+      </c>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+    </row>
+    <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="46">
+        <v>6</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="46">
+        <v>8</v>
+      </c>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+    </row>
+    <row r="45" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="46">
+        <v>4</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="46">
+        <v>6</v>
+      </c>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="X45" s="48"/>
+    </row>
+    <row r="46" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="46">
+        <v>4</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" s="46">
+        <v>15</v>
+      </c>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="X46" s="48"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="46">
+        <v>1</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="46">
+        <v>6</v>
+      </c>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="X47" s="48"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="46">
+        <v>3</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="46">
+        <v>6</v>
+      </c>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="X48" s="48"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="46">
+        <v>6</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+    </row>
+    <row r="50" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="46">
+        <v>5</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="46">
+        <v>5</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="46">
+        <v>5</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="46">
+        <v>4</v>
+      </c>
+      <c r="M52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+    </row>
+    <row r="53" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D53" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E53" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H53" s="46">
+        <v>4</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="46">
+        <v>4</v>
+      </c>
+      <c r="M53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="46">
         <v>3</v>
       </c>
-      <c r="I16" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="78" t="s">
+      <c r="I54" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="78">
+      <c r="K54" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="46">
+        <v>3</v>
+      </c>
+      <c r="M54" s="48"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="46">
+        <v>2</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="46">
+        <v>0</v>
+      </c>
+      <c r="M55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+    </row>
+    <row r="56" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="46">
+        <v>0</v>
+      </c>
+      <c r="M56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="46">
+        <v>2</v>
+      </c>
+      <c r="I57" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L57" s="46">
+        <v>1</v>
+      </c>
+      <c r="M57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="46">
+        <v>2</v>
+      </c>
+      <c r="I58" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L58" s="46">
+        <v>0</v>
+      </c>
+      <c r="M58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="48"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="48"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="46">
+        <v>1</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="46">
+        <v>1</v>
+      </c>
+      <c r="M59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="V59" s="48"/>
+      <c r="W59" s="48"/>
+      <c r="X59" s="48"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="46">
+        <v>2</v>
+      </c>
+      <c r="I60" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" s="46">
+        <v>1</v>
+      </c>
+      <c r="M60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="V60" s="48"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="48"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="46">
+        <v>1</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="46">
+        <v>1</v>
+      </c>
+      <c r="M61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="48"/>
+      <c r="X61" s="48"/>
+    </row>
+    <row r="62" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="46">
+        <v>2</v>
+      </c>
+      <c r="I62" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="46">
+        <v>1</v>
+      </c>
+      <c r="M62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="48"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="46">
+        <v>1</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="48"/>
+      <c r="X63" s="48"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="46">
+        <v>7</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="46">
+        <v>7</v>
+      </c>
+      <c r="M64" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="48"/>
+      <c r="W64" s="48"/>
+      <c r="X64" s="48"/>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="46">
+        <v>7</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="46">
+        <v>7</v>
+      </c>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="48"/>
+      <c r="W65" s="48"/>
+      <c r="X65" s="48"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A66" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="46">
+        <v>4</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" s="46">
+        <v>4</v>
+      </c>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="48"/>
+      <c r="W66" s="48"/>
+      <c r="X66" s="48"/>
+      <c r="Y66" s="48"/>
+      <c r="Z66" s="48"/>
+    </row>
+    <row r="67" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="46">
         <v>5</v>
       </c>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-    </row>
-    <row r="17" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
-        <v>416</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="79" t="s">
+      <c r="I67" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="46">
+        <v>5</v>
+      </c>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A68" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="46">
+        <v>6</v>
+      </c>
+      <c r="I68" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="46">
+        <v>10</v>
+      </c>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+    </row>
+    <row r="69" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="46">
+        <v>7</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="46">
+        <v>7</v>
+      </c>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="48"/>
+    </row>
+    <row r="70" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="46">
+        <v>7</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="46">
+        <v>7</v>
+      </c>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+    </row>
+    <row r="71" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="46">
+        <v>6</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="46">
+        <v>7</v>
+      </c>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="48"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="48"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="48"/>
+      <c r="X71" s="48"/>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A72" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="46">
+        <v>7</v>
+      </c>
+      <c r="I72" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="46">
+        <v>8</v>
+      </c>
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="48"/>
+      <c r="U72" s="48"/>
+      <c r="X72" s="48"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="46">
+        <v>6</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="46">
+        <v>8</v>
+      </c>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="X73" s="48"/>
+    </row>
+    <row r="74" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="46">
+        <v>5</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="46">
+        <v>7</v>
+      </c>
+      <c r="N74" s="48"/>
+      <c r="O74" s="48"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="48"/>
+      <c r="U74" s="48"/>
+      <c r="X74" s="48"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="46">
+        <v>7</v>
+      </c>
+      <c r="I75" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" s="46">
+        <v>8</v>
+      </c>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="X75" s="48"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="46">
+        <v>8</v>
+      </c>
+      <c r="I76" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="46">
+        <v>5</v>
+      </c>
+      <c r="M76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+      <c r="V76" s="48"/>
+      <c r="W76" s="48"/>
+      <c r="X76" s="48"/>
+    </row>
+    <row r="77" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="46">
+        <v>5</v>
+      </c>
+      <c r="I77" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="46">
+        <v>2</v>
+      </c>
+      <c r="M77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="48"/>
+      <c r="V77" s="48"/>
+      <c r="W77" s="48"/>
+      <c r="X77" s="48"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L78" s="46">
+        <v>0</v>
+      </c>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+      <c r="AA78" s="48"/>
+      <c r="AB78" s="48"/>
+      <c r="AC78" s="48"/>
+      <c r="AD78" s="48"/>
+      <c r="AE78" s="48"/>
+      <c r="AF78" s="48"/>
+      <c r="AG78" s="48"/>
+    </row>
+    <row r="79" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L79" s="46">
+        <v>0</v>
+      </c>
+      <c r="S79" s="51"/>
+      <c r="T79" s="51"/>
+      <c r="AA79" s="52"/>
+      <c r="AB79" s="52"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A80" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L80" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L81" s="46">
+        <v>0</v>
+      </c>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L82" s="46">
+        <v>0</v>
+      </c>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
+      <c r="AA82" s="51"/>
+      <c r="AB82" s="51"/>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+      <c r="AF82" s="51"/>
+      <c r="AG82" s="51"/>
+    </row>
+    <row r="83" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="45" t="s">
         <v>418</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="C83" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L83" s="46">
+        <v>0</v>
+      </c>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="51"/>
+      <c r="AG83" s="51"/>
+    </row>
+    <row r="84" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L84" s="46">
+        <v>0</v>
+      </c>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="AA84" s="51"/>
+      <c r="AB84" s="51"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L85" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A86" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D86" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="78">
-        <v>5</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="78">
-        <v>4</v>
-      </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="78">
-        <v>4</v>
-      </c>
-      <c r="I18" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="78">
-        <v>4</v>
-      </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="78">
-        <v>9</v>
-      </c>
-      <c r="I19" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="78">
-        <v>15</v>
-      </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="78">
-        <v>6</v>
-      </c>
-      <c r="I20" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="78">
-        <v>12</v>
-      </c>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
-        <v>409</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="78">
-        <v>7</v>
-      </c>
-      <c r="I21" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="78">
-        <v>15</v>
-      </c>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="78">
-        <v>21</v>
-      </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="78">
-        <v>4</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="78">
-        <v>6</v>
-      </c>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="78">
-        <v>3</v>
-      </c>
-      <c r="I24" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="78">
-        <v>5</v>
-      </c>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="78">
-        <v>4</v>
-      </c>
-      <c r="I25" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="78">
-        <v>4</v>
-      </c>
-      <c r="S25" s="80"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="78">
-        <v>1</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="78">
-        <v>3</v>
-      </c>
-      <c r="S26" s="80"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="78">
-        <v>6</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="78">
-        <v>2</v>
-      </c>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="78">
-        <v>5</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="78">
-        <v>2</v>
-      </c>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="78">
-        <v>3</v>
-      </c>
-      <c r="I29" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="78">
-        <v>3</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="78">
-        <v>2</v>
-      </c>
-      <c r="I30" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="78">
-        <v>3</v>
-      </c>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-    </row>
-    <row r="31" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="78">
-        <v>1</v>
-      </c>
-      <c r="I31" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="78">
-        <v>3</v>
-      </c>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="78" t="s">
+      <c r="F86" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="78">
-        <v>10</v>
-      </c>
-      <c r="I32" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="78">
-        <v>14</v>
-      </c>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="80"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="78">
-        <v>5</v>
-      </c>
-      <c r="I33" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="78">
-        <v>7</v>
-      </c>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="80"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="78">
-        <v>4</v>
-      </c>
-      <c r="I34" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="78">
-        <v>7</v>
-      </c>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="78">
-        <v>4</v>
-      </c>
-      <c r="I35" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="78">
-        <v>3</v>
-      </c>
-      <c r="O35" s="80"/>
-    </row>
-    <row r="36" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="78">
-        <v>3</v>
-      </c>
-      <c r="I36" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="78">
-        <v>2</v>
-      </c>
-      <c r="O36" s="82"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="78">
-        <v>10</v>
-      </c>
-      <c r="I37" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="78">
-        <v>15</v>
-      </c>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="78">
-        <v>7</v>
-      </c>
-      <c r="I38" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="78">
-        <v>8</v>
-      </c>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="78">
-        <v>8</v>
-      </c>
-      <c r="I39" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="78">
-        <v>12</v>
-      </c>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="80"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="78">
-        <v>8</v>
-      </c>
-      <c r="I40" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="78">
-        <v>10</v>
-      </c>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-    </row>
-    <row r="41" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="78">
-        <v>8</v>
-      </c>
-      <c r="I41" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="78">
-        <v>10</v>
-      </c>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="78">
-        <v>7</v>
-      </c>
-      <c r="I42" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="78">
-        <v>9</v>
-      </c>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-    </row>
-    <row r="43" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="78">
-        <v>6</v>
-      </c>
-      <c r="I43" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="78">
-        <v>8</v>
-      </c>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
-      <c r="W43" s="80"/>
-      <c r="X43" s="80"/>
-    </row>
-    <row r="44" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="78">
-        <v>4</v>
-      </c>
-      <c r="I44" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="78">
-        <v>6</v>
-      </c>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="X44" s="80"/>
-    </row>
-    <row r="45" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="C45" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="78">
-        <v>4</v>
-      </c>
-      <c r="I45" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="L45" s="78">
-        <v>15</v>
-      </c>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="X45" s="80"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="78">
-        <v>1</v>
-      </c>
-      <c r="I46" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="78">
-        <v>6</v>
-      </c>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="X46" s="80"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C47" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="78">
-        <v>3</v>
-      </c>
-      <c r="I47" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="78">
-        <v>6</v>
-      </c>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="X47" s="80"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" s="78">
-        <v>6</v>
-      </c>
-      <c r="I48" s="78" t="s">
+      <c r="G86" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="78">
+      <c r="L86" s="46">
         <v>0</v>
       </c>
-      <c r="Y48" s="80"/>
-      <c r="Z48" s="80"/>
-    </row>
-    <row r="49" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="78">
-        <v>5</v>
-      </c>
-      <c r="I49" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="J49" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L49" s="78">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="78">
-        <v>5</v>
-      </c>
-      <c r="I50" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L50" s="78">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="78">
-        <v>5</v>
-      </c>
-      <c r="I51" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" s="78">
-        <v>4</v>
-      </c>
-      <c r="M51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-    </row>
-    <row r="52" spans="1:26" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="78">
-        <v>4</v>
-      </c>
-      <c r="I52" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="L52" s="78">
-        <v>4</v>
-      </c>
-      <c r="M52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
-        <v>406</v>
-      </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="78">
-        <v>3</v>
-      </c>
-      <c r="I53" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="78">
-        <v>3</v>
-      </c>
-      <c r="M53" s="80"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="78">
-        <v>2</v>
-      </c>
-      <c r="I54" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="78">
-        <v>0</v>
-      </c>
-      <c r="M54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
-    </row>
-    <row r="55" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="77" t="s">
-        <v>327</v>
-      </c>
-      <c r="B55" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="I55" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="78">
-        <v>0</v>
-      </c>
-      <c r="M55" s="80"/>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="78">
-        <v>2</v>
-      </c>
-      <c r="I56" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L56" s="78">
-        <v>1</v>
-      </c>
-      <c r="M56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="78">
-        <v>2</v>
-      </c>
-      <c r="I57" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L57" s="78">
-        <v>0</v>
-      </c>
-      <c r="M57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="78">
-        <v>1</v>
-      </c>
-      <c r="I58" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L58" s="78">
-        <v>1</v>
-      </c>
-      <c r="M58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="78">
-        <v>2</v>
-      </c>
-      <c r="I59" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L59" s="78">
-        <v>1</v>
-      </c>
-      <c r="M59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="78">
-        <v>1</v>
-      </c>
-      <c r="I60" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" s="78">
-        <v>1</v>
-      </c>
-      <c r="M60" s="80"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-    </row>
-    <row r="61" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B61" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="C61" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="78">
-        <v>2</v>
-      </c>
-      <c r="I61" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" s="78">
-        <v>1</v>
-      </c>
-      <c r="M61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="80"/>
-      <c r="V61" s="80"/>
-      <c r="W61" s="80"/>
-      <c r="X61" s="80"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="C62" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="78">
-        <v>1</v>
-      </c>
-      <c r="I62" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="M62" s="80"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="78">
-        <v>7</v>
-      </c>
-      <c r="I63" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="78">
-        <v>7</v>
-      </c>
-      <c r="M63" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="O63" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="80"/>
-      <c r="V63" s="80"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="C64" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="78">
-        <v>7</v>
-      </c>
-      <c r="I64" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="78">
-        <v>7</v>
-      </c>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="80"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H65" s="78">
-        <v>4</v>
-      </c>
-      <c r="I65" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="L65" s="78">
-        <v>4</v>
-      </c>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="80"/>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="80"/>
-      <c r="V65" s="80"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="80"/>
-      <c r="Z65" s="80"/>
-    </row>
-    <row r="66" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="77" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="78">
-        <v>5</v>
-      </c>
-      <c r="I66" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="78">
-        <v>5</v>
-      </c>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="80"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A67" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="78">
-        <v>6</v>
-      </c>
-      <c r="I67" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="78">
-        <v>10</v>
-      </c>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="AK67" s="80"/>
-      <c r="AL67" s="80"/>
-      <c r="AM67" s="80"/>
-    </row>
-    <row r="68" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="C68" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="78">
-        <v>7</v>
-      </c>
-      <c r="I68" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" s="78">
-        <v>7</v>
-      </c>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="80"/>
-      <c r="R68" s="80"/>
-      <c r="S68" s="80"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="80"/>
-      <c r="W68" s="80"/>
-      <c r="X68" s="80"/>
-      <c r="AK68" s="80"/>
-      <c r="AL68" s="80"/>
-      <c r="AM68" s="80"/>
-    </row>
-    <row r="69" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C69" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E69" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="78">
-        <v>6</v>
-      </c>
-      <c r="I69" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L69" s="78">
-        <v>7</v>
-      </c>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="R69" s="80"/>
-      <c r="S69" s="80"/>
-      <c r="T69" s="80"/>
-      <c r="U69" s="80"/>
-      <c r="V69" s="80"/>
-      <c r="W69" s="80"/>
-      <c r="X69" s="80"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="78">
-        <v>7</v>
-      </c>
-      <c r="I70" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="78">
-        <v>8</v>
-      </c>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
-      <c r="S70" s="80"/>
-      <c r="T70" s="80"/>
-      <c r="U70" s="80"/>
-      <c r="X70" s="80"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="C71" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D71" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="78">
-        <v>6</v>
-      </c>
-      <c r="I71" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L71" s="78">
-        <v>8</v>
-      </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="S71" s="80"/>
-      <c r="T71" s="80"/>
-      <c r="U71" s="80"/>
-      <c r="X71" s="80"/>
-    </row>
-    <row r="72" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="78">
-        <v>5</v>
-      </c>
-      <c r="I72" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="J72" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="78">
-        <v>7</v>
-      </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="S72" s="80"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="X72" s="80"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="78">
-        <v>7</v>
-      </c>
-      <c r="I73" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="J73" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" s="78">
-        <v>8</v>
-      </c>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80"/>
-      <c r="U73" s="80"/>
-      <c r="X73" s="80"/>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A74" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="78">
-        <v>8</v>
-      </c>
-      <c r="I74" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" s="78">
-        <v>5</v>
-      </c>
-      <c r="M74" s="80"/>
-      <c r="O74" s="80"/>
-      <c r="R74" s="80"/>
-      <c r="S74" s="80"/>
-      <c r="T74" s="80"/>
-      <c r="V74" s="80"/>
-      <c r="W74" s="80"/>
-      <c r="X74" s="80"/>
-    </row>
-    <row r="75" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="78">
-        <v>5</v>
-      </c>
-      <c r="I75" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="J75" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K75" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" s="78">
-        <v>2</v>
-      </c>
-      <c r="M75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="80"/>
-      <c r="V75" s="80"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A76" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G76" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="L76" s="78">
-        <v>0</v>
-      </c>
-      <c r="S76" s="80"/>
-      <c r="T76" s="80"/>
-      <c r="AA76" s="80"/>
-      <c r="AB76" s="80"/>
-      <c r="AC76" s="80"/>
-      <c r="AD76" s="80"/>
-      <c r="AE76" s="80"/>
-      <c r="AF76" s="80"/>
-      <c r="AG76" s="80"/>
-    </row>
-    <row r="77" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="L77" s="78">
-        <v>0</v>
-      </c>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="AA77" s="84"/>
-      <c r="AB77" s="84"/>
-      <c r="AC77" s="83"/>
-      <c r="AD77" s="83"/>
-      <c r="AE77" s="83"/>
-      <c r="AF77" s="83"/>
-      <c r="AG77" s="83"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="L78" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="L79" s="78">
-        <v>0</v>
-      </c>
-      <c r="S79" s="83"/>
-      <c r="T79" s="83"/>
-      <c r="AA79" s="83"/>
-      <c r="AB79" s="83"/>
-      <c r="AC79" s="83"/>
-      <c r="AD79" s="83"/>
-      <c r="AE79" s="83"/>
-      <c r="AF79" s="83"/>
-      <c r="AG79" s="83"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A80" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="L80" s="78">
-        <v>0</v>
-      </c>
-      <c r="S80" s="83"/>
-      <c r="T80" s="83"/>
-      <c r="AA80" s="83"/>
-      <c r="AB80" s="83"/>
-      <c r="AC80" s="83"/>
-      <c r="AD80" s="83"/>
-      <c r="AE80" s="83"/>
-      <c r="AF80" s="83"/>
-      <c r="AG80" s="83"/>
-    </row>
-    <row r="81" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>420</v>
-      </c>
-      <c r="D81" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="L81" s="78">
-        <v>0</v>
-      </c>
-      <c r="S81" s="83"/>
-      <c r="T81" s="83"/>
-      <c r="AA81" s="83"/>
-      <c r="AB81" s="83"/>
-      <c r="AC81" s="83"/>
-      <c r="AD81" s="83"/>
-      <c r="AE81" s="83"/>
-      <c r="AF81" s="83"/>
-      <c r="AG81" s="83"/>
-    </row>
-    <row r="82" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="C82" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="F82" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="L82" s="78">
-        <v>0</v>
-      </c>
-      <c r="S82" s="83"/>
-      <c r="T82" s="83"/>
-      <c r="AA82" s="83"/>
-      <c r="AB82" s="83"/>
-      <c r="AC82" s="83"/>
-      <c r="AD82" s="83"/>
-      <c r="AE82" s="83"/>
-      <c r="AF82" s="83"/>
-      <c r="AG82" s="83"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A83" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="L83" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A84" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="D84" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G84" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="L84" s="78">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L83" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L85" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM83">
-    <sortCondition ref="I3:I83"/>
+  <sortState ref="A3:AM85">
+    <sortCondition ref="I3:I85"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
@@ -5267,7 +5362,7 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5308,54 +5403,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="47"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -5482,10 +5577,10 @@
         <v>260</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="25" t="s">
         <v>380</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -5577,85 +5672,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="73"/>
+    </row>
+    <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="52"/>
-    </row>
-    <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5767,7 +5862,7 @@
         <v>281</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>282</v>
@@ -5783,7 +5878,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>131</v>
@@ -5799,7 +5894,7 @@
         <v>343</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>131</v>
@@ -5815,7 +5910,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>123</v>
@@ -5858,7 +5953,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>256</v>
@@ -5885,7 +5980,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -5936,7 +6031,7 @@
         <v>124</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
@@ -5985,7 +6080,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="33" t="s">
@@ -6034,7 +6129,7 @@
         <v>128</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>129</v>
@@ -6065,7 +6160,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>127</v>
@@ -6093,13 +6188,13 @@
     </row>
     <row r="13" spans="1:45" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>408</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>130</v>
@@ -6135,7 +6230,7 @@
         <v>135</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>131</v>
@@ -6162,7 +6257,7 @@
         <v>141</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>118</v>
@@ -6191,7 +6286,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>119</v>
@@ -6220,7 +6315,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>127</v>
@@ -6247,7 +6342,7 @@
         <v>276</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>114</v>
@@ -6278,7 +6373,7 @@
         <v>320</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>321</v>
@@ -6300,7 +6395,7 @@
         <v>371</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>372</v>
@@ -6325,7 +6420,7 @@
         <v>379</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>339</v>
@@ -6342,10 +6437,10 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="8"/>
       <c r="J22" s="12">
@@ -6354,10 +6449,10 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="8"/>
       <c r="J23" s="12">
@@ -6369,7 +6464,7 @@
         <v>258</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>259</v>
@@ -6384,7 +6479,7 @@
         <v>375</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>376</v>
@@ -6405,7 +6500,7 @@
         <v>137</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>91</v>
@@ -6428,7 +6523,7 @@
         <v>138</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>255</v>
@@ -6448,7 +6543,7 @@
         <v>139</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="14" t="s">
@@ -6475,7 +6570,7 @@
         <v>140</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="14" t="s">
@@ -6499,7 +6594,7 @@
         <v>352</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>353</v>
@@ -6514,10 +6609,10 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C31" s="8"/>
       <c r="J31" s="12">
@@ -6527,10 +6622,10 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C32" s="8"/>
       <c r="J32" s="12">
@@ -6540,10 +6635,10 @@
     </row>
     <row r="33" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="8"/>
       <c r="J33" s="12">
@@ -6553,10 +6648,10 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C34" s="8"/>
       <c r="J34" s="12">
@@ -6566,10 +6661,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C35" s="8"/>
       <c r="J35" s="12">
@@ -6662,7 +6757,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -6681,32 +6776,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7294,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" s="41">
         <v>0</v>
@@ -7207,7 +7302,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="41">
         <v>0</v>
@@ -7215,7 +7310,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" s="41">
         <v>0</v>
@@ -7230,9 +7325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7FC3C4-41AF-44DD-A4A7-B5C07256D2A2}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7266,7 +7361,7 @@
       <c r="E1" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="53" t="s">
         <v>223</v>
       </c>
       <c r="G1" s="34" t="s">
@@ -7278,7 +7373,7 @@
       <c r="I1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="53" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7311,7 +7406,7 @@
         <v>312</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7343,7 +7438,7 @@
         <v>316</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7375,7 +7470,7 @@
         <v>316</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7407,12 +7502,12 @@
         <v>310</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>308</v>
@@ -7439,18 +7534,18 @@
         <v>316</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D7" s="36">
         <v>1</v>
@@ -7459,7 +7554,7 @@
         <v>313</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G7" s="36">
         <v>1</v>
@@ -7471,18 +7566,18 @@
         <v>316</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D8" s="36">
         <v>1</v>
@@ -7491,19 +7586,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G8" s="36">
         <v>1</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>316</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$90</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="474">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1438,6 +1438,123 @@
   </si>
   <si>
     <t>25% szans, że cel znajdzie się pod wpływem zamętu przez 1 rundę, po trafieniu</t>
+  </si>
+  <si>
+    <t>Skrząca szarfa</t>
+  </si>
+  <si>
+    <t>Rozmycie: +3 do Klasy Pancerza i +1 do rzutów obronnych</t>
+  </si>
+  <si>
+    <t>Chaotyczny neutralny</t>
+  </si>
+  <si>
+    <t>Neutralny</t>
+  </si>
+  <si>
+    <t>Praworządny neutralny</t>
+  </si>
+  <si>
+    <t>Pierścień porażającego uścisku Jaspera</t>
+  </si>
+  <si>
+    <t>Właściwości ładunków: porażający uścisk, cztery razy dziennie. Obrażenia: 1k8 +2 pd elektryczności. Zasięg: dotyk. Obszar działannia: 1 istota</t>
+  </si>
+  <si>
+    <t>Kaptur łotrzyka</t>
+  </si>
+  <si>
+    <t>Ciche chodzenie: +10%, krycie się w cieniu: +10%. Właściwości ładunków. Ociemniałość, raz dziennie (rzut obronny przeciwko czarom neguje). Zasięg: pole widzenia użytkownika. Czas działania: 8 godzin. Obszar działania: 1 istota. Migoczące barwy, raz dziennie (rzut obronny przeciwko czarom neguje, jeśli istota posiada 6 lub więcej KW). Istoty o 10 lub mniej KW: utrata przytomności na 5 rund. Istoty o 11-12 KW: ślepota przez 3 rundy. Istoty o 13 lub więcej KW: ogłuszenie przez 1 rundę. Zasięg: 4 metry. Obszar działania: 90 st. stożek o promieniu 9 metrów.</t>
+  </si>
+  <si>
+    <t>Pierścień spuścizny Eidana</t>
+  </si>
+  <si>
+    <t>Talia do Świętego Chaosu!</t>
+  </si>
+  <si>
+    <t>Rzuca losowo wybrane, pozytywne zaklęcie dotyczące użytkownika kart.</t>
+  </si>
+  <si>
+    <t>Strzałki szału bojowego</t>
+  </si>
+  <si>
+    <t>10% szans, że użytkownik wpadnie w trwający 8 sekund szał bojowy, po trafieniu</t>
+  </si>
+  <si>
+    <t>Cep bojowy +2: Młot</t>
+  </si>
+  <si>
+    <t>15% szans na ogłuszenie celu na 4 rundy, po trafieniu</t>
+  </si>
+  <si>
+    <t>Szata nekromanty</t>
+  </si>
+  <si>
+    <t>Odporność na magię: +3%, rzuty obornne: +3 przeciw śmierci</t>
+  </si>
+  <si>
+    <t>Mikstura wchłaniania</t>
+  </si>
+  <si>
+    <t>Klasa Pancerza: +10 przeciw broniom obuchowym, odporność na elektryczność: 100%</t>
+  </si>
+  <si>
+    <t>Bełt milczenia +1</t>
+  </si>
+  <si>
+    <t>Cel zostaje uciszony, po trafieniu (rzu obronny przeciwko czarom neguje)</t>
+  </si>
+  <si>
+    <t>Akwamaryn</t>
+  </si>
+  <si>
+    <t>Srebrny pierścień</t>
+  </si>
+  <si>
+    <t>Intensywnie czerwony kamień ioun</t>
+  </si>
+  <si>
+    <t>Zręczność: +1</t>
+  </si>
+  <si>
+    <t>Sztylet Presio +2</t>
+  </si>
+  <si>
+    <t>1k4+2, +2 +1 obrażenie od trucizny na sekundę przez 8 sekund (rzut obronny przeciw truciznom neguje)</t>
+  </si>
+  <si>
+    <t>Mikstura percepcji</t>
+  </si>
+  <si>
+    <t>Znajdowanie pułapek: +20%, kradzież kieszonkowa: +20%, otwieranie zamków: +20%, krycie się w cieniu: +20%</t>
+  </si>
+  <si>
+    <t>Bransolety ochrony KP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mikstura siły wzgórzowego olbrzyma</t>
+  </si>
+  <si>
+    <t>Siła: 19 (siła wzgórzowego olbrzyma)</t>
+  </si>
+  <si>
+    <t>Olejek wężowych łusek</t>
+  </si>
+  <si>
+    <t>cel otrzymuje premię +2 do klasy pancerza (nie kumuluje się). Rozsmarowanie trwa pełną rundę.</t>
+  </si>
+  <si>
+    <t>6 rund</t>
+  </si>
+  <si>
+    <t>Sztylet maga +2</t>
+  </si>
+  <si>
+    <t>Klasa pancerza: +1, pozwala rzucić po jednym dodatkowym zaklęciu 1. i 2. poziomu</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1746,6 +1863,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1821,15 +1947,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1842,6 +1959,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2156,19 +2284,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="45" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="45" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="47" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="46" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" style="46" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" style="46" customWidth="1"/>
@@ -2208,87 +2336,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="59"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="62"/>
     </row>
     <row r="2" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
       <c r="M2" s="44" t="s">
         <v>30</v>
       </c>
@@ -2373,10 +2501,10 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>18</v>
@@ -2391,10 +2519,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L3" s="46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
@@ -2403,33 +2531,36 @@
       <c r="U3" s="48"/>
       <c r="X3" s="48"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="46" t="s">
+    <row r="4" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="46">
-        <v>6</v>
-      </c>
-      <c r="I4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="20" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="48"/>
@@ -2438,21 +2569,24 @@
       <c r="U4" s="48"/>
       <c r="X4" s="48"/>
     </row>
-    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>344</v>
+        <v>197</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="46" t="s">
         <v>51</v>
@@ -2464,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
@@ -2472,19 +2606,25 @@
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
       <c r="X5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>45</v>
+        <v>173</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>51</v>
@@ -2496,7 +2636,7 @@
         <v>64</v>
       </c>
       <c r="L6" s="46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
@@ -2507,19 +2647,16 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>51</v>
@@ -2528,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L7" s="46">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
@@ -2540,24 +2677,21 @@
       <c r="U7" s="48"/>
       <c r="X7" s="48"/>
     </row>
-    <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="46" t="s">
         <v>51</v>
@@ -2569,7 +2703,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" s="48"/>
       <c r="O8" s="48"/>
@@ -2577,56 +2711,54 @@
       <c r="T8" s="48"/>
       <c r="U8" s="48"/>
       <c r="X8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:39" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>90</v>
+        <v>344</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>91</v>
       </c>
+      <c r="E9" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="46">
         <v>7</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="L9" s="46">
-        <v>3</v>
-      </c>
-      <c r="M9" s="48"/>
+        <v>12</v>
+      </c>
       <c r="N9" s="48"/>
       <c r="O9" s="48"/>
-      <c r="R9" s="48"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
       <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
+      <c r="X9" s="48"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="H10" s="46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>92</v>
@@ -2635,10 +2767,10 @@
         <v>49</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L10" s="46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
@@ -2654,16 +2786,13 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="H11" s="46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>92</v>
@@ -2691,66 +2820,47 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="H12" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="L12" s="46">
-        <v>4</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="W12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="50" t="s">
-        <v>29</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>167</v>
@@ -2759,7 +2869,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="46" t="s">
         <v>27</v>
@@ -2785,19 +2895,16 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="46" t="s">
         <v>27</v>
@@ -2811,42 +2918,57 @@
       <c r="L14" s="46">
         <v>4</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-    </row>
-    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="M14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="46">
         <v>4</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="46">
@@ -2900,36 +3022,36 @@
       <c r="W16" s="48"/>
       <c r="X16" s="48"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="47" t="s">
+    <row r="17" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="46">
-        <v>3</v>
-      </c>
-      <c r="I17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="L17" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
@@ -2941,24 +3063,24 @@
       <c r="W17" s="48"/>
       <c r="X17" s="48"/>
     </row>
-    <row r="18" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>415</v>
+        <v>205</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="46" t="s">
         <v>27</v>
@@ -2982,21 +3104,24 @@
       <c r="W18" s="48"/>
       <c r="X18" s="48"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>277</v>
+        <v>415</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>416</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="46" t="s">
         <v>27</v>
@@ -3022,35 +3147,40 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>74</v>
+        <v>385</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>386</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>55</v>
+        <v>161</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H20" s="46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="L20" s="46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
       <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
       <c r="U20" s="48"/>
       <c r="V20" s="48"/>
       <c r="W20" s="48"/>
@@ -3058,19 +3188,16 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I21" s="46" t="s">
         <v>75</v>
@@ -3082,7 +3209,7 @@
         <v>64</v>
       </c>
       <c r="L21" s="46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
@@ -3097,19 +3224,19 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="46" t="s">
         <v>75</v>
@@ -3121,7 +3248,7 @@
         <v>64</v>
       </c>
       <c r="L22" s="46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M22" s="48"/>
       <c r="N22" s="48"/>
@@ -3136,20 +3263,20 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>11</v>
       </c>
+      <c r="H23" s="46">
+        <v>7</v>
+      </c>
       <c r="I23" s="46" t="s">
         <v>75</v>
       </c>
@@ -3157,10 +3284,10 @@
         <v>49</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="L23" s="46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
@@ -3175,34 +3302,38 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>61</v>
+        <v>322</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>323</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>55</v>
+        <v>324</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="46">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="L24" s="46">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
       <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
       <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
       <c r="U24" s="48"/>
       <c r="V24" s="48"/>
       <c r="W24" s="48"/>
@@ -3210,19 +3341,16 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="46" t="s">
         <v>62</v>
@@ -3234,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" s="48"/>
       <c r="N25" s="48"/>
@@ -3248,46 +3376,54 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>10</v>
+        <v>349</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H26" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L26" s="46">
-        <v>4</v>
-      </c>
-      <c r="S26" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="46" t="s">
         <v>73</v>
@@ -3299,52 +3435,46 @@
         <v>14</v>
       </c>
       <c r="L27" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" s="48"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
-        <v>95</v>
+        <v>184</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="H28" s="46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L28" s="46">
-        <v>2</v>
-      </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="S28" s="48"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H29" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>96</v>
@@ -3363,7 +3493,6 @@
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
       <c r="U29" s="48"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
@@ -3372,56 +3501,53 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="H30" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" s="46" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L30" s="46">
-        <v>3</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M30" s="48"/>
       <c r="N30" s="48"/>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
       <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
       <c r="U30" s="48"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="46" t="s">
         <v>12</v>
@@ -3435,7 +3561,9 @@
       <c r="L31" s="46">
         <v>3</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="N31" s="48"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
@@ -3445,24 +3573,21 @@
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
     </row>
-    <row r="32" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="46" t="s">
         <v>12</v>
@@ -3486,55 +3611,62 @@
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>68</v>
+        <v>168</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="H33" s="46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K33" s="46" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="L33" s="46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
       <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
+      <c r="X33" s="48"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="D34" s="47" t="s">
         <v>85</v>
       </c>
+      <c r="F34" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="H34" s="46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34" s="46" t="s">
         <v>89</v>
@@ -3543,10 +3675,10 @@
         <v>49</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L34" s="46">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M34" s="48"/>
       <c r="N34" s="48"/>
@@ -3560,7 +3692,7 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
     </row>
-    <row r="35" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>179</v>
       </c>
@@ -3600,48 +3732,52 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="46">
+        <v>5</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="46">
+        <v>7</v>
+      </c>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C37" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E37" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H37" s="46">
         <v>4</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="46">
-        <v>3</v>
-      </c>
-      <c r="O36" s="48"/>
-    </row>
-    <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="46">
-        <v>3</v>
       </c>
       <c r="I37" s="46" t="s">
         <v>43</v>
@@ -3653,45 +3789,39 @@
         <v>14</v>
       </c>
       <c r="L37" s="46">
+        <v>3</v>
+      </c>
+      <c r="O37" s="48"/>
+    </row>
+    <row r="38" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="46">
+        <v>3</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="46">
         <v>2</v>
       </c>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="46">
-        <v>10</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="46">
-        <v>15</v>
-      </c>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
@@ -3776,28 +3906,28 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I41" s="46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K41" s="46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L41" s="46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M41" s="48"/>
       <c r="N41" s="48"/>
@@ -3810,15 +3940,12 @@
       <c r="W41" s="48"/>
       <c r="X41" s="48"/>
     </row>
-    <row r="42" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>50</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>91</v>
       </c>
       <c r="E42" s="46" t="s">
         <v>23</v>
@@ -3888,21 +4015,21 @@
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
     </row>
-    <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>196</v>
+        <v>341</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="H44" s="46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I44" s="46" t="s">
         <v>54</v>
@@ -3914,7 +4041,7 @@
         <v>52</v>
       </c>
       <c r="L44" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
@@ -3927,36 +4054,43 @@
       <c r="W44" s="48"/>
       <c r="X44" s="48"/>
     </row>
-    <row r="45" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>18</v>
+        <v>193</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="H45" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J45" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K45" s="46" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L45" s="46">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M45" s="48"/>
       <c r="N45" s="48"/>
       <c r="O45" s="48"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="48"/>
       <c r="T45" s="48"/>
       <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
       <c r="X45" s="48"/>
     </row>
     <row r="46" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3994,21 +4128,18 @@
       <c r="U46" s="48"/>
       <c r="X46" s="48"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="E47" s="46" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="46" t="s">
         <v>19</v>
@@ -4064,40 +4195,47 @@
       <c r="U48" s="48"/>
       <c r="X48" s="48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
-        <v>97</v>
+        <v>186</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="H49" s="46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49" s="46" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J49" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K49" s="46" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="L49" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-    </row>
-    <row r="50" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="X49" s="48"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="H50" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" s="46" t="s">
         <v>98</v>
@@ -4114,7 +4252,7 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>279</v>
       </c>
@@ -4145,57 +4283,46 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>23</v>
+        <v>163</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="H52" s="46">
         <v>5</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K52" s="46" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="L52" s="46">
-        <v>4</v>
-      </c>
-      <c r="M52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="X52" s="48"/>
-    </row>
-    <row r="53" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="46" t="s">
         <v>59</v>
@@ -4217,19 +4344,24 @@
       <c r="W53" s="48"/>
       <c r="X53" s="48"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="B54" s="45"/>
+        <v>174</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>175</v>
+      </c>
       <c r="C54" s="47" t="s">
-        <v>22</v>
+        <v>161</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H54" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54" s="46" t="s">
         <v>59</v>
@@ -4238,67 +4370,67 @@
         <v>13</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L54" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" s="48"/>
-      <c r="N54" s="50"/>
       <c r="O54" s="48"/>
       <c r="P54" s="48"/>
       <c r="R54" s="48"/>
-      <c r="U54" s="48"/>
       <c r="V54" s="48"/>
       <c r="W54" s="48"/>
       <c r="X54" s="48"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
-        <v>81</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B55" s="45"/>
       <c r="C55" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="H55" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>13</v>
       </c>
+      <c r="K55" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="L55" s="46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M55" s="48"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
       <c r="R55" s="48"/>
+      <c r="U55" s="48"/>
       <c r="V55" s="48"/>
       <c r="W55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-    </row>
-    <row r="56" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X55" s="48"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="F56" s="46" t="s">
         <v>68</v>
+      </c>
+      <c r="H56" s="46">
+        <v>2</v>
       </c>
       <c r="I56" s="46" t="s">
         <v>83</v>
@@ -4318,30 +4450,30 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
-        <v>76</v>
+        <v>327</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>328</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="46">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J57" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="46" t="s">
-        <v>78</v>
-      </c>
       <c r="L57" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="48"/>
       <c r="P57" s="48"/>
@@ -4349,29 +4481,33 @@
       <c r="R57" s="48"/>
       <c r="V57" s="48"/>
       <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="46" t="s">
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+    </row>
+    <row r="58" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="20" t="s">
         <v>68</v>
       </c>
       <c r="H58" s="46">
         <v>2</v>
       </c>
-      <c r="I58" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="46" t="s">
+      <c r="I58" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="K58" s="46" t="s">
-        <v>78</v>
       </c>
       <c r="L58" s="46">
         <v>0</v>
@@ -4382,19 +4518,18 @@
       <c r="R58" s="48"/>
       <c r="V58" s="48"/>
       <c r="W58" s="48"/>
-      <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>11</v>
@@ -4422,15 +4557,12 @@
       <c r="W59" s="48"/>
       <c r="X59" s="48"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>16</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>91</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>11</v>
@@ -4458,15 +4590,15 @@
       <c r="W60" s="48"/>
       <c r="X60" s="48"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>11</v>
@@ -4482,9 +4614,6 @@
       </c>
       <c r="K61" s="46" t="s">
         <v>78</v>
-      </c>
-      <c r="L61" s="46">
-        <v>1</v>
       </c>
       <c r="M61" s="48"/>
       <c r="P61" s="48"/>
@@ -4494,21 +4623,21 @@
       <c r="W61" s="48"/>
       <c r="X61" s="48"/>
     </row>
-    <row r="62" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>16</v>
       </c>
+      <c r="D62" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="E62" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="46" t="s">
         <v>77</v>
@@ -4524,27 +4653,24 @@
       </c>
       <c r="M62" s="48"/>
       <c r="P62" s="48"/>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="48"/>
       <c r="R62" s="48"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
       <c r="X62" s="48"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="H63" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="46" t="s">
         <v>77</v>
@@ -4554,6 +4680,9 @@
       </c>
       <c r="K63" s="46" t="s">
         <v>78</v>
+      </c>
+      <c r="L63" s="46">
+        <v>0</v>
       </c>
       <c r="M63" s="48"/>
       <c r="P63" s="48"/>
@@ -4562,205 +4691,195 @@
       <c r="V63" s="48"/>
       <c r="W63" s="48"/>
       <c r="X63" s="48"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>23</v>
+      <c r="Y63" s="48"/>
+      <c r="Z63" s="48"/>
+    </row>
+    <row r="64" spans="1:30" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="H64" s="46">
-        <v>7</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="46" t="s">
-        <v>25</v>
+      <c r="K64" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="L64" s="46">
-        <v>7</v>
-      </c>
-      <c r="M64" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="O64" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="R64" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="90"/>
       <c r="S64" s="48"/>
       <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="48"/>
+      <c r="V64" s="90"/>
       <c r="W64" s="48"/>
-      <c r="X64" s="48"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="47" t="s">
+      <c r="X64" s="90"/>
+      <c r="AA64" s="48"/>
+      <c r="AC64" s="48"/>
+      <c r="AD64" s="48"/>
+    </row>
+    <row r="65" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="46" t="s">
-        <v>23</v>
+      <c r="E65" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="H65" s="46">
-        <v>7</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="46" t="s">
-        <v>25</v>
+      <c r="K65" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="L65" s="46">
-        <v>7</v>
-      </c>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="50"/>
       <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
-      <c r="U65" s="48"/>
       <c r="V65" s="48"/>
       <c r="W65" s="48"/>
       <c r="X65" s="48"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AC65" s="48"/>
+    </row>
+    <row r="66" spans="1:39" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
-        <v>65</v>
+        <v>269</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>270</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="H66" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" s="46" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J66" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K66" s="46" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L66" s="46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="50"/>
       <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
       <c r="V66" s="48"/>
       <c r="W66" s="48"/>
       <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-    </row>
-    <row r="67" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H67" s="46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="46" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J67" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K67" s="46" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L67" s="46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
       <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="48"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
       <c r="X67" s="48"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I68" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K68" s="46" t="s">
         <v>25</v>
       </c>
       <c r="L68" s="46">
-        <v>10</v>
-      </c>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
       <c r="R68" s="48"/>
       <c r="S68" s="48"/>
       <c r="T68" s="48"/>
@@ -4768,25 +4887,25 @@
       <c r="V68" s="48"/>
       <c r="W68" s="48"/>
       <c r="X68" s="48"/>
-      <c r="AK68" s="48"/>
-      <c r="AL68" s="48"/>
-      <c r="AM68" s="48"/>
-    </row>
-    <row r="69" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
-        <v>340</v>
+        <v>162</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I69" s="46" t="s">
         <v>24</v>
@@ -4798,7 +4917,7 @@
         <v>25</v>
       </c>
       <c r="L69" s="46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M69" s="48"/>
       <c r="N69" s="48"/>
@@ -4810,40 +4929,37 @@
       <c r="V69" s="48"/>
       <c r="W69" s="48"/>
       <c r="X69" s="48"/>
-      <c r="AK69" s="48"/>
-      <c r="AL69" s="48"/>
-      <c r="AM69" s="48"/>
-    </row>
-    <row r="70" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="20" t="s">
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H70" s="46">
-        <v>7</v>
-      </c>
-      <c r="I70" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J70" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="20" t="s">
+      <c r="J70" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="46" t="s">
         <v>25</v>
       </c>
       <c r="L70" s="46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M70" s="48"/>
       <c r="N70" s="48"/>
@@ -4859,18 +4975,21 @@
       <c r="AL70" s="48"/>
       <c r="AM70" s="48"/>
     </row>
-    <row r="71" spans="1:39" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="E71" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="F71" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="H71" s="46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71" s="46" t="s">
         <v>24</v>
@@ -4879,10 +4998,10 @@
         <v>13</v>
       </c>
       <c r="K71" s="46" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="L71" s="46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M71" s="48"/>
       <c r="N71" s="48"/>
@@ -4894,22 +5013,24 @@
       <c r="V71" s="48"/>
       <c r="W71" s="48"/>
       <c r="X71" s="48"/>
+      <c r="Y71" s="48"/>
+      <c r="Z71" s="48"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H72" s="46">
         <v>7</v>
       </c>
       <c r="I72" s="46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J72" s="46" t="s">
         <v>13</v>
@@ -4918,33 +5039,40 @@
         <v>25</v>
       </c>
       <c r="L72" s="46">
-        <v>8</v>
-      </c>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="M72" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="48"/>
       <c r="S72" s="48"/>
       <c r="T72" s="48"/>
       <c r="U72" s="48"/>
+      <c r="V72" s="48"/>
+      <c r="W72" s="48"/>
       <c r="X72" s="48"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="45" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="E73" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H73" s="46">
         <v>6</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J73" s="46" t="s">
         <v>13</v>
@@ -4953,71 +5081,82 @@
         <v>25</v>
       </c>
       <c r="L73" s="46">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M73" s="48"/>
       <c r="N73" s="48"/>
       <c r="O73" s="48"/>
+      <c r="R73" s="48"/>
       <c r="S73" s="48"/>
       <c r="T73" s="48"/>
       <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
       <c r="X73" s="48"/>
     </row>
     <row r="74" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="45" t="s">
-        <v>191</v>
+      <c r="A74" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>18</v>
+        <v>432</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="H74" s="46">
-        <v>5</v>
-      </c>
-      <c r="I74" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J74" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="46" t="s">
+      <c r="K74" s="20" t="s">
         <v>25</v>
       </c>
       <c r="L74" s="46">
         <v>7</v>
       </c>
+      <c r="M74" s="48"/>
       <c r="N74" s="48"/>
       <c r="O74" s="48"/>
+      <c r="R74" s="48"/>
       <c r="S74" s="48"/>
       <c r="T74" s="48"/>
       <c r="U74" s="48"/>
+      <c r="V74" s="48"/>
+      <c r="W74" s="48"/>
       <c r="X74" s="48"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AK74" s="48"/>
+      <c r="AL74" s="48"/>
+      <c r="AM74" s="48"/>
+    </row>
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D75" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E75" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H75" s="46">
         <v>7</v>
       </c>
       <c r="I75" s="46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J75" s="46" t="s">
         <v>13</v>
@@ -5026,270 +5165,310 @@
         <v>25</v>
       </c>
       <c r="L75" s="46">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M75" s="48"/>
       <c r="N75" s="48"/>
       <c r="O75" s="48"/>
+      <c r="R75" s="48"/>
       <c r="S75" s="48"/>
       <c r="T75" s="48"/>
       <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="48"/>
       <c r="X75" s="48"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AK75" s="48"/>
+      <c r="AL75" s="48"/>
+      <c r="AM75" s="48"/>
+    </row>
+    <row r="76" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
-        <v>47</v>
+        <v>191</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>22</v>
+        <v>173</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="E76" s="46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H76" s="46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J76" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K76" s="46" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L76" s="46">
-        <v>5</v>
-      </c>
-      <c r="M76" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="N76" s="48"/>
       <c r="O76" s="48"/>
-      <c r="R76" s="48"/>
       <c r="S76" s="48"/>
       <c r="T76" s="48"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="48"/>
+      <c r="U76" s="48"/>
       <c r="X76" s="48"/>
     </row>
-    <row r="77" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="E77" s="46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H77" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I77" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J77" s="46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L77" s="46">
-        <v>2</v>
-      </c>
-      <c r="M77" s="48"/>
+        <v>8</v>
+      </c>
+      <c r="N77" s="48"/>
       <c r="O77" s="48"/>
-      <c r="R77" s="48"/>
       <c r="S77" s="48"/>
       <c r="T77" s="48"/>
-      <c r="V77" s="48"/>
-      <c r="W77" s="48"/>
+      <c r="U77" s="48"/>
       <c r="X77" s="48"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>89</v>
+        <v>384</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="46">
+        <v>6</v>
+      </c>
+      <c r="I78" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="L78" s="46">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
       <c r="S78" s="48"/>
       <c r="T78" s="48"/>
-      <c r="AA78" s="48"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="48"/>
-      <c r="AD78" s="48"/>
-      <c r="AE78" s="48"/>
-      <c r="AF78" s="48"/>
-      <c r="AG78" s="48"/>
-    </row>
-    <row r="79" spans="1:39" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U78" s="48"/>
+      <c r="X78" s="48"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>108</v>
+        <v>45</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="46">
+        <v>7</v>
+      </c>
+      <c r="I79" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="L79" s="46">
-        <v>0</v>
-      </c>
-      <c r="S79" s="51"/>
-      <c r="T79" s="51"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
-      <c r="AC79" s="51"/>
-      <c r="AD79" s="51"/>
-      <c r="AE79" s="51"/>
-      <c r="AF79" s="51"/>
-      <c r="AG79" s="51"/>
+        <v>8</v>
+      </c>
+      <c r="N79" s="48"/>
+      <c r="O79" s="48"/>
+      <c r="S79" s="48"/>
+      <c r="T79" s="48"/>
+      <c r="U79" s="48"/>
+      <c r="X79" s="48"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="46">
+        <v>8</v>
+      </c>
+      <c r="I80" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="L80" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="48"/>
+      <c r="V80" s="48"/>
+      <c r="W80" s="48"/>
+      <c r="X80" s="48"/>
+    </row>
+    <row r="81" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
-        <v>265</v>
+        <v>165</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="46" t="s">
-        <v>108</v>
+        <v>167</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="46">
+        <v>5</v>
+      </c>
+      <c r="I81" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="L81" s="46">
-        <v>0</v>
-      </c>
-      <c r="S81" s="51"/>
-      <c r="T81" s="51"/>
-      <c r="AA81" s="51"/>
-      <c r="AB81" s="51"/>
-      <c r="AC81" s="51"/>
-      <c r="AD81" s="51"/>
-      <c r="AE81" s="51"/>
-      <c r="AF81" s="51"/>
-      <c r="AG81" s="51"/>
+        <v>2</v>
+      </c>
+      <c r="M81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F82" s="46" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="46" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L82" s="46">
         <v>0</v>
       </c>
-      <c r="S82" s="51"/>
-      <c r="T82" s="51"/>
-      <c r="AA82" s="51"/>
-      <c r="AB82" s="51"/>
-      <c r="AC82" s="51"/>
-      <c r="AD82" s="51"/>
-      <c r="AE82" s="51"/>
-      <c r="AF82" s="51"/>
-      <c r="AG82" s="51"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="48"/>
+      <c r="AE82" s="48"/>
+      <c r="AF82" s="48"/>
+      <c r="AG82" s="48"/>
     </row>
     <row r="83" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D83" s="47" t="s">
+      <c r="A83" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="46" t="s">
-        <v>108</v>
+      <c r="G83" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="L83" s="46">
         <v>0</v>
       </c>
-      <c r="S83" s="51"/>
-      <c r="T83" s="51"/>
-      <c r="AA83" s="51"/>
-      <c r="AB83" s="51"/>
-      <c r="AC83" s="51"/>
-      <c r="AD83" s="51"/>
-      <c r="AE83" s="51"/>
-      <c r="AF83" s="51"/>
-      <c r="AG83" s="51"/>
-    </row>
-    <row r="84" spans="1:33" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="S83" s="48"/>
+      <c r="T83" s="48"/>
+      <c r="AA83" s="48"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="48"/>
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+    </row>
+    <row r="84" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="45" t="s">
-        <v>284</v>
+        <v>109</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="F84" s="46" t="s">
         <v>68</v>
       </c>
       <c r="G84" s="46" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L84" s="46">
         <v>0</v>
       </c>
-      <c r="S84" s="51"/>
-      <c r="T84" s="51"/>
-      <c r="AA84" s="51"/>
-      <c r="AB84" s="51"/>
-      <c r="AC84" s="51"/>
-      <c r="AD84" s="51"/>
-      <c r="AE84" s="51"/>
-      <c r="AF84" s="51"/>
-      <c r="AG84" s="51"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
@@ -5331,12 +5510,163 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A87" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L87" s="46">
+        <v>0</v>
+      </c>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="AA87" s="52"/>
+      <c r="AB87" s="52"/>
+      <c r="AC87" s="51"/>
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L88" s="46">
+        <v>0</v>
+      </c>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="51"/>
+      <c r="AD88" s="51"/>
+      <c r="AE88" s="51"/>
+      <c r="AF88" s="51"/>
+      <c r="AG88" s="51"/>
+    </row>
+    <row r="89" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L89" s="46">
+        <v>0</v>
+      </c>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="51"/>
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="51"/>
+      <c r="AG89" s="51"/>
+    </row>
+    <row r="90" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L90" s="46">
+        <v>0</v>
+      </c>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="AA90" s="51"/>
+      <c r="AB90" s="51"/>
+      <c r="AC90" s="51"/>
+      <c r="AD90" s="51"/>
+      <c r="AE90" s="51"/>
+      <c r="AF90" s="51"/>
+      <c r="AG90" s="51"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A91" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L91" s="46">
+        <v>0</v>
+      </c>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A92" s="49"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:L85" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L90" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM85">
-    <sortCondition ref="I3:I85"/>
+  <sortState ref="A3:AM91">
+    <sortCondition ref="I3:I91"/>
+    <sortCondition ref="A3:A91"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
@@ -5359,10 +5689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B21E192-B138-41DF-BD94-1F88A34F3941}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5399,58 +5729,60 @@
     <col min="30" max="30" width="15.33203125" style="25" customWidth="1"/>
     <col min="31" max="31" width="14.21875" style="25" customWidth="1"/>
     <col min="32" max="32" width="16.5546875" style="25" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="27"/>
+    <col min="33" max="33" width="20.44140625" style="25" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="23"/>
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -5535,28 +5867,49 @@
       <c r="AF2" s="23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AG2" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D3" s="25">
         <v>1</v>
       </c>
-      <c r="Y3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
     </row>
     <row r="4" spans="1:44" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>356</v>
@@ -5564,22 +5917,16 @@
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y4" s="26"/>
+    </row>
+    <row r="5" spans="1:44" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>356</v>
       </c>
       <c r="D5" s="25">
@@ -5587,26 +5934,31 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
+    </row>
+    <row r="6" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
     </row>
   </sheetData>
+  <sortState ref="A3:AR6">
+    <sortCondition ref="A3:A6"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -5621,11 +5973,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V10" sqref="V10"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5668,89 +6020,101 @@
     <col min="36" max="40" width="7.33203125" style="12" customWidth="1"/>
     <col min="41" max="41" width="10" style="12" customWidth="1"/>
     <col min="42" max="45" width="8.88671875" style="12"/>
-    <col min="46" max="16384" width="8.88671875" style="13"/>
+    <col min="46" max="46" width="13.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" style="12" customWidth="1"/>
+    <col min="49" max="49" width="19.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="12" customWidth="1"/>
+    <col min="51" max="51" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:51" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>397</v>
       </c>
       <c r="B1" s="30"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="73"/>
-    </row>
-    <row r="2" spans="1:45" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="76"/>
+    </row>
+    <row r="2" spans="1:51" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
       <c r="B2" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5856,40 +6220,60 @@
       <c r="AS2" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="AT2" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU2" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV2" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW2" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="AX2" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="AY2" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="D3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="W3" s="15"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="D4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="12">
         <v>2</v>
       </c>
       <c r="W4" s="15"/>
-      <c r="AJ4" s="15"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>343</v>
       </c>
@@ -5905,50 +6289,23 @@
       <c r="W5" s="15"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="1:45" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
+    <row r="6" spans="1:51" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="12">
         <v>2</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-    </row>
-    <row r="7" spans="1:45" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W6" s="15"/>
+      <c r="AJ6" s="15"/>
+    </row>
+    <row r="7" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>153</v>
       </c>
@@ -5975,35 +6332,27 @@
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="10"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -6013,92 +6362,57 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="10"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="10"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="8">
-        <v>40</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>392</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>119</v>
+      <c r="D10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="10"/>
@@ -6124,239 +6438,255 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>128</v>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>28</v>
+      <c r="I11" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="8">
-        <v>40</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-    </row>
-    <row r="12" spans="1:45" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:51" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="8">
-        <v>25</v>
-      </c>
+      <c r="I12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="12">
+        <v>20</v>
+      </c>
+      <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-    </row>
-    <row r="13" spans="1:45" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+    </row>
+    <row r="13" spans="1:51" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>407</v>
+      <c r="C13" s="20" t="s">
+        <v>452</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="8">
-        <v>15</v>
+      <c r="J13" s="12">
+        <v>6</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="W13" s="32"/>
+      <c r="R13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="8">
-        <v>15</v>
-      </c>
-      <c r="M14" s="15"/>
+      <c r="C14" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="12">
+        <v>3</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="AH14" s="15"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="R14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="8">
-        <v>50</v>
-      </c>
+      <c r="C15" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4</v>
+      </c>
+      <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="I16" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J16" s="8">
-        <v>20</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>392</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="12">
-        <v>10</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="8">
+        <v>50</v>
+      </c>
+      <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="V17" s="15"/>
       <c r="W17" s="15"/>
-      <c r="AK17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>392</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="12">
+        <v>149</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="8">
         <v>20</v>
       </c>
       <c r="L18" s="15"/>
@@ -6365,127 +6695,189 @@
       <c r="R18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
+      <c r="Y18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J19" s="12">
-        <v>3</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="8">
+        <v>15</v>
+      </c>
+      <c r="M19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>371</v>
+      <c r="W19" s="15"/>
+      <c r="AH19" s="15"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>85</v>
+      <c r="D20" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="J20" s="12">
-        <v>4</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="M20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="W20" s="15"/>
+      <c r="AK20" s="15"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="8">
+        <v>25</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+    </row>
+    <row r="22" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="8">
+        <v>40</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+    </row>
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="8">
+        <v>15</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="W23" s="32"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J25" s="12">
         <v>0</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J24" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ24" s="15"/>
-    </row>
-    <row r="25" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -6493,250 +6885,376 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    </row>
+    <row r="26" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="15"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="15"/>
+    </row>
+    <row r="31" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="8">
+        <v>3</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="Y32" s="16"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="8">
+        <v>15</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="Y33" s="15"/>
+    </row>
+    <row r="34" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B35" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J35" s="8">
         <v>7</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="Y26" s="15"/>
-    </row>
-    <row r="27" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="8">
-        <v>15</v>
-      </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="Y28" s="15"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="8">
-        <v>3</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="Y29" s="16"/>
-    </row>
-    <row r="30" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="Y35" s="15"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="C36" s="8"/>
+      <c r="J36" s="12">
         <v>1</v>
       </c>
-      <c r="AJ30" s="15"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="AI36" s="20"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="J31" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="20"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="J32" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="20"/>
-    </row>
-    <row r="33" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="J33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="20"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="20"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="J35" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="20"/>
-    </row>
-    <row r="36" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J36" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="17"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-    </row>
-    <row r="37" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>300</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="J37" s="12">
         <v>1</v>
       </c>
-      <c r="Y37" s="18"/>
-    </row>
-    <row r="38" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AI37" s="20"/>
+    </row>
+    <row r="38" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
-        <v>374</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="J38" s="12">
         <v>1</v>
       </c>
-      <c r="AJ38" s="15"/>
-    </row>
-    <row r="39" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AI38" s="20"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
-        <v>378</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="J39" s="12">
         <v>1</v>
       </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
+      <c r="AI39" s="20"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="J40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="20"/>
+    </row>
+    <row r="41" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="15"/>
+    </row>
+    <row r="42" spans="1:51" ht="216" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="55">
+        <v>2</v>
+      </c>
+      <c r="J42" s="12">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+    </row>
+    <row r="43" spans="1:51" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="17"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+    </row>
+    <row r="44" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="18"/>
+    </row>
+    <row r="45" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" s="12">
+        <v>1</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+    </row>
+    <row r="46" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="16"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+    </row>
+    <row r="47" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AS39">
-    <sortCondition ref="B3:B39"/>
+  <sortState ref="A3:AY47">
+    <sortCondition ref="B3:B47"/>
+    <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="K1:AS1"/>
+    <mergeCell ref="K1:AY1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -6754,11 +7272,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF04B9-A048-4F7D-8D58-D478FFC7F680}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6773,9 +7291,12 @@
     <col min="8" max="8" width="5.88671875" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>211</v>
       </c>
@@ -6788,16 +7309,19 @@
       <c r="D1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -6820,13 +7344,22 @@
       <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>224</v>
@@ -6835,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>213</v>
       </c>
@@ -6849,26 +7382,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>226</v>
@@ -6877,68 +7411,63 @@
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>227</v>
@@ -6948,115 +7477,128 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>244</v>
+        <v>463</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>226</v>
@@ -7071,30 +7613,35 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -7103,25 +7650,24 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>274</v>
+        <v>453</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>226</v>
@@ -7133,13 +7679,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -7148,13 +7694,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -7163,26 +7709,87 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:M29">
+    <sortCondition ref="A3:A29"/>
+  </sortState>
   <mergeCells count="5">
-    <mergeCell ref="E1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7190,11 +7797,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C4BBC-C287-4F65-819A-8B9A6A47D859}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7214,15 +7821,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>289</v>
+      <c r="A3" s="20" t="s">
+        <v>457</v>
       </c>
       <c r="B3" s="41">
         <v>0</v>
@@ -7230,7 +7837,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="B4" s="41">
         <v>0</v>
@@ -7238,7 +7845,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="B5" s="41">
         <v>0</v>
@@ -7246,7 +7853,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B6" s="41">
         <v>0</v>
@@ -7254,7 +7861,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B7" s="41">
         <v>0</v>
@@ -7262,7 +7869,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B8" s="41">
         <v>0</v>
@@ -7278,7 +7885,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B10" s="41">
         <v>0</v>
@@ -7286,7 +7893,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="B11" s="41">
         <v>0</v>
@@ -7294,7 +7901,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="B12" s="41">
         <v>0</v>
@@ -7302,7 +7909,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="B13" s="41">
         <v>0</v>
@@ -7310,13 +7917,24 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="B14" s="41">
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:B15">
+    <sortCondition ref="A2:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7327,7 +7945,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IceWind_Dale/equipment.xlsx
+++ b/IceWind_Dale/equipment.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Czary" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atak!$C$1:$L$92</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="484">
   <si>
     <t>Nazwa broni</t>
   </si>
@@ -1267,9 +1267,6 @@
     <t>Pierścień cieni</t>
   </si>
   <si>
-    <t>Znajdowanie pułapek; Użytkownik wykrywa pułapki jakby był złodziejem</t>
-  </si>
-  <si>
     <t>Turkus</t>
   </si>
   <si>
@@ -1555,6 +1552,154 @@
   </si>
   <si>
     <t>Klasa pancerza: +1, pozwala rzucić po jednym dodatkowym zaklęciu 1. i 2. poziomu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Znajdowanie pułapek;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Użytkownik wykrywa pułapki jakby był złodziejem</t>
+    </r>
+  </si>
+  <si>
+    <t>Płonące pięści Lin Mei</t>
+  </si>
+  <si>
+    <t>TraK0: +2 przy ataki pięściami, 25% szans na zadanie 1k2 obrażeń od ognia podczas ataku pięściami. Właściwości łądunków: płonące dłonie, raz dziennie</t>
+  </si>
+  <si>
+    <t>Talia rozmycia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rozmycie: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klasa pancerza +3, rzuty obronne +1, czas działania 8 rund, obszar działania: użytkownik</t>
+    </r>
+  </si>
+  <si>
+    <t>Kostur przywoływacza +3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Właściwości ładunków: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ognista strzała</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Obrażenia: dwie strzały zadające 1k6 obrażeń  od pocisków, +4k6 obrażeń od ognia (połowa po rzucie obronnym przeciw czarom), zasięg: 10 metrów. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Przywołanie potwora IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Przyzywa 1k3 potworów 4. poziomu. Zasięg: 6 metrów, Czas działania: 15 rund.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nie widzialny myśliwy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Przyzywa niewidzialnego myśliwego o 8 KW. Zasięg: 10 metrów, czas działania: 2 godziny.</t>
+    </r>
+  </si>
+  <si>
+    <t>Wekiera radości i smutku +1</t>
+  </si>
+  <si>
+    <t>Rzuty obronne: +1, 13% szans, że cel zostanie przeklęty na 6 rund (-1 do Trak0, obniżone morale), po trafieniu</t>
+  </si>
+  <si>
+    <t>1k6+2, +3 przeciw istotom o praworządnym charakterze</t>
+  </si>
+  <si>
+    <t>siła: 10</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1823,12 +1968,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1872,11 +2011,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1891,16 +2112,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1918,46 +2145,49 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1968,8 +2198,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2284,259 +2516,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="AO75" sqref="AO75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="46"/>
-    <col min="11" max="11" width="11.6640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="46" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="46" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="46" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="46" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" style="46" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="46" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="46" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="46" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" style="46" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="46" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="46" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="46" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" style="46" customWidth="1"/>
-    <col min="28" max="28" width="6" style="46" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" style="46" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="46" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" style="46" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="46" customWidth="1"/>
-    <col min="33" max="33" width="10" style="46" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="46" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" style="46" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="46" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="46" customWidth="1"/>
-    <col min="38" max="38" width="14.21875" style="46" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="46" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="1" width="29.88671875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="79"/>
+    <col min="11" max="11" width="11.6640625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="79" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="44" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" style="44" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="44" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="44" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="44" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" style="44" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="44" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="44" customWidth="1"/>
+    <col min="26" max="27" width="5.6640625" style="44" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" style="44" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="44" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="44" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="44" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="44" customWidth="1"/>
+    <col min="33" max="33" width="10" style="44" customWidth="1"/>
+    <col min="34" max="34" width="16.44140625" style="44" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" style="44" customWidth="1"/>
+    <col min="36" max="36" width="17.5546875" style="44" customWidth="1"/>
+    <col min="37" max="37" width="13.88671875" style="44" customWidth="1"/>
+    <col min="38" max="38" width="12.44140625" style="44" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" style="44" customWidth="1"/>
+    <col min="40" max="40" width="19.5546875" style="44" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:40" s="41" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="62"/>
-    </row>
-    <row r="2" spans="1:39" s="43" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="44" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="92"/>
+    </row>
+    <row r="2" spans="1:40" s="41" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="88"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="44" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="42" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="AN2" s="52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="44">
         <v>7</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="79">
         <v>15</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="X3" s="48"/>
-    </row>
-    <row r="4" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="X3" s="46"/>
+    </row>
+    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>449</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>450</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>185</v>
@@ -2547,487 +2783,487 @@
       <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="44">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="79">
         <v>15</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="X4" s="48"/>
-    </row>
-    <row r="5" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="X4" s="46"/>
+    </row>
+    <row r="5" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <v>4</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="79">
         <v>9</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="44">
         <v>3</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="79">
         <v>5</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="X6" s="48"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="X6" s="46"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="44">
         <v>7</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="79">
         <v>12</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="X7" s="48"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="X7" s="46"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="44">
         <v>6</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="79">
         <v>10</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="X8" s="48"/>
-    </row>
-    <row r="9" spans="1:39" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="X8" s="46"/>
+    </row>
+    <row r="9" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="44">
         <v>7</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="79">
         <v>12</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="X9" s="48"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="X9" s="46"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="44">
         <v>4</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="79">
         <v>3</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="44">
         <v>7</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="79">
         <v>3</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="44">
         <v>7</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="79">
         <v>10</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="44">
         <v>3</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="79">
         <v>4</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="44">
         <v>5</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="79">
         <v>4</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="M14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="O14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="50" t="s">
+      <c r="P14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="50" t="s">
+      <c r="R14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="50" t="s">
+      <c r="U14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="50" t="s">
+      <c r="V14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="50" t="s">
+      <c r="W14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="X14" s="50" t="s">
+      <c r="X14" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="44">
         <v>4</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="79">
         <v>4</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="44">
         <v>5</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="79">
         <v>4</v>
       </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-    </row>
-    <row r="17" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+    </row>
+    <row r="17" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>433</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>434</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>161</v>
@@ -3038,1714 +3274,1711 @@
       <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="44">
         <v>4</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="79">
         <v>4</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="44">
         <v>4</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="79">
         <v>4</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-    </row>
-    <row r="19" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+    </row>
+    <row r="19" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="C19" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="44">
         <v>5</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="79">
         <v>4</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="C20" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="44">
+        <v>3</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="79">
+        <v>5</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="44">
+        <v>9</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="79">
+        <v>15</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="44">
+        <v>6</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="79">
+        <v>12</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="44">
+        <v>7</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="79">
+        <v>15</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" s="79">
+        <v>21</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="44">
+        <v>4</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="79">
+        <v>6</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="44">
+        <v>3</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="79">
+        <v>5</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="44">
+        <v>4</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="79">
+        <v>4</v>
+      </c>
+      <c r="S27" s="46"/>
+    </row>
+    <row r="28" spans="1:30" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="44">
+        <v>3</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="79">
+        <v>3</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="44">
+        <v>1</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="79">
+        <v>3</v>
+      </c>
+      <c r="S29" s="46"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="44">
+        <v>6</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="79">
+        <v>2</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="44">
+        <v>5</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="79">
+        <v>2</v>
+      </c>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="44">
+        <v>3</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="79">
+        <v>3</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="44">
+        <v>2</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="79">
+        <v>3</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+    </row>
+    <row r="34" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="79">
+        <v>3</v>
+      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="44">
+        <v>10</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="79">
+        <v>14</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="44">
+        <v>4</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="79">
+        <v>7</v>
+      </c>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="44">
+        <v>5</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="79">
+        <v>7</v>
+      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="44">
+        <v>4</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="79">
+        <v>3</v>
+      </c>
+      <c r="O38" s="46"/>
+    </row>
+    <row r="39" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="44">
+        <v>3</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="79">
+        <v>2</v>
+      </c>
+      <c r="O39" s="48"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="44">
+        <v>7</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="79">
+        <v>8</v>
+      </c>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="B41" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="44">
+        <v>8</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="79">
+        <v>12</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="44">
+        <v>10</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="79">
+        <v>15</v>
+      </c>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="44">
+        <v>8</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="79">
+        <v>10</v>
+      </c>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="44">
+        <v>7</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="79">
+        <v>9</v>
+      </c>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+    </row>
+    <row r="45" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="44">
+        <v>8</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="79">
+        <v>10</v>
+      </c>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+    </row>
+    <row r="46" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="44">
+        <v>6</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="79">
+        <v>8</v>
+      </c>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+    </row>
+    <row r="47" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="44">
+        <v>4</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" s="79">
+        <v>15</v>
+      </c>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="X47" s="46"/>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="44">
+        <v>4</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="79">
+        <v>6</v>
+      </c>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="X48" s="46"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="44">
+        <v>3</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="79">
+        <v>6</v>
+      </c>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="X49" s="46"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="44">
+        <v>1</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="79">
+        <v>6</v>
+      </c>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="X50" s="46"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="44">
+        <v>6</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="44">
+        <v>5</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L52" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+    </row>
+    <row r="53" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="44">
+        <v>5</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L53" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="44">
+        <v>5</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="79">
+        <v>4</v>
+      </c>
+      <c r="M54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+    </row>
+    <row r="55" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D55" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E55" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H55" s="44">
+        <v>4</v>
+      </c>
+      <c r="I55" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="79">
+        <v>4</v>
+      </c>
+      <c r="M55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="44">
         <v>3</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="46" t="s">
+      <c r="I56" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="46">
-        <v>5</v>
-      </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="46" t="s">
+      <c r="K56" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="79">
+        <v>3</v>
+      </c>
+      <c r="M56" s="46"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="44">
+        <v>2</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="79">
+        <v>0</v>
+      </c>
+      <c r="M57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+    </row>
+    <row r="58" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="79">
+        <v>0</v>
+      </c>
+      <c r="M58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+    </row>
+    <row r="59" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="44">
+        <v>2</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="79">
+        <v>0</v>
+      </c>
+      <c r="M59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="46">
-        <v>9</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="46">
-        <v>15</v>
-      </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="H60" s="44">
+        <v>1</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" s="79">
+        <v>1</v>
+      </c>
+      <c r="M60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="46">
-        <v>6</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="46">
-        <v>12</v>
-      </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="46" t="s">
+      <c r="H61" s="44">
+        <v>2</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="79">
+        <v>1</v>
+      </c>
+      <c r="M61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="46">
-        <v>7</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="46">
-        <v>15</v>
-      </c>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="46" t="s">
+      <c r="H62" s="44">
+        <v>1</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="L24" s="46">
-        <v>21</v>
-      </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="46">
-        <v>4</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="46" t="s">
+      <c r="H63" s="44">
+        <v>1</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="46">
-        <v>6</v>
-      </c>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="46">
-        <v>3</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="46" t="s">
+      <c r="K63" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63" s="79">
+        <v>1</v>
+      </c>
+      <c r="M63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="44">
+        <v>2</v>
+      </c>
+      <c r="I64" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="46">
-        <v>5</v>
-      </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="46">
-        <v>4</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="46">
-        <v>4</v>
-      </c>
-      <c r="S27" s="48"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="46">
-        <v>1</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="46">
-        <v>3</v>
-      </c>
-      <c r="S28" s="48"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="46">
-        <v>6</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="46">
-        <v>2</v>
-      </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="46">
-        <v>5</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="46">
-        <v>2</v>
-      </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="46">
-        <v>3</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="46">
-        <v>3</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="46">
-        <v>2</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="46">
-        <v>3</v>
-      </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-    </row>
-    <row r="33" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="46">
-        <v>1</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="46">
-        <v>3</v>
-      </c>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="46">
-        <v>10</v>
-      </c>
-      <c r="I34" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="46">
-        <v>14</v>
-      </c>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="46">
-        <v>4</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="46">
-        <v>7</v>
-      </c>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="46">
-        <v>5</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="46">
-        <v>7</v>
-      </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="46">
-        <v>4</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="46">
-        <v>3</v>
-      </c>
-      <c r="O37" s="48"/>
-    </row>
-    <row r="38" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="46">
-        <v>3</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="46">
-        <v>2</v>
-      </c>
-      <c r="O38" s="50"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="46">
-        <v>7</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="46">
-        <v>8</v>
-      </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="46">
-        <v>8</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="46">
-        <v>12</v>
-      </c>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="46">
-        <v>10</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="46">
-        <v>15</v>
-      </c>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="46">
-        <v>8</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="46">
-        <v>10</v>
-      </c>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="46">
-        <v>7</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="46">
-        <v>9</v>
-      </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-    </row>
-    <row r="44" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="46">
-        <v>8</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="46">
-        <v>10</v>
-      </c>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-    </row>
-    <row r="45" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="46">
-        <v>6</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="46">
-        <v>8</v>
-      </c>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-    </row>
-    <row r="46" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="46">
-        <v>4</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="L46" s="46">
-        <v>15</v>
-      </c>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="X46" s="48"/>
-    </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="46">
-        <v>4</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="46">
-        <v>6</v>
-      </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="X47" s="48"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="47" t="s">
+      <c r="K64" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" s="79">
+        <v>0</v>
+      </c>
+      <c r="M64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+    </row>
+    <row r="65" spans="1:40" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="46">
-        <v>3</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="46">
-        <v>6</v>
-      </c>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="X48" s="48"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="46">
-        <v>1</v>
-      </c>
-      <c r="I49" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="46">
-        <v>6</v>
-      </c>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="X49" s="48"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="46">
-        <v>6</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L50" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="46">
-        <v>5</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L51" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-    </row>
-    <row r="52" spans="1:30" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="46">
-        <v>5</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L52" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="46">
-        <v>5</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L53" s="46">
-        <v>4</v>
-      </c>
-      <c r="M53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
-      <c r="X53" s="48"/>
-    </row>
-    <row r="54" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="46">
-        <v>4</v>
-      </c>
-      <c r="I54" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L54" s="46">
-        <v>4</v>
-      </c>
-      <c r="M54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="46">
-        <v>3</v>
-      </c>
-      <c r="I55" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="46">
-        <v>3</v>
-      </c>
-      <c r="M55" s="48"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="46">
-        <v>2</v>
-      </c>
-      <c r="I56" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="J56" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" s="46">
-        <v>0</v>
-      </c>
-      <c r="M56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-    </row>
-    <row r="57" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I57" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="J57" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L57" s="46">
-        <v>0</v>
-      </c>
-      <c r="M57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-    </row>
-    <row r="58" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="46">
-        <v>2</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="46">
-        <v>0</v>
-      </c>
-      <c r="M58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
-      <c r="Y58" s="48"/>
-      <c r="Z58" s="48"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="46">
-        <v>1</v>
-      </c>
-      <c r="I59" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L59" s="46">
-        <v>1</v>
-      </c>
-      <c r="M59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="48"/>
-      <c r="X59" s="48"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="46">
-        <v>2</v>
-      </c>
-      <c r="I60" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" s="46">
-        <v>1</v>
-      </c>
-      <c r="M60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="48"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="46">
-        <v>1</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="M61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="48"/>
-      <c r="X61" s="48"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="46">
-        <v>1</v>
-      </c>
-      <c r="I62" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" s="46">
-        <v>1</v>
-      </c>
-      <c r="M62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="48"/>
-      <c r="X62" s="48"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="46">
-        <v>2</v>
-      </c>
-      <c r="I63" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L63" s="46">
-        <v>0</v>
-      </c>
-      <c r="M63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="V63" s="48"/>
-      <c r="W63" s="48"/>
-      <c r="X63" s="48"/>
-      <c r="Y63" s="48"/>
-      <c r="Z63" s="48"/>
-    </row>
-    <row r="64" spans="1:30" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="46">
-        <v>2</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J64" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" s="46">
-        <v>1</v>
-      </c>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="48"/>
-      <c r="X64" s="90"/>
-      <c r="AA64" s="48"/>
-      <c r="AC64" s="48"/>
-      <c r="AD64" s="48"/>
-    </row>
-    <row r="65" spans="1:39" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45" t="s">
-        <v>462</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>85</v>
@@ -4753,925 +4986,1068 @@
       <c r="E65" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="46">
-        <v>0</v>
+      <c r="H65" s="44">
+        <v>2</v>
       </c>
       <c r="I65" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K65" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="46">
+      <c r="L65" s="79">
         <v>1</v>
       </c>
-      <c r="M65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="48"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
-      <c r="AC65" s="48"/>
-    </row>
-    <row r="66" spans="1:39" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="56"/>
+      <c r="AA65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+    </row>
+    <row r="66" spans="1:40" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="44">
+        <v>0</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L66" s="79">
+        <v>1</v>
+      </c>
+      <c r="M66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="AC66" s="46"/>
+    </row>
+    <row r="67" spans="1:40" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C67" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="E67" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="46">
+      <c r="H67" s="44">
         <v>2</v>
       </c>
-      <c r="I66" s="46" t="s">
+      <c r="I67" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="46" t="s">
+      <c r="J67" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="46" t="s">
+      <c r="K67" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L66" s="46">
+      <c r="L67" s="79">
         <v>1</v>
       </c>
-      <c r="M66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
+      <c r="M67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A68" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C68" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D68" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E68" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="46">
+      <c r="H68" s="44">
         <v>2</v>
       </c>
-      <c r="I67" s="46" t="s">
+      <c r="I68" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J67" s="46" t="s">
+      <c r="J68" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="46" t="s">
+      <c r="K68" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="46">
+      <c r="L68" s="79">
         <v>1</v>
       </c>
-      <c r="M67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A68" s="45" t="s">
+      <c r="M68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A69" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C69" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D69" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E69" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="46">
+      <c r="H69" s="44">
         <v>7</v>
       </c>
-      <c r="I68" s="46" t="s">
+      <c r="I69" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="46" t="s">
+      <c r="J69" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K68" s="46" t="s">
+      <c r="K69" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L68" s="46">
+      <c r="L69" s="79">
         <v>7</v>
-      </c>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-    </row>
-    <row r="69" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="46">
-        <v>5</v>
-      </c>
-      <c r="I69" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L69" s="46">
-        <v>5</v>
       </c>
       <c r="M69" s="48"/>
       <c r="N69" s="48"/>
       <c r="O69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+    </row>
+    <row r="70" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="44">
+        <v>5</v>
+      </c>
+      <c r="I70" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="79">
+        <v>5</v>
+      </c>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A71" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B71" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C71" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D71" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="46">
+      <c r="H71" s="44">
         <v>6</v>
       </c>
-      <c r="I70" s="46" t="s">
+      <c r="I71" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J70" s="46" t="s">
+      <c r="J71" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K70" s="46" t="s">
+      <c r="K71" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="46">
+      <c r="L71" s="79">
         <v>10</v>
       </c>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="48"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48"/>
-      <c r="X70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="48"/>
-      <c r="AM70" s="48"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="46"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A72" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C72" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E72" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F72" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H71" s="46">
+      <c r="H72" s="44">
         <v>4</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I72" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J71" s="46" t="s">
+      <c r="J72" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="46" t="s">
+      <c r="K72" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="46">
+      <c r="L72" s="79">
         <v>4</v>
       </c>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A72" s="45" t="s">
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A73" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C73" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E73" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="46">
+      <c r="H73" s="44">
         <v>7</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="I73" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="46" t="s">
+      <c r="J73" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="46" t="s">
+      <c r="K73" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L72" s="46">
+      <c r="L73" s="79">
         <v>7</v>
       </c>
-      <c r="M72" s="50" t="s">
+      <c r="M73" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N72" s="50" t="s">
+      <c r="N73" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O72" s="50" t="s">
+      <c r="O73" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R72" s="48"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="48"/>
-      <c r="W72" s="48"/>
-      <c r="X72" s="48"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A74" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C74" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E74" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="46">
+      <c r="H74" s="44">
         <v>6</v>
       </c>
-      <c r="I73" s="46" t="s">
+      <c r="I74" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="46" t="s">
+      <c r="J74" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="46" t="s">
+      <c r="K74" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="46">
+      <c r="L74" s="79">
         <v>7</v>
       </c>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="48"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="48"/>
-      <c r="W73" s="48"/>
-      <c r="X73" s="48"/>
-    </row>
-    <row r="74" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+    </row>
+    <row r="75" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="B74" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="C74" s="21" t="s">
+      <c r="C75" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D75" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E75" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H74" s="46">
+      <c r="H75" s="44">
         <v>7</v>
       </c>
-      <c r="I74" s="20" t="s">
+      <c r="I75" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J75" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K75" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="46">
+      <c r="L75" s="79">
         <v>7</v>
       </c>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="48"/>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="48"/>
-      <c r="X74" s="48"/>
-      <c r="AK74" s="48"/>
-      <c r="AL74" s="48"/>
-      <c r="AM74" s="48"/>
-    </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="46"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C76" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D76" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E76" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="46">
+      <c r="H76" s="44">
         <v>7</v>
       </c>
-      <c r="I75" s="46" t="s">
+      <c r="I76" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="46" t="s">
+      <c r="J76" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="46" t="s">
+      <c r="K76" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L75" s="46">
+      <c r="L76" s="79">
         <v>7</v>
       </c>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="R75" s="48"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="48"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="48"/>
-      <c r="W75" s="48"/>
-      <c r="X75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-    </row>
-    <row r="76" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="s">
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+    </row>
+    <row r="77" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B77" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C77" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="D77" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E77" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="46">
+      <c r="H77" s="44">
         <v>5</v>
       </c>
-      <c r="I76" s="46" t="s">
+      <c r="I77" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J76" s="46" t="s">
+      <c r="J77" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="46" t="s">
+      <c r="K77" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="46">
+      <c r="L77" s="79">
         <v>7</v>
       </c>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="48"/>
-      <c r="X76" s="48"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="X77" s="46"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A78" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C78" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E78" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="46">
+      <c r="H78" s="44">
         <v>7</v>
       </c>
-      <c r="I77" s="46" t="s">
+      <c r="I78" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J77" s="46" t="s">
+      <c r="J78" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="46" t="s">
+      <c r="K78" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L77" s="46">
+      <c r="L78" s="79">
         <v>8</v>
       </c>
-      <c r="N77" s="48"/>
-      <c r="O77" s="48"/>
-      <c r="S77" s="48"/>
-      <c r="T77" s="48"/>
-      <c r="U77" s="48"/>
-      <c r="X77" s="48"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="X78" s="46"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A79" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="C78" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="D78" s="47" t="s">
+      <c r="D79" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="E79" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="46">
+      <c r="H79" s="44">
         <v>6</v>
       </c>
-      <c r="I78" s="46" t="s">
+      <c r="I79" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J78" s="46" t="s">
+      <c r="J79" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="46" t="s">
+      <c r="K79" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L78" s="46">
+      <c r="L79" s="79">
         <v>8</v>
       </c>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="48"/>
-      <c r="X78" s="48"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="45" t="s">
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="X79" s="46"/>
+    </row>
+    <row r="80" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="44">
+        <v>6</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="L80" s="79">
+        <v>7</v>
+      </c>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="46"/>
+      <c r="AC80" s="46"/>
+      <c r="AJ80" s="46"/>
+      <c r="AM80" s="46"/>
+      <c r="AN80" s="46"/>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A81" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C81" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D81" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E81" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="46">
+      <c r="H81" s="44">
         <v>7</v>
       </c>
-      <c r="I79" s="46" t="s">
+      <c r="I81" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J79" s="46" t="s">
+      <c r="J81" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="46" t="s">
+      <c r="K81" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="46">
+      <c r="L81" s="79">
         <v>8</v>
       </c>
-      <c r="N79" s="48"/>
-      <c r="O79" s="48"/>
-      <c r="S79" s="48"/>
-      <c r="T79" s="48"/>
-      <c r="U79" s="48"/>
-      <c r="X79" s="48"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A80" s="45" t="s">
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="X81" s="46"/>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A82" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C82" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E82" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="46">
+      <c r="H82" s="44">
         <v>8</v>
       </c>
-      <c r="I80" s="46" t="s">
+      <c r="I82" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J80" s="46" t="s">
+      <c r="J82" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K80" s="46" t="s">
+      <c r="K82" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L80" s="46">
+      <c r="L82" s="79">
         <v>5</v>
       </c>
-      <c r="M80" s="48"/>
-      <c r="O80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="48"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="48"/>
-      <c r="X80" s="48"/>
-    </row>
-    <row r="81" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="M82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
+    </row>
+    <row r="83" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C83" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D83" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E83" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="46">
+      <c r="H83" s="44">
         <v>5</v>
       </c>
-      <c r="I81" s="46" t="s">
+      <c r="I83" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J81" s="46" t="s">
+      <c r="J83" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K81" s="46" t="s">
+      <c r="K83" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L81" s="46">
+      <c r="L83" s="79">
         <v>2</v>
       </c>
-      <c r="M81" s="48"/>
-      <c r="O81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48"/>
-      <c r="T81" s="48"/>
-      <c r="V81" s="48"/>
-      <c r="W81" s="48"/>
-      <c r="X81" s="48"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
+      <c r="M83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="46"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A84" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C84" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F84" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="46" t="s">
+      <c r="G84" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="L82" s="46">
+      <c r="L84" s="79">
         <v>0</v>
       </c>
-      <c r="S82" s="48"/>
-      <c r="T82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="48"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-    </row>
-    <row r="83" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="AA84" s="46"/>
+      <c r="AB84" s="46"/>
+      <c r="AC84" s="46"/>
+      <c r="AD84" s="46"/>
+      <c r="AE84" s="46"/>
+      <c r="AF84" s="46"/>
+      <c r="AG84" s="46"/>
+    </row>
+    <row r="85" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="B85" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="C83" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D85" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F85" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G85" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="L83" s="46">
+      <c r="L85" s="79">
         <v>0</v>
       </c>
-      <c r="S83" s="48"/>
-      <c r="T83" s="48"/>
-      <c r="AA83" s="48"/>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="48"/>
-      <c r="AD83" s="48"/>
-      <c r="AE83" s="48"/>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="48"/>
-    </row>
-    <row r="84" spans="1:33" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="45" t="s">
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="46"/>
+      <c r="AD85" s="46"/>
+      <c r="AE85" s="46"/>
+      <c r="AF85" s="46"/>
+      <c r="AG85" s="46"/>
+    </row>
+    <row r="86" spans="1:41" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C86" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F86" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G84" s="46" t="s">
+      <c r="G86" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L84" s="46">
+      <c r="L86" s="79">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A85" s="45" t="s">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A87" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C87" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D87" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F87" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G87" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L85" s="46">
+      <c r="L87" s="79">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A88" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C88" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D88" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F88" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G86" s="46" t="s">
+      <c r="G88" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L86" s="46">
+      <c r="L88" s="79">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A89" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C89" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F89" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G87" s="46" t="s">
+      <c r="G89" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L87" s="46">
+      <c r="L89" s="79">
         <v>0</v>
       </c>
-      <c r="S87" s="51"/>
-      <c r="T87" s="51"/>
-      <c r="AA87" s="52"/>
-      <c r="AB87" s="52"/>
-      <c r="AC87" s="51"/>
-      <c r="AD87" s="51"/>
-      <c r="AE87" s="51"/>
-      <c r="AF87" s="51"/>
-      <c r="AG87" s="51"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="s">
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="AA89" s="50"/>
+      <c r="AB89" s="50"/>
+      <c r="AC89" s="49"/>
+      <c r="AD89" s="49"/>
+      <c r="AE89" s="49"/>
+      <c r="AF89" s="49"/>
+      <c r="AG89" s="49"/>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A90" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C90" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="47" t="s">
+      <c r="D90" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F90" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="46" t="s">
+      <c r="G90" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L88" s="46">
+      <c r="L90" s="79">
         <v>0</v>
       </c>
-      <c r="S88" s="51"/>
-      <c r="T88" s="51"/>
-      <c r="AA88" s="51"/>
-      <c r="AB88" s="51"/>
-      <c r="AC88" s="51"/>
-      <c r="AD88" s="51"/>
-      <c r="AE88" s="51"/>
-      <c r="AF88" s="51"/>
-      <c r="AG88" s="51"/>
-    </row>
-    <row r="89" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="45" t="s">
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="49"/>
+      <c r="AD90" s="49"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="49"/>
+    </row>
+    <row r="91" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="C91" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="C89" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D89" s="47" t="s">
+      <c r="D91" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="46" t="s">
+      <c r="F91" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G91" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L89" s="46">
+      <c r="L91" s="79">
         <v>0</v>
       </c>
-      <c r="S89" s="51"/>
-      <c r="T89" s="51"/>
-      <c r="AA89" s="51"/>
-      <c r="AB89" s="51"/>
-      <c r="AC89" s="51"/>
-      <c r="AD89" s="51"/>
-      <c r="AE89" s="51"/>
-      <c r="AF89" s="51"/>
-      <c r="AG89" s="51"/>
-    </row>
-    <row r="90" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="45" t="s">
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="49"/>
+      <c r="AD91" s="49"/>
+      <c r="AE91" s="49"/>
+      <c r="AF91" s="49"/>
+      <c r="AG91" s="49"/>
+    </row>
+    <row r="92" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C92" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F92" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G92" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L90" s="46">
+      <c r="L92" s="79">
         <v>0</v>
       </c>
-      <c r="S90" s="51"/>
-      <c r="T90" s="51"/>
-      <c r="AA90" s="51"/>
-      <c r="AB90" s="51"/>
-      <c r="AC90" s="51"/>
-      <c r="AD90" s="51"/>
-      <c r="AE90" s="51"/>
-      <c r="AF90" s="51"/>
-      <c r="AG90" s="51"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A91" s="45" t="s">
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="49"/>
+      <c r="AE92" s="49"/>
+      <c r="AF92" s="49"/>
+      <c r="AG92" s="49"/>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A93" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="B93" s="57"/>
+      <c r="C93" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D93" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="E93" s="57"/>
+      <c r="F93" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="46" t="s">
+      <c r="G93" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L91" s="46">
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="80">
         <v>0</v>
       </c>
-      <c r="S91" s="51"/>
-      <c r="T91" s="51"/>
-      <c r="AA91" s="51"/>
-      <c r="AB91" s="51"/>
-      <c r="AC91" s="51"/>
-      <c r="AD91" s="51"/>
-      <c r="AE91" s="51"/>
-      <c r="AF91" s="51"/>
-      <c r="AG91" s="51"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="57"/>
+      <c r="S93" s="59"/>
+      <c r="T93" s="59"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="57"/>
+      <c r="W93" s="57"/>
+      <c r="X93" s="57"/>
+      <c r="Y93" s="57"/>
+      <c r="Z93" s="57"/>
+      <c r="AA93" s="59"/>
+      <c r="AB93" s="59"/>
+      <c r="AC93" s="59"/>
+      <c r="AD93" s="59"/>
+      <c r="AE93" s="59"/>
+      <c r="AF93" s="59"/>
+      <c r="AG93" s="59"/>
+      <c r="AH93" s="57"/>
+      <c r="AI93" s="57"/>
+      <c r="AJ93" s="57"/>
+      <c r="AK93" s="57"/>
+      <c r="AL93" s="57"/>
+      <c r="AM93" s="57"/>
+    </row>
+    <row r="94" spans="1:41" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="70"/>
+      <c r="J94" s="79"/>
+      <c r="L94" s="79"/>
+      <c r="AO94" s="123"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A95" s="71"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="81"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="60"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="60"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="60"/>
+      <c r="Y95" s="60"/>
+      <c r="Z95" s="60"/>
+      <c r="AA95" s="60"/>
+      <c r="AB95" s="60"/>
+      <c r="AC95" s="60"/>
+      <c r="AD95" s="60"/>
+      <c r="AE95" s="60"/>
+      <c r="AF95" s="60"/>
+      <c r="AG95" s="60"/>
+      <c r="AH95" s="60"/>
+      <c r="AI95" s="60"/>
+      <c r="AJ95" s="60"/>
+      <c r="AK95" s="60"/>
+      <c r="AL95" s="60"/>
+      <c r="AM95" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L90" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
+  <autoFilter ref="C1:L92" xr:uid="{6CB10BF2-3928-447D-99A5-1738F96EC912}">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:AM91">
-    <sortCondition ref="I3:I91"/>
-    <sortCondition ref="A3:A91"/>
+  <sortState ref="A3:AM93">
+    <sortCondition ref="I3:I93"/>
+    <sortCondition ref="A3:A93"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="M1:AM1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -5681,6 +6057,7 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5689,15 +6066,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B21E192-B138-41DF-BD94-1F88A34F3941}">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="24" customWidth="1"/>
+    <col min="1" max="1" width="25" style="67" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="25" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="25" customWidth="1"/>
@@ -5734,55 +6111,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="97" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="23"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="103"/>
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -5867,21 +6244,21 @@
       <c r="AF2" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="AG2" s="54" t="s">
-        <v>439</v>
+      <c r="AG2" s="52" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>380</v>
+      <c r="B3" s="19" t="s">
+        <v>473</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="122">
         <v>1</v>
       </c>
       <c r="E3" s="26"/>
@@ -5905,7 +6282,7 @@
       <c r="AR3" s="29"/>
     </row>
     <row r="4" spans="1:44" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="67" t="s">
         <v>370</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -5914,13 +6291,13 @@
       <c r="C4" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="122">
         <v>1</v>
       </c>
       <c r="Y4" s="26"/>
     </row>
     <row r="5" spans="1:44" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="67" t="s">
         <v>354</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -5929,7 +6306,7 @@
       <c r="C5" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="122">
         <v>1</v>
       </c>
       <c r="E5" s="26"/>
@@ -5941,19 +6318,31 @@
       <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="D6" s="122">
         <v>0</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="AC6" s="26"/>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>
+    </row>
+    <row r="7" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="122">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A3:AR6">
@@ -5962,9 +6351,9 @@
   <mergeCells count="5">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AF1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5973,17 +6362,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACDF8E-1BC9-48C7-AB83-F83733DC582C}">
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="27" style="65" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="77" customWidth="1"/>
     <col min="3" max="3" width="35.5546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="14" customWidth="1"/>
@@ -5991,7 +6380,7 @@
     <col min="7" max="7" width="12.77734375" style="14" customWidth="1"/>
     <col min="8" max="8" width="19.21875" style="14" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="74" customWidth="1"/>
     <col min="11" max="11" width="4.88671875" style="12" customWidth="1"/>
     <col min="12" max="12" width="5.109375" style="12" customWidth="1"/>
     <col min="13" max="13" width="5.88671875" style="12" customWidth="1"/>
@@ -6026,95 +6415,97 @@
     <col min="49" max="49" width="19.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.21875" style="12" customWidth="1"/>
     <col min="51" max="51" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="8.88671875" style="13"/>
+    <col min="52" max="52" width="18" style="12" customWidth="1"/>
+    <col min="53" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:52" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
-    </row>
-    <row r="2" spans="1:51" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="7"/>
+    </row>
+    <row r="2" spans="1:52" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6220,97 +6611,100 @@
       <c r="AS2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AT2" s="54" t="s">
+      <c r="AT2" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="AU2" s="54" t="s">
+      <c r="AU2" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="AV2" s="54" t="s">
+      <c r="AV2" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="AW2" s="54" t="s">
+      <c r="AW2" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX2" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="AX2" s="54" t="s">
+      <c r="AY2" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="AY2" s="54" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="AZ2" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>395</v>
+      <c r="B3" s="75" t="s">
+        <v>394</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="78">
         <v>2</v>
       </c>
       <c r="W3" s="15"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>395</v>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>394</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="74">
         <v>2</v>
       </c>
       <c r="W4" s="15"/>
-      <c r="AJ4" s="89" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="AJ4" s="55" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>395</v>
+      <c r="B5" s="75" t="s">
+        <v>394</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="74">
         <v>2</v>
       </c>
       <c r="W5" s="15"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="1:51" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:52" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>395</v>
+      <c r="B6" s="76" t="s">
+        <v>394</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="74">
         <v>2</v>
       </c>
       <c r="W6" s="15"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>391</v>
+      <c r="B7" s="75" t="s">
+        <v>390</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>256</v>
@@ -6318,7 +6712,7 @@
       <c r="D7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="78">
         <v>2</v>
       </c>
       <c r="M7" s="15"/>
@@ -6332,12 +6726,12 @@
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>391</v>
+      <c r="B8" s="75" t="s">
+        <v>390</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>123</v>
@@ -6348,7 +6742,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8">
+      <c r="J8" s="78">
         <v>2</v>
       </c>
       <c r="K8" s="8"/>
@@ -6375,26 +6769,26 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="J9" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>391</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
@@ -6411,7 +6805,7 @@
       <c r="I10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="78">
         <v>40</v>
       </c>
       <c r="K10" s="8"/>
@@ -6438,29 +6832,29 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>392</v>
+      <c r="B11" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>119</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="31" t="s">
         <v>130</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="78">
         <v>20</v>
       </c>
       <c r="K11" s="8"/>
@@ -6487,12 +6881,12 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
     </row>
-    <row r="12" spans="1:51" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:52" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>392</v>
+      <c r="B12" s="76" t="s">
+        <v>391</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>114</v>
@@ -6506,7 +6900,7 @@
       <c r="I12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="74">
         <v>20</v>
       </c>
       <c r="L12" s="15"/>
@@ -6518,20 +6912,20 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:51" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:52" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="74">
         <v>6</v>
       </c>
       <c r="K13" s="15"/>
@@ -6543,17 +6937,17 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>392</v>
+      <c r="B14" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="74">
         <v>3</v>
       </c>
       <c r="K14" s="15"/>
@@ -6565,12 +6959,12 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>392</v>
+      <c r="B15" s="76" t="s">
+        <v>391</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>372</v>
@@ -6578,7 +6972,7 @@
       <c r="D15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="74">
         <v>4</v>
       </c>
       <c r="K15" s="15"/>
@@ -6590,12 +6984,12 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>392</v>
+      <c r="B16" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
@@ -6614,7 +7008,7 @@
       <c r="I16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="78">
         <v>40</v>
       </c>
       <c r="K16" s="8"/>
@@ -6642,11 +7036,11 @@
       <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>392</v>
+      <c r="B17" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>118</v>
@@ -6657,7 +7051,7 @@
       <c r="I17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="78">
         <v>50</v>
       </c>
       <c r="L17" s="15"/>
@@ -6671,11 +7065,11 @@
       <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>392</v>
+      <c r="B18" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>119</v>
@@ -6686,7 +7080,7 @@
       <c r="I18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="78">
         <v>20</v>
       </c>
       <c r="L18" s="15"/>
@@ -6700,11 +7094,11 @@
       <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>392</v>
+      <c r="B19" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>131</v>
@@ -6718,7 +7112,7 @@
       <c r="I19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="78">
         <v>15</v>
       </c>
       <c r="M19" s="15"/>
@@ -6727,11 +7121,11 @@
       <c r="AH19" s="15"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>392</v>
+      <c r="B20" s="76" t="s">
+        <v>391</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>127</v>
@@ -6745,7 +7139,7 @@
       <c r="I20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="74">
         <v>10</v>
       </c>
       <c r="M20" s="15"/>
@@ -6754,11 +7148,11 @@
       <c r="AK20" s="15"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>392</v>
+      <c r="B21" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>127</v>
@@ -6775,7 +7169,7 @@
       <c r="I21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="78">
         <v>25</v>
       </c>
       <c r="M21" s="15"/>
@@ -6785,11 +7179,11 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>392</v>
+      <c r="B22" s="75" t="s">
+        <v>391</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>129</v>
@@ -6806,7 +7200,7 @@
       <c r="I22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="78">
         <v>40</v>
       </c>
       <c r="M22" s="15"/>
@@ -6816,14 +7210,14 @@
       <c r="AI22" s="15"/>
     </row>
     <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>406</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>407</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>130</v>
@@ -6840,43 +7234,43 @@
       <c r="I23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="78">
         <v>15</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="W23" s="32"/>
+      <c r="W23" s="30"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>394</v>
+      <c r="A24" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>393</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="J24" s="12">
+      <c r="J24" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>394</v>
+      <c r="B25" s="76" t="s">
+        <v>393</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="74">
         <v>0</v>
       </c>
       <c r="K25" s="15"/>
@@ -6887,80 +7281,80 @@
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="J26" s="74">
         <v>0</v>
       </c>
       <c r="AJ26" s="15"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="J27" s="12">
+      <c r="A27" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="J27" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="A28" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>394</v>
+      <c r="A29" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>393</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="J29" s="12">
+      <c r="J29" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>389</v>
+      <c r="B30" s="76" t="s">
+        <v>388</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="74">
         <v>2</v>
       </c>
       <c r="AJ30" s="15"/>
     </row>
     <row r="31" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>389</v>
+      <c r="B31" s="75" t="s">
+        <v>388</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="74">
         <v>2</v>
       </c>
       <c r="K31" s="15"/>
@@ -6972,11 +7366,11 @@
       <c r="AB31" s="15"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>393</v>
+      <c r="B32" s="75" t="s">
+        <v>392</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="14" t="s">
@@ -6985,7 +7379,7 @@
       <c r="I32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="78">
         <v>3</v>
       </c>
       <c r="L32" s="15"/>
@@ -6995,12 +7389,12 @@
       <c r="W32" s="15"/>
       <c r="Y32" s="16"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A33" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>393</v>
+      <c r="B33" s="75" t="s">
+        <v>392</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="14" t="s">
@@ -7012,7 +7406,7 @@
       <c r="I33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="78">
         <v>15</v>
       </c>
       <c r="L33" s="15"/>
@@ -7022,12 +7416,12 @@
       <c r="W33" s="15"/>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>393</v>
+      <c r="B34" s="75" t="s">
+        <v>392</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>255</v>
@@ -7035,19 +7429,19 @@
       <c r="D34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="78">
         <v>2</v>
       </c>
       <c r="M34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A35" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>393</v>
+      <c r="B35" s="75" t="s">
+        <v>392</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>91</v>
@@ -7055,7 +7449,7 @@
       <c r="I35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="78">
         <v>7</v>
       </c>
       <c r="L35" s="15"/>
@@ -7065,77 +7459,77 @@
       <c r="W35" s="15"/>
       <c r="Y35" s="15"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A36" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="J36" s="74">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="20"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="J37" s="74">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="20"/>
+    </row>
+    <row r="38" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="J36" s="12">
+      <c r="B38" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="J38" s="74">
         <v>1</v>
       </c>
-      <c r="AI36" s="20"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="AI38" s="20"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A39" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="J37" s="12">
+      <c r="B39" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="J39" s="74">
         <v>1</v>
       </c>
-      <c r="AI37" s="20"/>
-    </row>
-    <row r="38" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="J38" s="12">
+      <c r="AI39" s="20"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="J40" s="74">
         <v>1</v>
       </c>
-      <c r="AI38" s="20"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="J39" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="20"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="J40" s="12">
-        <v>1</v>
-      </c>
       <c r="AI40" s="20"/>
     </row>
-    <row r="41" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>396</v>
+      <c r="B41" s="75" t="s">
+        <v>395</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>353</v>
@@ -7143,22 +7537,22 @@
       <c r="D41" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="74">
         <v>1</v>
       </c>
       <c r="AJ41" s="15"/>
     </row>
-    <row r="42" spans="1:51" ht="216" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:52" ht="216" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="D42" s="55">
+      <c r="D42" s="53">
         <v>2</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="74">
         <v>2</v>
       </c>
       <c r="K42" s="15"/>
@@ -7168,14 +7562,14 @@
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:51" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:52" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="65" t="s">
         <v>294</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="74">
         <v>2</v>
       </c>
       <c r="Y43" s="17"/>
@@ -7183,27 +7577,27 @@
       <c r="AM43" s="18"/>
       <c r="AN43" s="18"/>
     </row>
-    <row r="44" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="65" t="s">
         <v>299</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="74">
         <v>1</v>
       </c>
       <c r="Y44" s="18"/>
     </row>
-    <row r="45" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="74">
         <v>1</v>
       </c>
       <c r="L45" s="15"/>
@@ -7214,17 +7608,17 @@
       <c r="AA45" s="15"/>
       <c r="AB45" s="15"/>
     </row>
-    <row r="46" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="74">
         <v>2</v>
       </c>
       <c r="AJ46" s="16"/>
@@ -7235,25 +7629,44 @@
       <c r="AX46" s="15"/>
       <c r="AY46" s="15"/>
     </row>
-    <row r="47" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:52" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="74">
         <v>1</v>
       </c>
       <c r="AJ47" s="15"/>
+    </row>
+    <row r="48" spans="1:52" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="J48" s="77">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AV48" s="18"/>
+      <c r="AY48" s="18"/>
+      <c r="AZ48" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A3:AY47">
     <sortCondition ref="B3:B47"/>
     <sortCondition ref="A3:A47"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="K1:AY1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -7264,6 +7677,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7275,16 +7689,16 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="62" customWidth="1"/>
     <col min="2" max="2" width="70" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="16.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="82" customWidth="1"/>
     <col min="5" max="5" width="5.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.21875" style="3" customWidth="1"/>
@@ -7297,35 +7711,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7355,7 +7769,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="62" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7364,12 +7778,12 @@
       <c r="C3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="62" t="s">
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -7378,12 +7792,12 @@
       <c r="C4" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="62" t="s">
         <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -7392,13 +7806,13 @@
       <c r="C5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="82">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="62" t="s">
         <v>250</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7407,7 +7821,7 @@
       <c r="C6" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="82">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
@@ -7418,7 +7832,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="62" t="s">
         <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -7427,13 +7841,13 @@
       <c r="C7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="82">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="62" t="s">
         <v>345</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -7442,13 +7856,13 @@
       <c r="C8" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="82">
         <v>1</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="62" t="s">
         <v>274</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -7457,13 +7871,13 @@
       <c r="C9" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="82">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="62" t="s">
         <v>366</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7472,13 +7886,13 @@
       <c r="C10" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="82">
         <v>1</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="62" t="s">
         <v>241</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -7487,13 +7901,13 @@
       <c r="C11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="82">
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="62" t="s">
         <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -7502,13 +7916,13 @@
       <c r="C12" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="82">
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="62" t="s">
         <v>219</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7517,7 +7931,7 @@
       <c r="C13" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="82">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
@@ -7528,7 +7942,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="62" t="s">
         <v>217</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -7537,22 +7951,22 @@
       <c r="C14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="82">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="82">
         <v>1</v>
       </c>
       <c r="F15" s="4"/>
@@ -7564,7 +7978,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="62" t="s">
         <v>360</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7573,13 +7987,13 @@
       <c r="C16" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="82">
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="62" t="s">
         <v>271</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7588,13 +8002,13 @@
       <c r="C17" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="82">
         <v>1</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="62" t="s">
         <v>218</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -7603,7 +8017,7 @@
       <c r="C18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="82">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
@@ -7614,16 +8028,16 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="82">
         <v>1</v>
       </c>
       <c r="E19" s="4"/>
@@ -7634,7 +8048,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="62" t="s">
         <v>238</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -7643,13 +8057,13 @@
       <c r="C20" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="82">
         <v>1</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="62" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -7658,27 +8072,27 @@
       <c r="C21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="82">
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="62" t="s">
         <v>244</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -7687,13 +8101,13 @@
       <c r="C23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="82">
         <v>1</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="62" t="s">
         <v>231</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7702,13 +8116,13 @@
       <c r="C24" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="82">
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="62" t="s">
         <v>246</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7717,12 +8131,12 @@
       <c r="C25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="62" t="s">
         <v>234</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -7731,13 +8145,13 @@
       <c r="C26" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="82">
         <v>1</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="62" t="s">
         <v>220</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -7746,28 +8160,28 @@
       <c r="C27" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="82">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="62" t="s">
+        <v>468</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D28" s="82">
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="62" t="s">
         <v>248</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -7776,7 +8190,7 @@
       <c r="C29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="82">
         <v>0</v>
       </c>
     </row>
@@ -7801,133 +8215,133 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="41"/>
-    <col min="3" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="21.44140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="84" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="83" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="B3" s="41">
+        <v>456</v>
+      </c>
+      <c r="B3" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="A5" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="41">
+      <c r="A14" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="84">
         <v>0</v>
       </c>
     </row>
@@ -7945,236 +8359,236 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="36"/>
-    <col min="3" max="3" width="15.21875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="15" style="36" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="142.6640625" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="29.21875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="86" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="15" style="34" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="142.6640625" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1"